--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>5. 1. 2021</t>
+  </si>
+  <si>
+    <t>26. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -206,10 +209,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W137"/>
+  <dimension ref="A1:X137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +595,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,87 +665,93 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.03</v>
@@ -804,16 +813,19 @@
       <c r="W3" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -875,16 +887,19 @@
       <c r="W4" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -946,16 +961,19 @@
       <c r="W5" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.2300000000000001</v>
@@ -1017,16 +1035,19 @@
       <c r="W6" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1088,16 +1109,19 @@
       <c r="W7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>0.04</v>
@@ -1159,16 +1183,19 @@
       <c r="W8" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1230,16 +1257,19 @@
       <c r="W9" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1301,16 +1331,19 @@
       <c r="W10" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1372,16 +1405,19 @@
       <c r="W11" t="n">
         <v>0.04000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1443,19 +1479,22 @@
       <c r="W12" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E13" t="n">
         <v>0.3</v>
@@ -1514,16 +1553,19 @@
       <c r="W13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1585,19 +1627,22 @@
       <c r="W14" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="n">
         <v>0.61</v>
@@ -1656,16 +1701,19 @@
       <c r="W15" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1727,16 +1775,19 @@
       <c r="W16" t="n">
         <v>0.06999999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.08000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1798,16 +1849,19 @@
       <c r="W17" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1869,16 +1923,19 @@
       <c r="W18" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -1940,16 +1997,19 @@
       <c r="W19" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2011,16 +2071,19 @@
       <c r="W20" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.995</v>
@@ -2082,19 +2145,22 @@
       <c r="W21" t="n">
         <v>0.9299999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E22" t="n">
         <v>0.19</v>
@@ -2153,16 +2219,19 @@
       <c r="W22" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2224,19 +2293,22 @@
       <c r="W23" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E24" t="n">
         <v>0.01</v>
@@ -2295,16 +2367,19 @@
       <c r="W24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2366,19 +2441,22 @@
       <c r="W25" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" t="n">
-        <v>0.755</v>
+        <v>0.73</v>
       </c>
       <c r="E26" t="n">
         <v>0.75</v>
@@ -2437,16 +2515,19 @@
       <c r="W26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2508,16 +2589,19 @@
       <c r="W27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.04</v>
@@ -2579,16 +2663,19 @@
       <c r="W28" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -2650,16 +2737,19 @@
       <c r="W29" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -2721,16 +2811,19 @@
       <c r="W30" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2792,16 +2885,19 @@
       <c r="W31" t="n">
         <v>0.05000000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2863,19 +2959,22 @@
       <c r="W32" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E33" t="n">
         <v>0.3</v>
@@ -2934,16 +3033,19 @@
       <c r="W33" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3005,19 +3107,22 @@
       <c r="W34" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E35" t="n">
         <v>0.6</v>
@@ -3076,16 +3181,19 @@
       <c r="W35" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3147,19 +3255,22 @@
       <c r="W36" t="n">
         <v>0.07999999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.07999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E37" t="n">
         <v>0.04</v>
@@ -3218,16 +3329,19 @@
       <c r="W37" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.02</v>
@@ -3289,19 +3403,22 @@
       <c r="W38" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E39" t="n">
         <v>0.04</v>
@@ -3360,19 +3477,22 @@
       <c r="W39" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="E40" t="n">
         <v>0.43</v>
@@ -3431,19 +3551,22 @@
       <c r="W40" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="E41" t="n">
         <v>0.33</v>
@@ -3502,19 +3625,22 @@
       <c r="W41" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E42" t="n">
         <v>0.12</v>
@@ -3573,16 +3699,19 @@
       <c r="W42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3644,16 +3773,19 @@
       <c r="W43" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -3715,16 +3847,19 @@
       <c r="W44" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3786,19 +3921,22 @@
       <c r="W45" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="E46" t="n">
         <v>0.84</v>
@@ -3857,16 +3995,19 @@
       <c r="W46" t="n">
         <v>0.8149999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -3928,16 +4069,19 @@
       <c r="W47" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.04</v>
@@ -3999,19 +4143,22 @@
       <c r="W48" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E49" t="n">
         <v>0.05</v>
@@ -4070,19 +4217,22 @@
       <c r="W49" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="E50" t="n">
         <v>0.51</v>
@@ -4141,19 +4291,22 @@
       <c r="W50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="E51" t="n">
         <v>0.33</v>
@@ -4212,16 +4365,19 @@
       <c r="W51" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -4283,16 +4439,19 @@
       <c r="W52" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
         <v>0.03</v>
@@ -4354,19 +4513,22 @@
       <c r="W53" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E54" t="n">
         <v>0.07000000000000001</v>
@@ -4425,19 +4587,22 @@
       <c r="W54" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E55" t="n">
         <v>0.61</v>
@@ -4496,19 +4661,22 @@
       <c r="W55" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2050000000000001</v>
+        <v>0.1900000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>0.1899999999999999</v>
@@ -4567,16 +4735,19 @@
       <c r="W56" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -4638,16 +4809,19 @@
       <c r="W57" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
         <v>0.015</v>
@@ -4709,16 +4883,19 @@
       <c r="W58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -4780,19 +4957,22 @@
       <c r="W59" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E60" t="n">
         <v>0.76</v>
@@ -4851,19 +5031,22 @@
       <c r="W60" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="E61" t="n">
         <v>0.14</v>
@@ -4922,19 +5105,22 @@
       <c r="W61" t="n">
         <v>0.1850000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E62" t="n">
         <v>0.06</v>
@@ -4993,16 +5179,19 @@
       <c r="W62" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
         <v>0.03</v>
@@ -5064,16 +5253,19 @@
       <c r="W63" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -5135,16 +5327,19 @@
       <c r="W64" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -5206,19 +5401,22 @@
       <c r="W65" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E66" t="n">
         <v>0.26</v>
@@ -5277,16 +5475,19 @@
       <c r="W66" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" t="n">
+        <v>0.2899999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -5348,19 +5549,22 @@
       <c r="W67" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E68" t="n">
         <v>0.1</v>
@@ -5419,16 +5623,19 @@
       <c r="W68" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -5490,19 +5697,22 @@
       <c r="W69" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>0.6899999999999999</v>
@@ -5561,19 +5771,22 @@
       <c r="W70" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1100000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E71" t="n">
         <v>0.1300000000000001</v>
@@ -5632,19 +5845,22 @@
       <c r="W71" t="n">
         <v>0.1850000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" t="n">
+        <v>0.1950000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E72" t="n">
         <v>0.05</v>
@@ -5703,16 +5919,19 @@
       <c r="W72" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
         <v>0.04</v>
@@ -5774,16 +5993,19 @@
       <c r="W73" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -5845,19 +6067,22 @@
       <c r="W74" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E75" t="n">
         <v>0.54</v>
@@ -5916,19 +6141,22 @@
       <c r="W75" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E76" t="n">
         <v>0.345</v>
@@ -5987,16 +6215,19 @@
       <c r="W76" t="n">
         <v>0.3999999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -6058,16 +6289,19 @@
       <c r="W77" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" t="n">
         <v>0.015</v>
@@ -6129,16 +6363,19 @@
       <c r="W78" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -6200,19 +6437,22 @@
       <c r="W79" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="E80" t="n">
         <v>0.66</v>
@@ -6271,19 +6511,22 @@
       <c r="W80" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>0.195</v>
+        <v>0.1849999999999999</v>
       </c>
       <c r="E81" t="n">
         <v>0.1599999999999999</v>
@@ -6342,19 +6585,22 @@
       <c r="W81" t="n">
         <v>0.2050000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E82" t="n">
         <v>0.12</v>
@@ -6413,19 +6659,22 @@
       <c r="W82" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="E83" t="n">
         <v>0.08</v>
@@ -6484,19 +6733,22 @@
       <c r="W83" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E84" t="n">
         <v>0.03</v>
@@ -6555,19 +6807,22 @@
       <c r="W84" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="E85" t="n">
         <v>0.48</v>
@@ -6626,19 +6881,22 @@
       <c r="W85" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2749999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="E86" t="n">
         <v>0.29</v>
@@ -6697,16 +6955,19 @@
       <c r="W86" t="n">
         <v>0.3100000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -6768,19 +7029,22 @@
       <c r="W87" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E88" t="n">
         <v>0.08</v>
@@ -6839,19 +7103,22 @@
       <c r="W88" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E89" t="n">
         <v>0.04</v>
@@ -6910,19 +7177,22 @@
       <c r="W89" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E90" t="n">
         <v>0.55</v>
@@ -6981,16 +7251,19 @@
       <c r="W90" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
         <v>0.295</v>
@@ -7052,16 +7325,19 @@
       <c r="W91" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -7123,16 +7399,19 @@
       <c r="W92" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -7194,16 +7473,19 @@
       <c r="W93" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -7265,16 +7547,19 @@
       <c r="W94" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -7336,16 +7621,19 @@
       <c r="W95" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
         <v>0.1899999999999999</v>
@@ -7407,16 +7695,19 @@
       <c r="W96" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" t="n">
+        <v>0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -7478,19 +7769,22 @@
       <c r="W97" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E98" t="n">
         <v>0.1</v>
@@ -7549,16 +7843,19 @@
       <c r="W98" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -7620,19 +7917,22 @@
       <c r="W99" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E100" t="n">
         <v>0.76</v>
@@ -7691,16 +7991,19 @@
       <c r="W100" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
         <v>0.09499999999999997</v>
@@ -7762,19 +8065,22 @@
       <c r="W101" t="n">
         <v>0.135</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E102" t="n">
         <v>0.015</v>
@@ -7833,19 +8139,22 @@
       <c r="W102" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E103" t="n">
         <v>0.2</v>
@@ -7904,16 +8213,19 @@
       <c r="W103" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -7975,19 +8287,22 @@
       <c r="W104" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E105" t="n">
         <v>0.7</v>
@@ -8046,19 +8361,22 @@
       <c r="W105" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="E106" t="n">
         <v>0.02500000000000002</v>
@@ -8117,16 +8435,19 @@
       <c r="W106" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -8188,16 +8509,19 @@
       <c r="W107" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -8259,19 +8583,22 @@
       <c r="W108" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E109" t="n">
         <v>0.06</v>
@@ -8330,19 +8657,22 @@
       <c r="W109" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D110" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E110" t="n">
         <v>0.82</v>
@@ -8401,16 +8731,19 @@
       <c r="W110" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="n">
         <v>0.05500000000000005</v>
@@ -8472,16 +8805,19 @@
       <c r="W111" t="n">
         <v>0.07499999999999996</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" t="n">
+        <v>0.07000000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -8543,16 +8879,19 @@
       <c r="W112" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -8614,16 +8953,19 @@
       <c r="W113" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -8685,19 +9027,22 @@
       <c r="W114" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D115" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="E115" t="n">
         <v>0.82</v>
@@ -8756,19 +9101,22 @@
       <c r="W115" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004999999999999893</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="E116" t="n">
         <v>0.02000000000000002</v>
@@ -8827,16 +9175,19 @@
       <c r="W116" t="n">
         <v>0.03000000000000003</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -8898,16 +9249,19 @@
       <c r="W117" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -8969,16 +9323,19 @@
       <c r="W118" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -9040,19 +9397,22 @@
       <c r="W119" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D120" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E120" t="n">
         <v>0.88</v>
@@ -9111,19 +9471,22 @@
       <c r="W120" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02499999999999991</v>
+        <v>0.0149999999999999</v>
       </c>
       <c r="E121" t="n">
         <v>0.01500000000000001</v>
@@ -9182,16 +9545,19 @@
       <c r="W121" t="n">
         <v>0.03000000000000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -9253,16 +9619,19 @@
       <c r="W122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -9324,19 +9693,22 @@
       <c r="W123" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="E124" t="n">
         <v>0.03</v>
@@ -9395,16 +9767,19 @@
       <c r="W124" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -9466,19 +9841,22 @@
       <c r="W125" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0149999999999999</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="E126" t="n">
         <v>0.02000000000000002</v>
@@ -9537,16 +9915,19 @@
       <c r="W126" t="n">
         <v>0.07000000000000006</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126" t="n">
+        <v>0.08000000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D127" t="n">
         <v>0.02</v>
@@ -9608,16 +9989,19 @@
       <c r="W127" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" t="n">
         <v>0.03</v>
@@ -9679,16 +10063,19 @@
       <c r="W128" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -9750,16 +10137,19 @@
       <c r="W129" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -9821,16 +10211,19 @@
       <c r="W130" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D131" t="n">
         <v>0.135</v>
@@ -9892,16 +10285,19 @@
       <c r="W131" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -9963,16 +10359,19 @@
       <c r="W132" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133" t="n">
         <v>0.03</v>
@@ -10034,16 +10433,19 @@
       <c r="W133" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -10105,16 +10507,19 @@
       <c r="W134" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -10176,16 +10581,19 @@
       <c r="W135" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D136" t="n">
         <v>0.3200000000000001</v>
@@ -10247,10 +10655,13 @@
       <c r="W136" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10264,7 +10675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10272,7 +10683,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10339,16 +10750,19 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1349</v>
+        <v>1465</v>
       </c>
       <c r="D2" t="n">
         <v>2005</v>
@@ -10407,16 +10821,19 @@
       <c r="V2" t="n">
         <v>1530</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>849</v>
+        <v>922</v>
       </c>
       <c r="D3" t="n">
         <v>1240</v>
@@ -10475,16 +10892,19 @@
       <c r="V3" t="n">
         <v>916</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
         <v>224</v>
@@ -10543,16 +10963,19 @@
       <c r="V4" t="n">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D5" t="n">
         <v>194</v>
@@ -10611,16 +11034,19 @@
       <c r="V5" t="n">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D6" t="n">
         <v>347</v>
@@ -10679,16 +11105,19 @@
       <c r="V6" t="n">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>811</v>
+        <v>881</v>
       </c>
       <c r="D7" t="n">
         <v>1190</v>
@@ -10747,16 +11176,19 @@
       <c r="V7" t="n">
         <v>875</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D8" t="n">
         <v>210</v>
@@ -10815,16 +11247,19 @@
       <c r="V8" t="n">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D9" t="n">
         <v>107</v>
@@ -10883,16 +11318,19 @@
       <c r="V9" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="D10" t="n">
         <v>498</v>
@@ -10951,16 +11389,19 @@
       <c r="V10" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="D11" t="n">
         <v>858</v>
@@ -11019,16 +11460,19 @@
       <c r="V11" t="n">
         <v>662</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="D12" t="n">
         <v>721</v>
@@ -11087,16 +11531,19 @@
       <c r="V12" t="n">
         <v>551</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="D13" t="n">
         <v>426</v>
@@ -11155,16 +11602,19 @@
       <c r="V13" t="n">
         <v>317</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="D14" t="n">
         <v>549</v>
@@ -11223,16 +11673,19 @@
       <c r="V14" t="n">
         <v>454</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D15" t="n">
         <v>248</v>
@@ -11291,16 +11744,19 @@
       <c r="V15" t="n">
         <v>183</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D16" t="n">
         <v>355</v>
@@ -11359,16 +11815,19 @@
       <c r="V16" t="n">
         <v>292</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="D17" t="n">
         <v>609</v>
@@ -11427,16 +11886,19 @@
       <c r="V17" t="n">
         <v>429</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="D18" t="n">
         <v>252</v>
@@ -11495,16 +11957,19 @@
       <c r="V18" t="n">
         <v>206</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="D19" t="n">
         <v>653</v>
@@ -11563,16 +12028,19 @@
       <c r="V19" t="n">
         <v>540</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="D20" t="n">
         <v>609</v>
@@ -11631,16 +12099,19 @@
       <c r="V20" t="n">
         <v>446</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D21" t="n">
         <v>247</v>
@@ -11699,16 +12170,19 @@
       <c r="V21" t="n">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="D22" t="n">
         <v>441</v>
@@ -11767,16 +12241,19 @@
       <c r="V22" t="n">
         <v>336</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" t="n">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D23" t="n">
         <v>121</v>
@@ -11835,16 +12312,19 @@
       <c r="V23" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="D24" t="n">
         <v>432</v>
@@ -11903,16 +12383,19 @@
       <c r="V24" t="n">
         <v>305</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D25" t="n">
         <v>240</v>
@@ -11971,16 +12454,19 @@
       <c r="V25" t="n">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D26" t="n">
         <v>122</v>
@@ -12039,16 +12525,19 @@
       <c r="V26" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="n">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="D27" t="n">
         <v>997</v>
@@ -12107,16 +12596,19 @@
       <c r="V27" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" t="n">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>702</v>
+        <v>767</v>
       </c>
       <c r="D28" t="n">
         <v>1008</v>
@@ -12175,10 +12667,13 @@
       <c r="V28" t="n">
         <v>792</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" t="n">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -12201,6 +12696,7 @@
       <c r="T29" t="s"/>
       <c r="U29" t="s"/>
       <c r="V29" t="s"/>
+      <c r="W29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -107,10 +107,10 @@
     <t>Kompenzované omezení práce</t>
   </si>
   <si>
-    <t>Karanténa</t>
+    <t>Pracující bez omezení</t>
   </si>
   <si>
-    <t>Pracující bez omezení</t>
+    <t>Neaktivní</t>
   </si>
   <si>
     <t>Pracovní status před krizí</t>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>16. 2. 2021</t>
+  </si>
+  <si>
+    <t>2. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -212,10 +215,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y137"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,93 +677,99 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -828,16 +837,19 @@
       <c r="Y3" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -905,16 +917,19 @@
       <c r="Y4" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -982,16 +997,19 @@
       <c r="Y5" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1059,16 +1077,19 @@
       <c r="Y6" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1136,93 +1157,99 @@
       <c r="Y7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1290,16 +1317,19 @@
       <c r="Y9" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1367,16 +1397,19 @@
       <c r="Y10" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1444,16 +1477,19 @@
       <c r="Y11" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1521,16 +1557,19 @@
       <c r="Y12" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1598,16 +1637,19 @@
       <c r="Y13" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1675,16 +1717,19 @@
       <c r="Y14" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -1752,16 +1797,19 @@
       <c r="Y15" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1829,16 +1877,19 @@
       <c r="Y16" t="n">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1906,16 +1957,19 @@
       <c r="Y17" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -1983,16 +2037,19 @@
       <c r="Y18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2060,16 +2117,19 @@
       <c r="Y19" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2137,16 +2197,19 @@
       <c r="Y20" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2214,16 +2277,19 @@
       <c r="Y21" t="n">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2291,16 +2357,19 @@
       <c r="Y22" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2368,16 +2437,19 @@
       <c r="Y23" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2445,16 +2517,19 @@
       <c r="Y24" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2522,16 +2597,19 @@
       <c r="Y25" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -2599,16 +2677,19 @@
       <c r="Y26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,93 +2757,99 @@
       <c r="Y27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -2830,16 +2917,19 @@
       <c r="Y29" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -2907,16 +2997,19 @@
       <c r="Y30" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2984,16 +3077,19 @@
       <c r="Y31" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3061,16 +3157,19 @@
       <c r="Y32" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3138,16 +3237,19 @@
       <c r="Y33" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3215,16 +3317,19 @@
       <c r="Y34" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3292,16 +3397,19 @@
       <c r="Y35" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3369,16 +3477,19 @@
       <c r="Y36" t="n">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -3446,16 +3557,19 @@
       <c r="Y37" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3523,16 +3637,19 @@
       <c r="Y38" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3600,16 +3717,19 @@
       <c r="Y39" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -3677,16 +3797,19 @@
       <c r="Y40" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -3754,16 +3877,19 @@
       <c r="Y41" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -3831,16 +3957,19 @@
       <c r="Y42" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -3908,16 +4037,19 @@
       <c r="Y43" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -3985,16 +4117,19 @@
       <c r="Y44" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4062,16 +4197,19 @@
       <c r="Y45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4139,16 +4277,19 @@
       <c r="Y46" t="n">
         <v>0.805</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -4216,16 +4357,19 @@
       <c r="Y47" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -4293,16 +4437,19 @@
       <c r="Y48" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -4370,16 +4517,19 @@
       <c r="Y49" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -4447,16 +4597,19 @@
       <c r="Y50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -4524,16 +4677,19 @@
       <c r="Y51" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -4601,16 +4757,19 @@
       <c r="Y52" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -4678,16 +4837,19 @@
       <c r="Y53" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -4755,16 +4917,19 @@
       <c r="Y54" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -4832,16 +4997,19 @@
       <c r="Y55" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -4909,16 +5077,19 @@
       <c r="Y56" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -4986,16 +5157,19 @@
       <c r="Y57" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -5063,16 +5237,19 @@
       <c r="Y58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -5140,16 +5317,19 @@
       <c r="Y59" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -5217,16 +5397,19 @@
       <c r="Y60" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -5294,93 +5477,99 @@
       <c r="Y61" t="n">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" t="s">
         <v>47</v>
       </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
-      <c r="A63" t="s">
-        <v>46</v>
-      </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -5448,16 +5637,19 @@
       <c r="Y63" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -5525,16 +5717,19 @@
       <c r="Y64" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -5602,16 +5797,19 @@
       <c r="Y65" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -5679,16 +5877,19 @@
       <c r="Y66" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -5756,16 +5957,19 @@
       <c r="Y67" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -5833,16 +6037,19 @@
       <c r="Y68" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -5910,16 +6117,19 @@
       <c r="Y69" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -5987,16 +6197,19 @@
       <c r="Y70" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -6064,16 +6277,19 @@
       <c r="Y71" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -6141,16 +6357,19 @@
       <c r="Y72" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -6218,16 +6437,19 @@
       <c r="Y73" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6295,16 +6517,19 @@
       <c r="Y74" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -6372,16 +6597,19 @@
       <c r="Y75" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -6449,16 +6677,19 @@
       <c r="Y76" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -6526,16 +6757,19 @@
       <c r="Y77" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -6603,16 +6837,19 @@
       <c r="Y78" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -6680,16 +6917,19 @@
       <c r="Y79" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -6757,16 +6997,19 @@
       <c r="Y80" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -6834,16 +7077,19 @@
       <c r="Y81" t="n">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -6911,16 +7157,19 @@
       <c r="Y82" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -6988,16 +7237,19 @@
       <c r="Y83" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -7065,16 +7317,19 @@
       <c r="Y84" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -7142,16 +7397,19 @@
       <c r="Y85" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -7219,16 +7477,19 @@
       <c r="Y86" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -7296,16 +7557,19 @@
       <c r="Y87" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -7373,16 +7637,19 @@
       <c r="Y88" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7450,16 +7717,19 @@
       <c r="Y89" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -7527,16 +7797,19 @@
       <c r="Y90" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -7604,16 +7877,19 @@
       <c r="Y91" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -7681,16 +7957,19 @@
       <c r="Y92" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -7758,16 +8037,19 @@
       <c r="Y93" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -7835,16 +8117,19 @@
       <c r="Y94" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -7912,16 +8197,19 @@
       <c r="Y95" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -7989,16 +8277,19 @@
       <c r="Y96" t="n">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -8066,16 +8357,19 @@
       <c r="Y97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -8143,16 +8437,19 @@
       <c r="Y98" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -8220,16 +8517,19 @@
       <c r="Y99" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -8297,16 +8597,19 @@
       <c r="Y100" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -8374,16 +8677,19 @@
       <c r="Y101" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -8451,16 +8757,19 @@
       <c r="Y102" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -8528,16 +8837,19 @@
       <c r="Y103" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -8605,16 +8917,19 @@
       <c r="Y104" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -8682,16 +8997,19 @@
       <c r="Y105" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -8759,16 +9077,19 @@
       <c r="Y106" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -8836,16 +9157,19 @@
       <c r="Y107" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -8913,16 +9237,19 @@
       <c r="Y108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -8990,16 +9317,19 @@
       <c r="Y109" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -9067,16 +9397,19 @@
       <c r="Y110" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -9144,16 +9477,19 @@
       <c r="Y111" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -9221,16 +9557,19 @@
       <c r="Y112" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -9298,16 +9637,19 @@
       <c r="Y113" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -9375,16 +9717,19 @@
       <c r="Y114" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -9452,16 +9797,19 @@
       <c r="Y115" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -9529,16 +9877,19 @@
       <c r="Y116" t="n">
         <v>0.035</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -9606,16 +9957,19 @@
       <c r="Y117" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -9683,16 +10037,19 @@
       <c r="Y118" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -9760,16 +10117,19 @@
       <c r="Y119" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -9837,16 +10197,19 @@
       <c r="Y120" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -9914,16 +10277,19 @@
       <c r="Y121" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -9991,16 +10357,19 @@
       <c r="Y122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -10068,16 +10437,19 @@
       <c r="Y123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -10145,16 +10517,19 @@
       <c r="Y124" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -10222,16 +10597,19 @@
       <c r="Y125" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -10299,93 +10677,99 @@
       <c r="Y126" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" t="s">
         <v>63</v>
       </c>
-      <c r="C127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25">
-      <c r="A128" t="s">
-        <v>62</v>
-      </c>
       <c r="B128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -10453,16 +10837,19 @@
       <c r="Y128" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -10530,16 +10917,19 @@
       <c r="Y129" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -10607,16 +10997,19 @@
       <c r="Y130" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -10684,16 +11077,19 @@
       <c r="Y131" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -10761,16 +11157,19 @@
       <c r="Y132" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26">
       <c r="A133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -10838,16 +11237,19 @@
       <c r="Y133" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26">
       <c r="A134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -10915,16 +11317,19 @@
       <c r="Y134" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
       <c r="A135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -10992,16 +11397,19 @@
       <c r="Y135" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -11069,10 +11477,13 @@
       <c r="Y136" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26">
       <c r="A137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -11086,7 +11497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11094,7 +11505,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11167,13 +11578,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -11241,13 +11655,16 @@
       <c r="X2" t="n">
         <v>1588</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -11315,13 +11732,16 @@
       <c r="X3" t="n">
         <v>979</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -11389,13 +11809,16 @@
       <c r="X4" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -11463,13 +11886,16 @@
       <c r="X5" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -11537,13 +11963,16 @@
       <c r="X6" t="n">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -11611,13 +12040,16 @@
       <c r="X7" t="n">
         <v>936</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -11685,13 +12117,16 @@
       <c r="X8" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -11759,13 +12194,16 @@
       <c r="X9" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -11833,13 +12271,16 @@
       <c r="X10" t="n">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -11907,13 +12348,16 @@
       <c r="X11" t="n">
         <v>693</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -11981,13 +12425,16 @@
       <c r="X12" t="n">
         <v>571</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -12055,13 +12502,16 @@
       <c r="X13" t="n">
         <v>324</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -12129,13 +12579,16 @@
       <c r="X14" t="n">
         <v>472</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -12203,13 +12656,16 @@
       <c r="X15" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -12277,13 +12733,16 @@
       <c r="X16" t="n">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -12351,13 +12810,16 @@
       <c r="X17" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -12425,13 +12887,16 @@
       <c r="X18" t="n">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -12499,13 +12964,16 @@
       <c r="X19" t="n">
         <v>509</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -12573,13 +13041,16 @@
       <c r="X20" t="n">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -12647,13 +13118,16 @@
       <c r="X21" t="n">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -12721,13 +13195,16 @@
       <c r="X22" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -12795,13 +13272,16 @@
       <c r="X23" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -12869,13 +13349,16 @@
       <c r="X24" t="n">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -12943,13 +13426,16 @@
       <c r="X25" t="n">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -13017,13 +13503,16 @@
       <c r="X26" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -13091,13 +13580,16 @@
       <c r="X27" t="n">
         <v>780</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -13165,10 +13657,13 @@
       <c r="X28" t="n">
         <v>808</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -13193,6 +13688,7 @@
       <c r="V29" t="s"/>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>2. 3. 2021</t>
+  </si>
+  <si>
+    <t>16. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -215,10 +218,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:AA137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,96 +683,102 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -840,16 +849,19 @@
       <c r="Z3" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -920,16 +932,19 @@
       <c r="Z4" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1000,16 +1015,19 @@
       <c r="Z5" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1080,16 +1098,19 @@
       <c r="Z6" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1160,96 +1181,102 @@
       <c r="Z7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1320,16 +1347,19 @@
       <c r="Z9" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1400,16 +1430,19 @@
       <c r="Z10" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1480,16 +1513,19 @@
       <c r="Z11" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1560,16 +1596,19 @@
       <c r="Z12" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1640,16 +1679,19 @@
       <c r="Z13" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1720,16 +1762,19 @@
       <c r="Z14" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -1800,16 +1845,19 @@
       <c r="Z15" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1880,16 +1928,19 @@
       <c r="Z16" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1960,16 +2011,19 @@
       <c r="Z17" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2040,16 +2094,19 @@
       <c r="Z18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2120,16 +2177,19 @@
       <c r="Z19" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2200,16 +2260,19 @@
       <c r="Z20" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2280,16 +2343,19 @@
       <c r="Z21" t="n">
         <v>0.9350000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2360,16 +2426,19 @@
       <c r="Z22" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2440,16 +2509,19 @@
       <c r="Z23" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2520,16 +2592,19 @@
       <c r="Z24" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2600,16 +2675,19 @@
       <c r="Z25" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -2680,16 +2758,19 @@
       <c r="Z26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2760,96 +2841,102 @@
       <c r="Z27" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -2920,16 +3007,19 @@
       <c r="Z29" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3000,16 +3090,19 @@
       <c r="Z30" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3080,16 +3173,19 @@
       <c r="Z31" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3160,16 +3256,19 @@
       <c r="Z32" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3240,16 +3339,19 @@
       <c r="Z33" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3320,16 +3422,19 @@
       <c r="Z34" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3400,16 +3505,19 @@
       <c r="Z35" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3480,16 +3588,19 @@
       <c r="Z36" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -3560,16 +3671,19 @@
       <c r="Z37" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3640,16 +3754,19 @@
       <c r="Z38" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3720,16 +3837,19 @@
       <c r="Z39" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -3800,16 +3920,19 @@
       <c r="Z40" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -3880,16 +4003,19 @@
       <c r="Z41" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -3960,16 +4086,19 @@
       <c r="Z42" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4040,16 +4169,19 @@
       <c r="Z43" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4120,16 +4252,19 @@
       <c r="Z44" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4200,16 +4335,19 @@
       <c r="Z45" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4280,16 +4418,19 @@
       <c r="Z46" t="n">
         <v>0.8149999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -4360,16 +4501,19 @@
       <c r="Z47" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -4440,16 +4584,19 @@
       <c r="Z48" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -4520,16 +4667,19 @@
       <c r="Z49" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -4600,16 +4750,19 @@
       <c r="Z50" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -4680,16 +4833,19 @@
       <c r="Z51" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -4760,16 +4916,19 @@
       <c r="Z52" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -4840,16 +4999,19 @@
       <c r="Z53" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -4920,16 +5082,19 @@
       <c r="Z54" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -5000,16 +5165,19 @@
       <c r="Z55" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -5080,16 +5248,19 @@
       <c r="Z56" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -5160,16 +5331,19 @@
       <c r="Z57" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -5240,16 +5414,19 @@
       <c r="Z58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -5320,16 +5497,19 @@
       <c r="Z59" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -5400,16 +5580,19 @@
       <c r="Z60" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -5480,96 +5663,102 @@
       <c r="Z61" t="n">
         <v>0.165</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" t="s">
         <v>48</v>
       </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -5640,16 +5829,19 @@
       <c r="Z63" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -5720,16 +5912,19 @@
       <c r="Z64" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -5800,16 +5995,19 @@
       <c r="Z65" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -5880,16 +6078,19 @@
       <c r="Z66" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -5960,16 +6161,19 @@
       <c r="Z67" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -6040,16 +6244,19 @@
       <c r="Z68" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -6120,16 +6327,19 @@
       <c r="Z69" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -6200,16 +6410,19 @@
       <c r="Z70" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -6280,16 +6493,19 @@
       <c r="Z71" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="n">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -6360,16 +6576,19 @@
       <c r="Z72" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -6440,16 +6659,19 @@
       <c r="Z73" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6520,16 +6742,19 @@
       <c r="Z74" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -6600,16 +6825,19 @@
       <c r="Z75" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -6680,16 +6908,19 @@
       <c r="Z76" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -6760,16 +6991,19 @@
       <c r="Z77" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -6840,16 +7074,19 @@
       <c r="Z78" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -6920,16 +7157,19 @@
       <c r="Z79" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -7000,16 +7240,19 @@
       <c r="Z80" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -7080,16 +7323,19 @@
       <c r="Z81" t="n">
         <v>0.175</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7160,16 +7406,19 @@
       <c r="Z82" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -7240,16 +7489,19 @@
       <c r="Z83" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -7320,16 +7572,19 @@
       <c r="Z84" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -7400,16 +7655,19 @@
       <c r="Z85" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -7480,16 +7738,19 @@
       <c r="Z86" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -7560,16 +7821,19 @@
       <c r="Z87" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -7640,16 +7904,19 @@
       <c r="Z88" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7720,16 +7987,19 @@
       <c r="Z89" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -7800,16 +8070,19 @@
       <c r="Z90" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -7880,16 +8153,19 @@
       <c r="Z91" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -7960,16 +8236,19 @@
       <c r="Z92" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -8040,16 +8319,19 @@
       <c r="Z93" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -8120,16 +8402,19 @@
       <c r="Z94" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -8200,16 +8485,19 @@
       <c r="Z95" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -8280,16 +8568,19 @@
       <c r="Z96" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -8360,16 +8651,19 @@
       <c r="Z97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -8440,16 +8734,19 @@
       <c r="Z98" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -8520,16 +8817,19 @@
       <c r="Z99" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -8600,16 +8900,19 @@
       <c r="Z100" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -8680,16 +8983,19 @@
       <c r="Z101" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -8760,16 +9066,19 @@
       <c r="Z102" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -8840,16 +9149,19 @@
       <c r="Z103" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -8920,16 +9232,19 @@
       <c r="Z104" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -9000,16 +9315,19 @@
       <c r="Z105" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -9080,16 +9398,19 @@
       <c r="Z106" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -9160,16 +9481,19 @@
       <c r="Z107" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -9240,16 +9564,19 @@
       <c r="Z108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -9320,16 +9647,19 @@
       <c r="Z109" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -9400,16 +9730,19 @@
       <c r="Z110" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -9480,16 +9813,19 @@
       <c r="Z111" t="n">
         <v>0.095</v>
       </c>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -9560,16 +9896,19 @@
       <c r="Z112" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -9640,16 +9979,19 @@
       <c r="Z113" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -9720,16 +10062,19 @@
       <c r="Z114" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -9800,16 +10145,19 @@
       <c r="Z115" t="n">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -9880,16 +10228,19 @@
       <c r="Z116" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="117" spans="1:26">
+      <c r="AA116" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -9960,16 +10311,19 @@
       <c r="Z117" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:26">
+      <c r="AA117" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -10040,16 +10394,19 @@
       <c r="Z118" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="119" spans="1:26">
+      <c r="AA118" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -10120,16 +10477,19 @@
       <c r="Z119" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="120" spans="1:26">
+      <c r="AA119" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -10200,16 +10560,19 @@
       <c r="Z120" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:26">
+      <c r="AA120" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -10280,16 +10643,19 @@
       <c r="Z121" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="122" spans="1:26">
+      <c r="AA121" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -10360,16 +10726,19 @@
       <c r="Z122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:26">
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -10440,16 +10809,19 @@
       <c r="Z123" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:26">
+      <c r="AA123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -10520,16 +10892,19 @@
       <c r="Z124" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:26">
+      <c r="AA124" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -10600,16 +10975,19 @@
       <c r="Z125" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="126" spans="1:26">
+      <c r="AA125" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -10680,96 +11058,102 @@
       <c r="Z126" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:26">
+      <c r="AA126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" t="s">
         <v>64</v>
       </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26">
-      <c r="A128" t="s">
-        <v>63</v>
-      </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -10840,16 +11224,19 @@
       <c r="Z128" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="129" spans="1:26">
+      <c r="AA128" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -10920,16 +11307,19 @@
       <c r="Z129" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="130" spans="1:26">
+      <c r="AA129" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -11000,16 +11390,19 @@
       <c r="Z130" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="131" spans="1:26">
+      <c r="AA130" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -11080,16 +11473,19 @@
       <c r="Z131" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="132" spans="1:26">
+      <c r="AA131" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -11160,16 +11556,19 @@
       <c r="Z132" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="133" spans="1:26">
+      <c r="AA132" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -11240,16 +11639,19 @@
       <c r="Z133" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="134" spans="1:26">
+      <c r="AA133" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -11320,16 +11722,19 @@
       <c r="Z134" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:26">
+      <c r="AA134" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -11400,16 +11805,19 @@
       <c r="Z135" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="136" spans="1:26">
+      <c r="AA135" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -11480,10 +11888,13 @@
       <c r="Z136" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="137" spans="1:26">
+      <c r="AA136" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -11497,7 +11908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11505,7 +11916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11581,13 +11992,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -11658,13 +12072,16 @@
       <c r="Y2" t="n">
         <v>1597</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -11735,13 +12152,16 @@
       <c r="Y3" t="n">
         <v>983</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -11812,13 +12232,16 @@
       <c r="Y4" t="n">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -11889,13 +12312,16 @@
       <c r="Y5" t="n">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -11966,13 +12392,16 @@
       <c r="Y6" t="n">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -12043,13 +12472,16 @@
       <c r="Y7" t="n">
         <v>939</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -12120,13 +12552,16 @@
       <c r="Y8" t="n">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -12197,13 +12632,16 @@
       <c r="Y9" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -12274,13 +12712,16 @@
       <c r="Y10" t="n">
         <v>404</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -12351,13 +12792,16 @@
       <c r="Y11" t="n">
         <v>701</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -12428,13 +12872,16 @@
       <c r="Y12" t="n">
         <v>566</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -12505,13 +12952,16 @@
       <c r="Y13" t="n">
         <v>330</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -12582,13 +13032,16 @@
       <c r="Y14" t="n">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -12659,13 +13112,16 @@
       <c r="Y15" t="n">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -12736,13 +13192,16 @@
       <c r="Y16" t="n">
         <v>292</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -12813,13 +13272,16 @@
       <c r="Y17" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -12890,13 +13352,16 @@
       <c r="Y18" t="n">
         <v>222</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -12967,13 +13432,16 @@
       <c r="Y19" t="n">
         <v>513</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -13044,13 +13512,16 @@
       <c r="Y20" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -13121,13 +13592,16 @@
       <c r="Y21" t="n">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -13198,13 +13672,16 @@
       <c r="Y22" t="n">
         <v>357</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -13275,13 +13752,16 @@
       <c r="Y23" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -13352,13 +13832,16 @@
       <c r="Y24" t="n">
         <v>319</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -13429,13 +13912,16 @@
       <c r="Y25" t="n">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -13506,13 +13992,16 @@
       <c r="Y26" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -13583,13 +14072,16 @@
       <c r="Y27" t="n">
         <v>792</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -13660,10 +14152,13 @@
       <c r="Y28" t="n">
         <v>805</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -13689,6 +14184,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s"/>
+      <c r="Z29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16. 3. 2021</t>
+  </si>
+  <si>
+    <t>30. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -218,10 +221,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA137"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,99 +689,105 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -852,16 +861,19 @@
       <c r="AA3" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -935,16 +947,19 @@
       <c r="AA4" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1018,16 +1033,19 @@
       <c r="AA5" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1101,16 +1119,19 @@
       <c r="AA6" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1184,99 +1205,105 @@
       <c r="AA7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1350,16 +1377,19 @@
       <c r="AA9" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1433,16 +1463,19 @@
       <c r="AA10" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1516,16 +1549,19 @@
       <c r="AA11" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1599,16 +1635,19 @@
       <c r="AA12" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1682,16 +1721,19 @@
       <c r="AA13" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1765,16 +1807,19 @@
       <c r="AA14" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -1848,16 +1893,19 @@
       <c r="AA15" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1931,16 +1979,19 @@
       <c r="AA16" t="n">
         <v>0.08500000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2014,16 +2065,19 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2097,16 +2151,19 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2180,16 +2237,19 @@
       <c r="AA19" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2263,16 +2323,19 @@
       <c r="AA20" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2346,16 +2409,19 @@
       <c r="AA21" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2429,16 +2495,19 @@
       <c r="AA22" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2512,16 +2581,19 @@
       <c r="AA23" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2595,16 +2667,19 @@
       <c r="AA24" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2678,16 +2753,19 @@
       <c r="AA25" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -2761,16 +2839,19 @@
       <c r="AA26" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2844,99 +2925,105 @@
       <c r="AA27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -3010,16 +3097,19 @@
       <c r="AA29" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3093,16 +3183,19 @@
       <c r="AA30" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3176,16 +3269,19 @@
       <c r="AA31" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3259,16 +3355,19 @@
       <c r="AA32" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3342,16 +3441,19 @@
       <c r="AA33" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3425,16 +3527,19 @@
       <c r="AA34" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3508,16 +3613,19 @@
       <c r="AA35" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3591,16 +3699,19 @@
       <c r="AA36" t="n">
         <v>0.095</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -3674,16 +3785,19 @@
       <c r="AA37" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3757,16 +3871,19 @@
       <c r="AA38" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3840,16 +3957,19 @@
       <c r="AA39" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -3923,16 +4043,19 @@
       <c r="AA40" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -4006,16 +4129,19 @@
       <c r="AA41" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -4089,16 +4215,19 @@
       <c r="AA42" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4172,16 +4301,19 @@
       <c r="AA43" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4255,16 +4387,19 @@
       <c r="AA44" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4338,16 +4473,19 @@
       <c r="AA45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4421,99 +4559,105 @@
       <c r="AA46" t="n">
         <v>0.8149999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -4587,16 +4731,19 @@
       <c r="AA48" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -4670,16 +4817,19 @@
       <c r="AA49" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -4753,16 +4903,19 @@
       <c r="AA50" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -4836,16 +4989,19 @@
       <c r="AA51" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -4919,16 +5075,19 @@
       <c r="AA52" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -5002,16 +5161,19 @@
       <c r="AA53" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -5085,16 +5247,19 @@
       <c r="AA54" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -5168,16 +5333,19 @@
       <c r="AA55" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -5251,16 +5419,19 @@
       <c r="AA56" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -5334,16 +5505,19 @@
       <c r="AA57" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -5417,16 +5591,19 @@
       <c r="AA58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -5500,16 +5677,19 @@
       <c r="AA59" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -5583,16 +5763,19 @@
       <c r="AA60" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -5666,99 +5849,105 @@
       <c r="AA61" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" t="s">
         <v>49</v>
       </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -5832,16 +6021,19 @@
       <c r="AA63" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -5915,16 +6107,19 @@
       <c r="AA64" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -5998,16 +6193,19 @@
       <c r="AA65" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -6081,16 +6279,19 @@
       <c r="AA66" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -6164,16 +6365,19 @@
       <c r="AA67" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -6247,16 +6451,19 @@
       <c r="AA68" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -6330,16 +6537,19 @@
       <c r="AA69" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -6413,16 +6623,19 @@
       <c r="AA70" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -6496,16 +6709,19 @@
       <c r="AA71" t="n">
         <v>0.205</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" t="n">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -6579,16 +6795,19 @@
       <c r="AA72" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -6662,16 +6881,19 @@
       <c r="AA73" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6745,16 +6967,19 @@
       <c r="AA74" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -6828,16 +7053,19 @@
       <c r="AA75" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -6911,16 +7139,19 @@
       <c r="AA76" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -6994,16 +7225,19 @@
       <c r="AA77" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -7077,16 +7311,19 @@
       <c r="AA78" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -7160,16 +7397,19 @@
       <c r="AA79" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -7243,16 +7483,19 @@
       <c r="AA80" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -7326,16 +7569,19 @@
       <c r="AA81" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7409,16 +7655,19 @@
       <c r="AA82" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -7492,16 +7741,19 @@
       <c r="AA83" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -7575,16 +7827,19 @@
       <c r="AA84" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -7658,16 +7913,19 @@
       <c r="AA85" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -7741,16 +7999,19 @@
       <c r="AA86" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -7824,16 +8085,19 @@
       <c r="AA87" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -7907,16 +8171,19 @@
       <c r="AA88" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -7990,16 +8257,19 @@
       <c r="AA89" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -8073,16 +8343,19 @@
       <c r="AA90" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -8156,16 +8429,19 @@
       <c r="AA91" t="n">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -8239,16 +8515,19 @@
       <c r="AA92" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -8322,16 +8601,19 @@
       <c r="AA93" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -8405,16 +8687,19 @@
       <c r="AA94" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -8488,16 +8773,19 @@
       <c r="AA95" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -8571,16 +8859,19 @@
       <c r="AA96" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -8654,16 +8945,19 @@
       <c r="AA97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -8737,16 +9031,19 @@
       <c r="AA98" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -8820,16 +9117,19 @@
       <c r="AA99" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -8903,16 +9203,19 @@
       <c r="AA100" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="101" spans="1:27">
+      <c r="AB100" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -8986,16 +9289,19 @@
       <c r="AA101" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="102" spans="1:27">
+      <c r="AB101" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -9069,16 +9375,19 @@
       <c r="AA102" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="103" spans="1:27">
+      <c r="AB102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -9152,16 +9461,19 @@
       <c r="AA103" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:27">
+      <c r="AB103" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -9235,16 +9547,19 @@
       <c r="AA104" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="105" spans="1:27">
+      <c r="AB104" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -9318,16 +9633,19 @@
       <c r="AA105" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="106" spans="1:27">
+      <c r="AB105" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -9401,16 +9719,19 @@
       <c r="AA106" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="107" spans="1:27">
+      <c r="AB106" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -9484,16 +9805,19 @@
       <c r="AA107" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -9567,16 +9891,19 @@
       <c r="AA108" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="109" spans="1:27">
+      <c r="AB108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -9650,16 +9977,19 @@
       <c r="AA109" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:27">
+      <c r="AB109" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -9733,16 +10063,19 @@
       <c r="AA110" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -9816,16 +10149,19 @@
       <c r="AA111" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="112" spans="1:27">
+      <c r="AB111" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -9899,16 +10235,19 @@
       <c r="AA112" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="113" spans="1:27">
+      <c r="AB112" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -9982,16 +10321,19 @@
       <c r="AA113" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AB113" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -10065,16 +10407,19 @@
       <c r="AA114" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:27">
+      <c r="AB114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -10148,16 +10493,19 @@
       <c r="AA115" t="n">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="116" spans="1:27">
+      <c r="AB115" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -10231,16 +10579,19 @@
       <c r="AA116" t="n">
         <v>0.035</v>
       </c>
-    </row>
-    <row r="117" spans="1:27">
+      <c r="AB116" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -10314,16 +10665,19 @@
       <c r="AA117" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:27">
+      <c r="AB117" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -10397,16 +10751,19 @@
       <c r="AA118" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="119" spans="1:27">
+      <c r="AB118" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -10480,16 +10837,19 @@
       <c r="AA119" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="120" spans="1:27">
+      <c r="AB119" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -10563,16 +10923,19 @@
       <c r="AA120" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:27">
+      <c r="AB120" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -10646,16 +11009,19 @@
       <c r="AA121" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="122" spans="1:27">
+      <c r="AB121" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -10729,16 +11095,19 @@
       <c r="AA122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:27">
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -10812,16 +11181,19 @@
       <c r="AA123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:27">
+      <c r="AB123" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -10895,16 +11267,19 @@
       <c r="AA124" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:27">
+      <c r="AB124" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -10978,16 +11353,19 @@
       <c r="AA125" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="126" spans="1:27">
+      <c r="AB125" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -11061,99 +11439,105 @@
       <c r="AA126" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:27">
+      <c r="AB126" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
         <v>65</v>
       </c>
-      <c r="C127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27">
-      <c r="A128" t="s">
-        <v>64</v>
-      </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -11227,16 +11611,19 @@
       <c r="AA128" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="129" spans="1:27">
+      <c r="AB128" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -11310,16 +11697,19 @@
       <c r="AA129" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="130" spans="1:27">
+      <c r="AB129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -11393,16 +11783,19 @@
       <c r="AA130" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="131" spans="1:27">
+      <c r="AB130" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -11476,16 +11869,19 @@
       <c r="AA131" t="n">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="132" spans="1:27">
+      <c r="AB131" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -11559,16 +11955,19 @@
       <c r="AA132" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="133" spans="1:27">
+      <c r="AB132" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -11642,16 +12041,19 @@
       <c r="AA133" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="134" spans="1:27">
+      <c r="AB133" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
       <c r="A134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -11725,16 +12127,19 @@
       <c r="AA134" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="135" spans="1:27">
+      <c r="AB134" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -11808,16 +12213,19 @@
       <c r="AA135" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="136" spans="1:27">
+      <c r="AB135" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -11891,10 +12299,13 @@
       <c r="AA136" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="137" spans="1:27">
+      <c r="AB136" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -11908,7 +12319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11916,7 +12327,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11995,13 +12406,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -12075,13 +12489,16 @@
       <c r="Z2" t="n">
         <v>1574</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -12155,13 +12572,16 @@
       <c r="Z3" t="n">
         <v>974</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -12235,13 +12655,16 @@
       <c r="Z4" t="n">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -12315,13 +12738,16 @@
       <c r="Z5" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -12395,13 +12821,16 @@
       <c r="Z6" t="n">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -12475,13 +12904,16 @@
       <c r="Z7" t="n">
         <v>933</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -12555,13 +12987,16 @@
       <c r="Z8" t="n">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -12635,13 +13070,16 @@
       <c r="Z9" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -12715,13 +13153,16 @@
       <c r="Z10" t="n">
         <v>391</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -12795,13 +13236,16 @@
       <c r="Z11" t="n">
         <v>675</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -12875,13 +13319,16 @@
       <c r="Z12" t="n">
         <v>572</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -12955,13 +13402,16 @@
       <c r="Z13" t="n">
         <v>327</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -13035,13 +13485,16 @@
       <c r="Z14" t="n">
         <v>470</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -13115,13 +13568,16 @@
       <c r="Z15" t="n">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -13195,13 +13651,16 @@
       <c r="Z16" t="n">
         <v>273</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -13275,13 +13734,16 @@
       <c r="Z17" t="n">
         <v>451</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -13355,13 +13817,16 @@
       <c r="Z18" t="n">
         <v>215</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -13435,13 +13900,16 @@
       <c r="Z19" t="n">
         <v>509</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -13515,13 +13983,16 @@
       <c r="Z20" t="n">
         <v>486</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -13595,13 +14066,16 @@
       <c r="Z21" t="n">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -13675,13 +14149,16 @@
       <c r="Z22" t="n">
         <v>358</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -13755,13 +14232,16 @@
       <c r="Z23" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -13835,13 +14315,16 @@
       <c r="Z24" t="n">
         <v>314</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -13915,13 +14398,16 @@
       <c r="Z25" t="n">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -13995,13 +14481,16 @@
       <c r="Z26" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -14075,13 +14564,16 @@
       <c r="Z27" t="n">
         <v>773</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -14155,10 +14647,13 @@
       <c r="Z28" t="n">
         <v>801</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -14185,6 +14680,7 @@
       <c r="X29" t="s"/>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
+      <c r="AA29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>30. 3. 2021</t>
+  </si>
+  <si>
+    <t>13. 4. 2021</t>
+  </si>
+  <si>
+    <t>4. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -221,10 +227,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AD137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,102 +698,114 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -864,16 +882,22 @@
       <c r="AB3" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -950,16 +974,22 @@
       <c r="AB4" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1036,16 +1066,22 @@
       <c r="AB5" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1122,16 +1158,22 @@
       <c r="AB6" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1208,16 +1250,22 @@
       <c r="AB7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.04</v>
@@ -1294,16 +1342,22 @@
       <c r="AB8" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1380,16 +1434,22 @@
       <c r="AB9" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1466,16 +1526,22 @@
       <c r="AB10" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1552,16 +1618,22 @@
       <c r="AB11" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1638,16 +1710,22 @@
       <c r="AB12" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1724,16 +1802,22 @@
       <c r="AB13" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1810,16 +1894,22 @@
       <c r="AB14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -1896,16 +1986,22 @@
       <c r="AB15" t="n">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1982,16 +2078,22 @@
       <c r="AB16" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2068,16 +2170,22 @@
       <c r="AB17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2154,16 +2262,22 @@
       <c r="AB18" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2240,16 +2354,22 @@
       <c r="AB19" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2326,16 +2446,22 @@
       <c r="AB20" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2412,16 +2538,22 @@
       <c r="AB21" t="n">
         <v>0.945</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2498,16 +2630,22 @@
       <c r="AB22" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2584,16 +2722,22 @@
       <c r="AB23" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2670,16 +2814,22 @@
       <c r="AB24" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2756,16 +2906,22 @@
       <c r="AB25" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -2842,16 +2998,22 @@
       <c r="AB26" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2928,16 +3090,22 @@
       <c r="AB27" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.04</v>
@@ -3014,16 +3182,22 @@
       <c r="AB28" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -3100,16 +3274,22 @@
       <c r="AB29" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3186,16 +3366,22 @@
       <c r="AB30" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3272,16 +3458,22 @@
       <c r="AB31" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3358,16 +3550,22 @@
       <c r="AB32" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3444,16 +3642,22 @@
       <c r="AB33" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3530,16 +3734,22 @@
       <c r="AB34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3616,16 +3826,22 @@
       <c r="AB35" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3702,16 +3918,22 @@
       <c r="AB36" t="n">
         <v>0.035</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -3788,16 +4010,22 @@
       <c r="AB37" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -3874,16 +4102,22 @@
       <c r="AB38" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -3960,16 +4194,22 @@
       <c r="AB39" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -4046,16 +4286,22 @@
       <c r="AB40" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -4132,16 +4378,22 @@
       <c r="AB41" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -4218,16 +4470,22 @@
       <c r="AB42" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4304,16 +4562,22 @@
       <c r="AB43" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4390,16 +4654,22 @@
       <c r="AB44" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4476,16 +4746,22 @@
       <c r="AB45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4562,16 +4838,22 @@
       <c r="AB46" t="n">
         <v>0.795</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -4648,16 +4930,22 @@
       <c r="AB47" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -4734,16 +5022,22 @@
       <c r="AB48" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -4820,16 +5114,22 @@
       <c r="AB49" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -4906,16 +5206,22 @@
       <c r="AB50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -4992,102 +5298,114 @@
       <c r="AB51" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -5164,16 +5482,22 @@
       <c r="AB53" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -5250,16 +5574,22 @@
       <c r="AB54" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -5336,16 +5666,22 @@
       <c r="AB55" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -5422,16 +5758,22 @@
       <c r="AB56" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -5508,16 +5850,22 @@
       <c r="AB57" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -5594,16 +5942,22 @@
       <c r="AB58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -5680,16 +6034,22 @@
       <c r="AB59" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -5766,16 +6126,22 @@
       <c r="AB60" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -5852,16 +6218,22 @@
       <c r="AB61" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.05</v>
@@ -5938,16 +6310,22 @@
       <c r="AB62" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -6024,16 +6402,22 @@
       <c r="AB63" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -6110,16 +6494,22 @@
       <c r="AB64" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -6196,16 +6586,22 @@
       <c r="AB65" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -6282,16 +6678,22 @@
       <c r="AB66" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -6368,16 +6770,22 @@
       <c r="AB67" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -6454,16 +6862,22 @@
       <c r="AB68" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -6540,16 +6954,22 @@
       <c r="AB69" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -6626,16 +7046,22 @@
       <c r="AB70" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -6712,16 +7138,22 @@
       <c r="AB71" t="n">
         <v>0.235</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -6798,16 +7230,22 @@
       <c r="AB72" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -6884,16 +7322,22 @@
       <c r="AB73" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -6970,16 +7414,22 @@
       <c r="AB74" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -7056,16 +7506,22 @@
       <c r="AB75" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -7142,16 +7598,22 @@
       <c r="AB76" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -7228,16 +7690,22 @@
       <c r="AB77" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -7314,16 +7782,22 @@
       <c r="AB78" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -7400,16 +7874,22 @@
       <c r="AB79" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -7486,16 +7966,22 @@
       <c r="AB80" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -7572,16 +8058,22 @@
       <c r="AB81" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -7658,16 +8150,22 @@
       <c r="AB82" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -7744,16 +8242,22 @@
       <c r="AB83" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -7830,16 +8334,22 @@
       <c r="AB84" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -7916,16 +8426,22 @@
       <c r="AB85" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -8002,102 +8518,114 @@
       <c r="AB86" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X87" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28">
-      <c r="A88" t="s">
-        <v>54</v>
-      </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -8174,16 +8702,22 @@
       <c r="AB88" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -8260,16 +8794,22 @@
       <c r="AB89" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -8346,16 +8886,22 @@
       <c r="AB90" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -8432,16 +8978,22 @@
       <c r="AB91" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -8518,16 +9070,22 @@
       <c r="AB92" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -8604,16 +9162,22 @@
       <c r="AB93" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -8690,16 +9254,22 @@
       <c r="AB94" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AC94" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -8776,16 +9346,22 @@
       <c r="AB95" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -8862,16 +9438,22 @@
       <c r="AB96" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -8948,16 +9530,22 @@
       <c r="AB97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AC97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -9034,16 +9622,22 @@
       <c r="AB98" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -9120,16 +9714,22 @@
       <c r="AB99" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -9206,16 +9806,22 @@
       <c r="AB100" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -9292,16 +9898,22 @@
       <c r="AB101" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -9378,16 +9990,22 @@
       <c r="AB102" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -9464,16 +10082,22 @@
       <c r="AB103" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -9550,16 +10174,22 @@
       <c r="AB104" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -9636,16 +10266,22 @@
       <c r="AB105" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -9722,16 +10358,22 @@
       <c r="AB106" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -9808,16 +10450,22 @@
       <c r="AB107" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -9894,16 +10542,22 @@
       <c r="AB108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -9980,16 +10634,22 @@
       <c r="AB109" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -10066,16 +10726,22 @@
       <c r="AB110" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -10152,16 +10818,22 @@
       <c r="AB111" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -10238,16 +10910,22 @@
       <c r="AB112" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="113" spans="1:28">
+      <c r="AC112" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -10324,16 +11002,22 @@
       <c r="AB113" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="114" spans="1:28">
+      <c r="AC113" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -10410,16 +11094,22 @@
       <c r="AB114" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:28">
+      <c r="AC114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -10496,16 +11186,22 @@
       <c r="AB115" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -10582,16 +11278,22 @@
       <c r="AB116" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="117" spans="1:28">
+      <c r="AC116" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -10668,16 +11370,22 @@
       <c r="AB117" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:28">
+      <c r="AC117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -10754,16 +11462,22 @@
       <c r="AB118" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="119" spans="1:28">
+      <c r="AC118" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -10840,16 +11554,22 @@
       <c r="AB119" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="120" spans="1:28">
+      <c r="AC119" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -10926,16 +11646,22 @@
       <c r="AB120" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="121" spans="1:28">
+      <c r="AC120" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -11012,16 +11738,22 @@
       <c r="AB121" t="n">
         <v>0.025</v>
       </c>
-    </row>
-    <row r="122" spans="1:28">
+      <c r="AC121" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -11098,16 +11830,22 @@
       <c r="AB122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:28">
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -11184,16 +11922,22 @@
       <c r="AB123" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="124" spans="1:28">
+      <c r="AC123" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -11270,16 +12014,22 @@
       <c r="AB124" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="125" spans="1:28">
+      <c r="AC124" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -11356,16 +12106,22 @@
       <c r="AB125" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="126" spans="1:28">
+      <c r="AC125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -11442,16 +12198,22 @@
       <c r="AB126" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="127" spans="1:28">
+      <c r="AC126" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D127" t="n">
         <v>0.02</v>
@@ -11528,16 +12290,22 @@
       <c r="AB127" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="128" spans="1:28">
+      <c r="AC127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -11614,16 +12382,22 @@
       <c r="AB128" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="129" spans="1:28">
+      <c r="AC128" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -11700,16 +12474,22 @@
       <c r="AB129" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:28">
+      <c r="AC129" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -11786,16 +12566,22 @@
       <c r="AB130" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="131" spans="1:28">
+      <c r="AC130" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -11872,16 +12658,22 @@
       <c r="AB131" t="n">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="132" spans="1:28">
+      <c r="AC131" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30">
       <c r="A132" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -11958,16 +12750,22 @@
       <c r="AB132" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="133" spans="1:28">
+      <c r="AC132" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -12044,16 +12842,22 @@
       <c r="AB133" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="134" spans="1:28">
+      <c r="AC133" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -12130,16 +12934,22 @@
       <c r="AB134" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="135" spans="1:28">
+      <c r="AC134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -12216,16 +13026,22 @@
       <c r="AB135" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="136" spans="1:28">
+      <c r="AC135" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30">
       <c r="A136" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -12302,10 +13118,16 @@
       <c r="AB136" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="137" spans="1:28">
+      <c r="AC136" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12319,7 +13141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12327,7 +13149,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12409,13 +13231,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -12492,13 +13320,19 @@
       <c r="AA2" t="n">
         <v>1544</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>1542</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -12575,13 +13409,19 @@
       <c r="AA3" t="n">
         <v>954</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>956</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -12658,13 +13498,19 @@
       <c r="AA4" t="n">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>152</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -12741,13 +13587,19 @@
       <c r="AA5" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>135</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -12824,13 +13676,19 @@
       <c r="AA6" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>299</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -12907,13 +13765,19 @@
       <c r="AA7" t="n">
         <v>910</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>911</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -12990,13 +13854,19 @@
       <c r="AA8" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>138</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -13073,13 +13943,19 @@
       <c r="AA9" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>105</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -13156,13 +14032,19 @@
       <c r="AA10" t="n">
         <v>386</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>388</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -13239,13 +14121,19 @@
       <c r="AA11" t="n">
         <v>660</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>673</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -13322,13 +14210,19 @@
       <c r="AA12" t="n">
         <v>565</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>553</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -13405,13 +14299,19 @@
       <c r="AA13" t="n">
         <v>319</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>316</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -13488,13 +14388,19 @@
       <c r="AA14" t="n">
         <v>445</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>458</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -13571,13 +14477,19 @@
       <c r="AA15" t="n">
         <v>202</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>196</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -13654,13 +14566,19 @@
       <c r="AA16" t="n">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>264</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -13737,13 +14655,19 @@
       <c r="AA17" t="n">
         <v>450</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>449</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -13820,13 +14744,19 @@
       <c r="AA18" t="n">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>210</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -13903,13 +14833,19 @@
       <c r="AA19" t="n">
         <v>480</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -13986,13 +14922,19 @@
       <c r="AA20" t="n">
         <v>484</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>464</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -14069,13 +15011,19 @@
       <c r="AA21" t="n">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>202</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -14152,13 +15100,19 @@
       <c r="AA22" t="n">
         <v>343</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -14235,13 +15189,19 @@
       <c r="AA23" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -14318,13 +15278,19 @@
       <c r="AA24" t="n">
         <v>316</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>317</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -14401,13 +15367,19 @@
       <c r="AA25" t="n">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>161</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -14484,13 +15456,19 @@
       <c r="AA26" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -14567,13 +15545,19 @@
       <c r="AA27" t="n">
         <v>766</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>759</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -14650,10 +15634,16 @@
       <c r="AA28" t="n">
         <v>778</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>783</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -14681,6 +15671,8 @@
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -227,10 +230,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD137"/>
+  <dimension ref="A1:AE137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,108 +707,114 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -888,16 +897,19 @@
       <c r="AD3" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -980,16 +992,19 @@
       <c r="AD4" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1072,16 +1087,19 @@
       <c r="AD5" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1164,16 +1182,19 @@
       <c r="AD6" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1256,108 +1277,114 @@
       <c r="AD7" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1440,16 +1467,19 @@
       <c r="AD9" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1532,16 +1562,19 @@
       <c r="AD10" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1624,16 +1657,19 @@
       <c r="AD11" t="n">
         <v>0.065</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1716,16 +1752,19 @@
       <c r="AD12" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1808,16 +1847,19 @@
       <c r="AD13" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1900,16 +1942,19 @@
       <c r="AD14" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -1992,16 +2037,19 @@
       <c r="AD15" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2084,16 +2132,19 @@
       <c r="AD16" t="n">
         <v>0.075</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2176,16 +2227,19 @@
       <c r="AD17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2268,16 +2322,19 @@
       <c r="AD18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2360,16 +2417,19 @@
       <c r="AD19" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2452,16 +2512,19 @@
       <c r="AD20" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2544,16 +2607,19 @@
       <c r="AD21" t="n">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2636,16 +2702,19 @@
       <c r="AD22" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2728,16 +2797,19 @@
       <c r="AD23" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2820,16 +2892,19 @@
       <c r="AD24" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2912,16 +2987,19 @@
       <c r="AD25" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -3004,16 +3082,19 @@
       <c r="AD26" t="n">
         <v>0.695</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3096,16 +3177,19 @@
       <c r="AD27" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.04</v>
@@ -3188,16 +3272,19 @@
       <c r="AD28" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -3280,16 +3367,19 @@
       <c r="AD29" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3372,16 +3462,19 @@
       <c r="AD30" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AE30" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3464,16 +3557,19 @@
       <c r="AD31" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE31" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3556,16 +3652,19 @@
       <c r="AD32" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3648,16 +3747,19 @@
       <c r="AD33" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="34" spans="1:30">
+      <c r="AE33" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3740,16 +3842,19 @@
       <c r="AD34" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3832,16 +3937,19 @@
       <c r="AD35" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3924,16 +4032,19 @@
       <c r="AD36" t="n">
         <v>0.075</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -4016,16 +4127,19 @@
       <c r="AD37" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -4108,16 +4222,19 @@
       <c r="AD38" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4200,16 +4317,19 @@
       <c r="AD39" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -4290,18 +4410,21 @@
         <v>0.49</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>0.55</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -4382,18 +4505,21 @@
         <v>0.32</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>0.28</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -4476,16 +4602,19 @@
       <c r="AD42" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4568,16 +4697,19 @@
       <c r="AD43" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4660,16 +4792,19 @@
       <c r="AD44" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4752,16 +4887,19 @@
       <c r="AD45" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4844,16 +4982,19 @@
       <c r="AD46" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -4936,16 +5077,19 @@
       <c r="AD47" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -5028,16 +5172,19 @@
       <c r="AD48" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -5120,16 +5267,19 @@
       <c r="AD49" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -5212,16 +5362,19 @@
       <c r="AD50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -5304,16 +5457,19 @@
       <c r="AD51" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -5396,16 +5552,19 @@
       <c r="AD52" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -5488,16 +5647,19 @@
       <c r="AD53" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -5580,16 +5742,19 @@
       <c r="AD54" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -5672,16 +5837,19 @@
       <c r="AD55" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -5764,16 +5932,19 @@
       <c r="AD56" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -5856,16 +6027,19 @@
       <c r="AD57" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -5948,16 +6122,19 @@
       <c r="AD58" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -6040,16 +6217,19 @@
       <c r="AD59" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -6132,16 +6312,19 @@
       <c r="AD60" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -6224,108 +6407,114 @@
       <c r="AD61" t="n">
         <v>0.175</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" t="s">
         <v>52</v>
       </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -6408,16 +6597,19 @@
       <c r="AD63" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -6500,16 +6692,19 @@
       <c r="AD64" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -6592,16 +6787,19 @@
       <c r="AD65" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -6684,16 +6882,19 @@
       <c r="AD66" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -6776,16 +6977,19 @@
       <c r="AD67" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -6868,16 +7072,19 @@
       <c r="AD68" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -6960,16 +7167,19 @@
       <c r="AD69" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -7050,18 +7260,21 @@
         <v>0.68</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -7142,18 +7355,21 @@
         <v>0.205</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <v>0.24</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -7236,16 +7452,19 @@
       <c r="AD72" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -7328,16 +7547,19 @@
       <c r="AD73" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7420,16 +7642,19 @@
       <c r="AD74" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -7512,16 +7737,19 @@
       <c r="AD75" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -7604,16 +7832,19 @@
       <c r="AD76" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AE76" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -7696,16 +7927,19 @@
       <c r="AD77" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -7788,16 +8022,19 @@
       <c r="AD78" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -7880,16 +8117,19 @@
       <c r="AD79" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -7972,16 +8212,19 @@
       <c r="AD80" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -8064,16 +8307,19 @@
       <c r="AD81" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8156,16 +8402,19 @@
       <c r="AD82" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -8248,16 +8497,19 @@
       <c r="AD83" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -8340,16 +8592,19 @@
       <c r="AD84" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -8432,16 +8687,19 @@
       <c r="AD85" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -8524,16 +8782,19 @@
       <c r="AD86" t="n">
         <v>0.295</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -8616,16 +8877,19 @@
       <c r="AD87" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -8708,16 +8972,19 @@
       <c r="AD88" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -8800,16 +9067,19 @@
       <c r="AD89" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -8892,16 +9162,19 @@
       <c r="AD90" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -8984,16 +9257,19 @@
       <c r="AD91" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AE91" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -9076,16 +9352,19 @@
       <c r="AD92" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -9168,16 +9447,19 @@
       <c r="AD93" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -9260,16 +9542,19 @@
       <c r="AD94" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -9352,16 +9637,19 @@
       <c r="AD95" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -9444,16 +9732,19 @@
       <c r="AD96" t="n">
         <v>0.225</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -9536,16 +9827,19 @@
       <c r="AD97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AE97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -9628,16 +9922,19 @@
       <c r="AD98" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AE98" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -9720,16 +10017,19 @@
       <c r="AD99" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -9812,16 +10112,19 @@
       <c r="AD100" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="AE100" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -9904,16 +10207,19 @@
       <c r="AD101" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="AE101" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -9996,16 +10302,19 @@
       <c r="AD102" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AE102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -10088,16 +10397,19 @@
       <c r="AD103" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -10180,16 +10492,19 @@
       <c r="AD104" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -10272,16 +10587,19 @@
       <c r="AD105" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AE105" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -10364,16 +10682,19 @@
       <c r="AD106" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AE106" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -10456,16 +10777,19 @@
       <c r="AD107" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AE107" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -10548,16 +10872,19 @@
       <c r="AD108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AE108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -10640,16 +10967,19 @@
       <c r="AD109" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:30">
+      <c r="AE109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -10732,16 +11062,19 @@
       <c r="AD110" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AE110" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -10824,16 +11157,19 @@
       <c r="AD111" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AE111" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -10916,16 +11252,19 @@
       <c r="AD112" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AE112" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -11008,16 +11347,19 @@
       <c r="AD113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:30">
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -11100,16 +11442,19 @@
       <c r="AD114" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="115" spans="1:30">
+      <c r="AE114" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -11192,16 +11537,19 @@
       <c r="AD115" t="n">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="116" spans="1:30">
+      <c r="AE115" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -11284,16 +11632,19 @@
       <c r="AD116" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="117" spans="1:30">
+      <c r="AE116" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -11376,16 +11727,19 @@
       <c r="AD117" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:30">
+      <c r="AE117" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -11468,16 +11822,19 @@
       <c r="AD118" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="119" spans="1:30">
+      <c r="AE118" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -11560,16 +11917,19 @@
       <c r="AD119" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:30">
+      <c r="AE119" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -11652,16 +12012,19 @@
       <c r="AD120" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="121" spans="1:30">
+      <c r="AE120" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -11744,16 +12107,19 @@
       <c r="AD121" t="n">
         <v>0.045</v>
       </c>
-    </row>
-    <row r="122" spans="1:30">
+      <c r="AE121" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -11836,16 +12202,19 @@
       <c r="AD122" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:30">
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -11928,16 +12297,19 @@
       <c r="AD123" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="124" spans="1:30">
+      <c r="AE123" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -12020,16 +12392,19 @@
       <c r="AD124" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="125" spans="1:30">
+      <c r="AE124" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -12112,16 +12487,19 @@
       <c r="AD125" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:30">
+      <c r="AE125" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -12204,108 +12582,114 @@
       <c r="AD126" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="127" spans="1:30">
+      <c r="AE126" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
+      <c r="A128" t="s">
         <v>68</v>
       </c>
-      <c r="C127" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="128" spans="1:30">
-      <c r="A128" t="s">
-        <v>67</v>
-      </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -12388,16 +12772,19 @@
       <c r="AD128" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="129" spans="1:30">
+      <c r="AE128" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -12480,16 +12867,19 @@
       <c r="AD129" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="130" spans="1:30">
+      <c r="AE129" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -12572,16 +12962,19 @@
       <c r="AD130" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="131" spans="1:30">
+      <c r="AE130" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -12664,16 +13057,19 @@
       <c r="AD131" t="n">
         <v>0.145</v>
       </c>
-    </row>
-    <row r="132" spans="1:30">
+      <c r="AE131" t="n">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -12756,16 +13152,19 @@
       <c r="AD132" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="133" spans="1:30">
+      <c r="AE132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B133" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -12848,16 +13247,19 @@
       <c r="AD133" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="134" spans="1:30">
+      <c r="AE133" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -12940,16 +13342,19 @@
       <c r="AD134" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="135" spans="1:30">
+      <c r="AE134" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -13032,16 +13437,19 @@
       <c r="AD135" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:30">
+      <c r="AE135" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -13124,10 +13532,13 @@
       <c r="AD136" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="137" spans="1:30">
+      <c r="AE136" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -13141,7 +13552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13149,7 +13560,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13237,13 +13648,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -13324,15 +13738,18 @@
         <v>1542</v>
       </c>
       <c r="AC2" t="n">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>1520</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -13413,15 +13830,18 @@
         <v>956</v>
       </c>
       <c r="AC3" t="n">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>936</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -13504,13 +13924,16 @@
       <c r="AC4" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -13593,13 +14016,16 @@
       <c r="AC5" t="n">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -13680,15 +14106,18 @@
         <v>299</v>
       </c>
       <c r="AC6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>299</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -13771,13 +14200,16 @@
       <c r="AC7" t="n">
         <v>890</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -13860,13 +14292,16 @@
       <c r="AC8" t="n">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -13947,15 +14382,18 @@
         <v>105</v>
       </c>
       <c r="AC9" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>107</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -14038,13 +14476,16 @@
       <c r="AC10" t="n">
         <v>384</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -14127,13 +14568,16 @@
       <c r="AC11" t="n">
         <v>656</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -14214,15 +14658,18 @@
         <v>553</v>
       </c>
       <c r="AC12" t="n">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>549</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -14303,15 +14750,18 @@
         <v>316</v>
       </c>
       <c r="AC13" t="n">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>315</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -14392,15 +14842,18 @@
         <v>458</v>
       </c>
       <c r="AC14" t="n">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>427</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -14481,15 +14934,18 @@
         <v>196</v>
       </c>
       <c r="AC15" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>198</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -14570,15 +15026,18 @@
         <v>264</v>
       </c>
       <c r="AC16" t="n">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+        <v>286</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -14659,15 +15118,18 @@
         <v>449</v>
       </c>
       <c r="AC17" t="n">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>445</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -14748,15 +15210,18 @@
         <v>210</v>
       </c>
       <c r="AC18" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>209</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -14837,15 +15302,18 @@
         <v>501</v>
       </c>
       <c r="AC19" t="n">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>488</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -14926,15 +15394,18 @@
         <v>464</v>
       </c>
       <c r="AC20" t="n">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>472</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -15015,15 +15486,18 @@
         <v>202</v>
       </c>
       <c r="AC21" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>196</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -15106,13 +15580,16 @@
       <c r="AC22" t="n">
         <v>334</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -15195,13 +15672,16 @@
       <c r="AC23" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -15282,15 +15762,18 @@
         <v>317</v>
       </c>
       <c r="AC24" t="n">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+        <v>303</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -15373,13 +15856,16 @@
       <c r="AC25" t="n">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -15462,13 +15948,16 @@
       <c r="AC26" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -15551,13 +16040,16 @@
       <c r="AC27" t="n">
         <v>743</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -15638,12 +16130,15 @@
         <v>783</v>
       </c>
       <c r="AC28" t="n">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>777</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -15673,6 +16168,7 @@
       <c r="AA29" t="s"/>
       <c r="AB29" t="s"/>
       <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -230,10 +233,10 @@
     <t>Žena</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE137"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,111 +713,117 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -900,16 +909,19 @@
       <c r="AE3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -995,16 +1007,19 @@
       <c r="AE4" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1090,16 +1105,19 @@
       <c r="AE5" t="n">
         <v>0.64</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1185,16 +1203,19 @@
       <c r="AE6" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1280,111 +1301,117 @@
       <c r="AE7" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1470,16 +1497,19 @@
       <c r="AE9" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1565,16 +1595,19 @@
       <c r="AE10" t="n">
         <v>0.85</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.88</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1660,16 +1693,19 @@
       <c r="AE11" t="n">
         <v>0.055</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.045</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1755,16 +1791,19 @@
       <c r="AE12" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1850,16 +1889,19 @@
       <c r="AE13" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1945,16 +1987,19 @@
       <c r="AE14" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -2040,16 +2085,19 @@
       <c r="AE15" t="n">
         <v>0.73</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2135,16 +2183,19 @@
       <c r="AE16" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.075</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2230,16 +2281,19 @@
       <c r="AE17" t="n">
         <v>0</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2325,16 +2379,19 @@
       <c r="AE18" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2420,16 +2477,19 @@
       <c r="AE19" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2515,16 +2575,19 @@
       <c r="AE20" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2610,16 +2673,19 @@
       <c r="AE21" t="n">
         <v>0.96</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2705,16 +2771,19 @@
       <c r="AE22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2800,16 +2869,19 @@
       <c r="AE23" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2895,16 +2967,19 @@
       <c r="AE24" t="n">
         <v>0</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2990,16 +3065,19 @@
       <c r="AE25" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -3085,16 +3163,19 @@
       <c r="AE26" t="n">
         <v>0.7</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3180,16 +3261,19 @@
       <c r="AE27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
         <v>0.04</v>
@@ -3275,16 +3359,19 @@
       <c r="AE28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -3370,16 +3457,19 @@
       <c r="AE29" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3465,16 +3555,19 @@
       <c r="AE30" t="n">
         <v>0.85</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3560,16 +3653,19 @@
       <c r="AE31" t="n">
         <v>0.055</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.035</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3655,16 +3751,19 @@
       <c r="AE32" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3750,16 +3849,19 @@
       <c r="AE33" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3845,16 +3947,19 @@
       <c r="AE34" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -3940,16 +4045,19 @@
       <c r="AE35" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4035,16 +4143,19 @@
       <c r="AE36" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -4130,16 +4241,19 @@
       <c r="AE37" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -4225,16 +4339,19 @@
       <c r="AE38" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4320,16 +4437,19 @@
       <c r="AE39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -4415,16 +4535,19 @@
       <c r="AE40" t="n">
         <v>0.5</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -4510,16 +4633,19 @@
       <c r="AE41" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -4605,16 +4731,19 @@
       <c r="AE42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4700,16 +4829,19 @@
       <c r="AE43" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4795,16 +4927,19 @@
       <c r="AE44" t="n">
         <v>0</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4890,16 +5025,19 @@
       <c r="AE45" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -4985,16 +5123,19 @@
       <c r="AE46" t="n">
         <v>0.8</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -5080,16 +5221,19 @@
       <c r="AE47" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -5175,16 +5319,19 @@
       <c r="AE48" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -5270,16 +5417,19 @@
       <c r="AE49" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -5365,16 +5515,19 @@
       <c r="AE50" t="n">
         <v>0.55</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -5460,16 +5613,19 @@
       <c r="AE51" t="n">
         <v>0.31</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -5555,16 +5711,19 @@
       <c r="AE52" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -5650,16 +5809,19 @@
       <c r="AE53" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -5745,16 +5907,19 @@
       <c r="AE54" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -5840,16 +6005,19 @@
       <c r="AE55" t="n">
         <v>0.67</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -5935,16 +6103,19 @@
       <c r="AE56" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -6030,16 +6201,19 @@
       <c r="AE57" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -6125,16 +6299,19 @@
       <c r="AE58" t="n">
         <v>0.005</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -6220,16 +6397,19 @@
       <c r="AE59" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -6315,16 +6495,19 @@
       <c r="AE60" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -6410,111 +6593,117 @@
       <c r="AE61" t="n">
         <v>0.195</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
+      <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31">
-      <c r="A63" t="s">
-        <v>52</v>
-      </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -6600,16 +6789,19 @@
       <c r="AE63" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -6695,16 +6887,19 @@
       <c r="AE64" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -6790,16 +6985,19 @@
       <c r="AE65" t="n">
         <v>0.62</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -6885,16 +7083,19 @@
       <c r="AE66" t="n">
         <v>0.27</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.285</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -6980,16 +7181,19 @@
       <c r="AE67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -7075,16 +7279,19 @@
       <c r="AE68" t="n">
         <v>0</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -7170,16 +7377,19 @@
       <c r="AE69" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF69" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -7265,16 +7475,19 @@
       <c r="AE70" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF70" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -7360,16 +7573,19 @@
       <c r="AE71" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF71" t="n">
+        <v>0.195</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -7455,16 +7671,19 @@
       <c r="AE72" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF72" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -7550,16 +7769,19 @@
       <c r="AE73" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF73" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7645,16 +7867,19 @@
       <c r="AE74" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF74" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -7740,16 +7965,19 @@
       <c r="AE75" t="n">
         <v>0.48</v>
       </c>
+      <c r="AF75" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -7835,16 +8063,19 @@
       <c r="AE76" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF76" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -7930,16 +8161,19 @@
       <c r="AE77" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF77" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -8025,16 +8259,19 @@
       <c r="AE78" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF78" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -8120,16 +8357,19 @@
       <c r="AE79" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF79" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -8215,16 +8455,19 @@
       <c r="AE80" t="n">
         <v>0.73</v>
       </c>
+      <c r="AF80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -8310,16 +8553,19 @@
       <c r="AE81" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF81" t="n">
+        <v>0.165</v>
+      </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8405,16 +8651,19 @@
       <c r="AE82" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF82" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -8500,16 +8749,19 @@
       <c r="AE83" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF83" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -8595,16 +8847,19 @@
       <c r="AE84" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF84" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -8690,16 +8945,19 @@
       <c r="AE85" t="n">
         <v>0.51</v>
       </c>
+      <c r="AF85" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -8785,16 +9043,19 @@
       <c r="AE86" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF86" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -8880,16 +9141,19 @@
       <c r="AE87" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF87" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -8975,16 +9239,19 @@
       <c r="AE88" t="n">
         <v>0.015</v>
       </c>
+      <c r="AF88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -9070,16 +9337,19 @@
       <c r="AE89" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF89" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -9165,16 +9435,19 @@
       <c r="AE90" t="n">
         <v>0.59</v>
       </c>
+      <c r="AF90" t="n">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -9260,16 +9533,19 @@
       <c r="AE91" t="n">
         <v>0.325</v>
       </c>
+      <c r="AF91" t="n">
+        <v>0.315</v>
+      </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -9355,16 +9631,19 @@
       <c r="AE92" t="n">
         <v>0.015</v>
       </c>
+      <c r="AF92" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -9450,16 +9729,19 @@
       <c r="AE93" t="n">
         <v>0.015</v>
       </c>
+      <c r="AF93" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -9545,16 +9827,19 @@
       <c r="AE94" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF94" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -9640,16 +9925,19 @@
       <c r="AE95" t="n">
         <v>0.71</v>
       </c>
+      <c r="AF95" t="n">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -9735,16 +10023,19 @@
       <c r="AE96" t="n">
         <v>0.22</v>
       </c>
+      <c r="AF96" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -9830,16 +10121,19 @@
       <c r="AE97" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF97" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -9925,16 +10219,19 @@
       <c r="AE98" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF98" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -10020,16 +10317,19 @@
       <c r="AE99" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF99" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -10115,16 +10415,19 @@
       <c r="AE100" t="n">
         <v>0.75</v>
       </c>
+      <c r="AF100" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -10210,16 +10513,19 @@
       <c r="AE101" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF101" t="n">
+        <v>0.105</v>
+      </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -10305,16 +10611,19 @@
       <c r="AE102" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF102" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -10400,16 +10709,19 @@
       <c r="AE103" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF103" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -10495,16 +10807,19 @@
       <c r="AE104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -10590,16 +10905,19 @@
       <c r="AE105" t="n">
         <v>0.78</v>
       </c>
+      <c r="AF105" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -10685,16 +11003,19 @@
       <c r="AE106" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF106" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -10780,16 +11101,19 @@
       <c r="AE107" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF107" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -10875,16 +11199,19 @@
       <c r="AE108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -10970,16 +11297,19 @@
       <c r="AE109" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF109" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -11065,16 +11395,19 @@
       <c r="AE110" t="n">
         <v>0.82</v>
       </c>
+      <c r="AF110" t="n">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -11160,16 +11493,19 @@
       <c r="AE111" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF111" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -11255,16 +11591,19 @@
       <c r="AE112" t="n">
         <v>0.01</v>
       </c>
+      <c r="AF112" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -11350,16 +11689,19 @@
       <c r="AE113" t="n">
         <v>0</v>
       </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -11445,16 +11787,19 @@
       <c r="AE114" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF114" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -11540,16 +11885,19 @@
       <c r="AE115" t="n">
         <v>0.91</v>
       </c>
+      <c r="AF115" t="n">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -11635,16 +11983,19 @@
       <c r="AE116" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF116" t="n">
+        <v>0.035</v>
+      </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -11730,16 +12081,19 @@
       <c r="AE117" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF117" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -11825,16 +12179,19 @@
       <c r="AE118" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF118" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -11920,16 +12277,19 @@
       <c r="AE119" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF119" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -12015,16 +12375,19 @@
       <c r="AE120" t="n">
         <v>0.86</v>
       </c>
+      <c r="AF120" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -12110,16 +12473,19 @@
       <c r="AE121" t="n">
         <v>0.05</v>
       </c>
+      <c r="AF121" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:32">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -12205,16 +12571,19 @@
       <c r="AE122" t="n">
         <v>0</v>
       </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:32">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -12300,16 +12669,19 @@
       <c r="AE123" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF123" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:32">
       <c r="A124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -12395,16 +12767,19 @@
       <c r="AE124" t="n">
         <v>0.015</v>
       </c>
+      <c r="AF124" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:32">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -12490,16 +12865,19 @@
       <c r="AE125" t="n">
         <v>0.86</v>
       </c>
+      <c r="AF125" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:32">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -12585,111 +12963,117 @@
       <c r="AE126" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="AF126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:32">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32">
+      <c r="A128" t="s">
         <v>69</v>
       </c>
-      <c r="C127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="128" spans="1:31">
-      <c r="A128" t="s">
-        <v>68</v>
-      </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -12775,16 +13159,19 @@
       <c r="AE128" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:32">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -12870,16 +13257,19 @@
       <c r="AE129" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF129" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:32">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -12965,16 +13355,19 @@
       <c r="AE130" t="n">
         <v>0.76</v>
       </c>
+      <c r="AF130" t="n">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:32">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -13060,16 +13453,19 @@
       <c r="AE131" t="n">
         <v>0.145</v>
       </c>
+      <c r="AF131" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:32">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -13155,16 +13551,19 @@
       <c r="AE132" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AF132" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:32">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -13250,16 +13649,19 @@
       <c r="AE133" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF133" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:32">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -13345,16 +13747,19 @@
       <c r="AE134" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF134" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:32">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -13440,16 +13845,19 @@
       <c r="AE135" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF135" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:32">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -13535,10 +13943,13 @@
       <c r="AE136" t="n">
         <v>0.35</v>
       </c>
+      <c r="AF136" t="n">
+        <v>0.345</v>
+      </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:32">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -13552,7 +13963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13560,7 +13971,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13651,13 +14062,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -13743,13 +14157,16 @@
       <c r="AD2" t="n">
         <v>1479</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1426</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -13835,13 +14252,16 @@
       <c r="AD3" t="n">
         <v>916</v>
       </c>
+      <c r="AE3" t="n">
+        <v>884</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -13927,13 +14347,16 @@
       <c r="AD4" t="n">
         <v>149</v>
       </c>
+      <c r="AE4" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -14019,13 +14442,16 @@
       <c r="AD5" t="n">
         <v>127</v>
       </c>
+      <c r="AE5" t="n">
+        <v>125</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -14111,13 +14537,16 @@
       <c r="AD6" t="n">
         <v>287</v>
       </c>
+      <c r="AE6" t="n">
+        <v>274</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -14203,13 +14632,16 @@
       <c r="AD7" t="n">
         <v>871</v>
       </c>
+      <c r="AE7" t="n">
+        <v>842</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -14295,13 +14727,16 @@
       <c r="AD8" t="n">
         <v>138</v>
       </c>
+      <c r="AE8" t="n">
+        <v>132</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -14387,13 +14822,16 @@
       <c r="AD9" t="n">
         <v>99</v>
       </c>
+      <c r="AE9" t="n">
+        <v>94</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -14479,13 +14917,16 @@
       <c r="AD10" t="n">
         <v>371</v>
       </c>
+      <c r="AE10" t="n">
+        <v>358</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -14571,13 +15012,16 @@
       <c r="AD11" t="n">
         <v>628</v>
       </c>
+      <c r="AE11" t="n">
+        <v>603</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -14663,13 +15107,16 @@
       <c r="AD12" t="n">
         <v>543</v>
       </c>
+      <c r="AE12" t="n">
+        <v>527</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -14755,13 +15202,16 @@
       <c r="AD13" t="n">
         <v>308</v>
       </c>
+      <c r="AE13" t="n">
+        <v>296</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -14847,13 +15297,16 @@
       <c r="AD14" t="n">
         <v>427</v>
       </c>
+      <c r="AE14" t="n">
+        <v>414</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -14939,13 +15392,16 @@
       <c r="AD15" t="n">
         <v>198</v>
       </c>
+      <c r="AE15" t="n">
+        <v>189</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -15031,13 +15487,16 @@
       <c r="AD16" t="n">
         <v>267</v>
       </c>
+      <c r="AE16" t="n">
+        <v>263</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -15123,13 +15582,16 @@
       <c r="AD17" t="n">
         <v>425</v>
       </c>
+      <c r="AE17" t="n">
+        <v>407</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -15215,13 +15677,16 @@
       <c r="AD18" t="n">
         <v>194</v>
       </c>
+      <c r="AE18" t="n">
+        <v>193</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -15307,13 +15772,16 @@
       <c r="AD19" t="n">
         <v>486</v>
       </c>
+      <c r="AE19" t="n">
+        <v>464</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -15399,13 +15867,16 @@
       <c r="AD20" t="n">
         <v>466</v>
       </c>
+      <c r="AE20" t="n">
+        <v>450</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -15491,13 +15962,16 @@
       <c r="AD21" t="n">
         <v>180</v>
       </c>
+      <c r="AE21" t="n">
+        <v>174</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -15583,13 +16057,16 @@
       <c r="AD22" t="n">
         <v>333</v>
       </c>
+      <c r="AE22" t="n">
+        <v>330</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -15675,13 +16152,16 @@
       <c r="AD23" t="n">
         <v>98</v>
       </c>
+      <c r="AE23" t="n">
+        <v>98</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -15767,13 +16247,16 @@
       <c r="AD24" t="n">
         <v>296</v>
       </c>
+      <c r="AE24" t="n">
+        <v>274</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -15859,13 +16342,16 @@
       <c r="AD25" t="n">
         <v>166</v>
       </c>
+      <c r="AE25" t="n">
+        <v>153</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -15951,13 +16437,16 @@
       <c r="AD26" t="n">
         <v>88</v>
       </c>
+      <c r="AE26" t="n">
+        <v>93</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -16043,13 +16532,16 @@
       <c r="AD27" t="n">
         <v>722</v>
       </c>
+      <c r="AE27" t="n">
+        <v>711</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -16135,10 +16627,13 @@
       <c r="AD28" t="n">
         <v>757</v>
       </c>
+      <c r="AE28" t="n">
+        <v>715</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -16169,6 +16664,7 @@
       <c r="AB29" t="s"/>
       <c r="AC29" t="s"/>
       <c r="AD29" t="s"/>
+      <c r="AE29" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,233 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>před epidemií</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Nezaměstnaní – vůbec nepracují</t>
-  </si>
-  <si>
-    <t>Nekompenzované omezení práce</t>
-  </si>
-  <si>
-    <t>Kompenzované omezení práce</t>
-  </si>
-  <si>
-    <t>Pracující bez omezení</t>
-  </si>
-  <si>
-    <t>Neaktivní</t>
-  </si>
-  <si>
-    <t>Pracovní status před krizí</t>
-  </si>
-  <si>
-    <t>Zaměstnanec</t>
-  </si>
-  <si>
-    <t>OSVČ</t>
-  </si>
-  <si>
-    <t>Důchodce</t>
-  </si>
-  <si>
-    <t>Ostatní</t>
-  </si>
-  <si>
-    <t>Forma práce před krizí</t>
-  </si>
-  <si>
-    <t>Jen zaměstnanecká smlouva</t>
-  </si>
-  <si>
-    <t>Fakturující – OSVČ</t>
-  </si>
-  <si>
-    <t>Dohodáři a s příjmy na černo</t>
-  </si>
-  <si>
-    <t>Nepracující</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Typ domácnosti – děti a příjem před krizí</t>
-  </si>
-  <si>
-    <t>S dětmi – příjem pod medián</t>
-  </si>
-  <si>
-    <t>S dětmi – příjem nad medián</t>
-  </si>
-  <si>
-    <t>Bez dětí – příjem pod medián</t>
-  </si>
-  <si>
-    <t>Bez dětí – příjem nad medián</t>
-  </si>
-  <si>
-    <t>Příjem domácnosti před krizí</t>
-  </si>
-  <si>
-    <t>Pod hranicí chudoby</t>
-  </si>
-  <si>
-    <t>Nízkopříjmová</t>
-  </si>
-  <si>
-    <t>Nadstandardně příjmová</t>
-  </si>
-  <si>
-    <t>Vysokopříjmová</t>
-  </si>
-  <si>
-    <t>Obor práce</t>
-  </si>
-  <si>
-    <t>Obchod a služby</t>
-  </si>
-  <si>
-    <t>IT a finance</t>
-  </si>
-  <si>
-    <t>Průmysl a zemědělství</t>
-  </si>
-  <si>
-    <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
-  </si>
-  <si>
-    <t>Školství a kultura</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -300,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -611,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AG137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>před epidemií</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0.03</v>
@@ -814,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0.04</v>
@@ -912,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -1010,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0.6899999999999999</v>
@@ -1108,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.67</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0.22</v>
@@ -1206,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1304,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0.04</v>
@@ -1402,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0.03</v>
@@ -1500,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
@@ -1598,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.88</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1696,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.045</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.055</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1794,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0.05</v>
@@ -1892,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0.05</v>
@@ -1990,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0.9</v>
@@ -2088,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2186,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.075</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2284,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0.06</v>
@@ -2382,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0.005</v>
@@ -2480,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2578,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0.9350000000000001</v>
@@ -2676,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.95</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.26</v>
@@ -2774,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0.03</v>
@@ -2872,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0.01</v>
@@ -2970,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3068,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.18</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0.7</v>
@@ -3166,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.635</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3264,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0.04</v>
@@ -3362,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0.03</v>
@@ -3460,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.93</v>
@@ -3558,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.89</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3656,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.035</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3754,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0.05</v>
@@ -3852,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0.05</v>
@@ -3950,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0.9</v>
@@ -4048,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.83</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4146,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0.05</v>
@@ -4244,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0.11</v>
@@ -4342,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0.03</v>
@@ -4440,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.57</v>
@@ -4538,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0.24</v>
@@ -4636,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.13</v>
@@ -4734,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0.03</v>
@@ -4832,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0.005</v>
@@ -4930,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -5028,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0.835</v>
@@ -5126,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.79</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.775</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.04</v>
@@ -5224,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0.06</v>
@@ -5322,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0.04</v>
@@ -5420,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.55</v>
@@ -5518,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>38</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0.31</v>
@@ -5616,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0.04</v>
@@ -5714,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0.04</v>
@@ -5812,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
@@ -5910,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.73</v>
@@ -6008,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.71</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0.18</v>
@@ -6106,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0.01</v>
@@ -6204,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0.02</v>
@@ -6302,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0.02</v>
@@ -6400,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>37</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.83</v>
@@ -6498,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.77</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0.12</v>
@@ -6596,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.05</v>
@@ -6694,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0.04</v>
@@ -6792,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0.04</v>
@@ -6890,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0.66</v>
@@ -6988,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.65</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0.21</v>
@@ -7086,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.285</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0.01</v>
@@ -7184,16 +7684,25 @@
       <c r="AF67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" t="s">
-        <v>35</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0.06</v>
@@ -7282,16 +7791,25 @@
       <c r="AF68" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>36</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0.02</v>
@@ -7380,16 +7898,25 @@
       <c r="AF69" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0.8100000000000001</v>
@@ -7478,16 +8005,25 @@
       <c r="AF70" t="n">
         <v>0.76</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0.1</v>
@@ -7576,16 +8112,25 @@
       <c r="AF71" t="n">
         <v>0.195</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0.04</v>
@@ -7674,16 +8219,25 @@
       <c r="AF72" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0.06</v>
@@ -7772,16 +8326,25 @@
       <c r="AF73" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0.04</v>
@@ -7870,16 +8433,25 @@
       <c r="AF74" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" t="s">
-        <v>37</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0.51</v>
@@ -7968,16 +8540,25 @@
       <c r="AF75" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG75" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
-      <c r="A76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" t="s">
-        <v>38</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>0.35</v>
@@ -8066,16 +8647,25 @@
       <c r="AF76" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG76" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="77" spans="1:32">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" t="s">
-        <v>34</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>0.02</v>
@@ -8164,16 +8754,25 @@
       <c r="AF77" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG77" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="78" spans="1:32">
-      <c r="A78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>35</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D78" t="n">
         <v>0.03</v>
@@ -8262,16 +8861,25 @@
       <c r="AF78" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG78" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="79" spans="1:32">
-      <c r="A79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" t="s">
-        <v>36</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>0.01</v>
@@ -8360,16 +8968,25 @@
       <c r="AF79" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG79" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="80" spans="1:32">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D80" t="n">
         <v>0.77</v>
@@ -8458,16 +9075,25 @@
       <c r="AF80" t="n">
         <v>0.77</v>
       </c>
+      <c r="AG80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="81" spans="1:32">
-      <c r="A81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" t="s">
-        <v>38</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>0.17</v>
@@ -8556,16 +9182,25 @@
       <c r="AF81" t="n">
         <v>0.165</v>
       </c>
+      <c r="AG81" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="82" spans="1:32">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" t="s">
-        <v>34</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D82" t="n">
         <v>0.11</v>
@@ -8654,16 +9289,25 @@
       <c r="AF82" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG82" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="83" spans="1:32">
-      <c r="A83" t="s">
-        <v>58</v>
-      </c>
-      <c r="B83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" t="s">
-        <v>35</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D83" t="n">
         <v>0.03</v>
@@ -8752,16 +9396,25 @@
       <c r="AF83" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG83" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="84" spans="1:32">
-      <c r="A84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" t="s">
-        <v>36</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D84" t="n">
         <v>0.05</v>
@@ -8850,16 +9503,25 @@
       <c r="AF84" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG84" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="85" spans="1:32">
-      <c r="A85" t="s">
-        <v>58</v>
-      </c>
-      <c r="B85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" t="s">
-        <v>37</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D85" t="n">
         <v>0.52</v>
@@ -8948,16 +9610,25 @@
       <c r="AF85" t="n">
         <v>0.54</v>
       </c>
+      <c r="AG85" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:32">
-      <c r="A86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D86" t="n">
         <v>0.29</v>
@@ -9046,16 +9717,25 @@
       <c r="AF86" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG86" t="n">
+        <v>0.335</v>
+      </c>
     </row>
-    <row r="87" spans="1:32">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>34</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>0.015</v>
@@ -9144,16 +9824,25 @@
       <c r="AF87" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG87" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="88" spans="1:32">
-      <c r="A88" t="s">
-        <v>58</v>
-      </c>
-      <c r="B88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" t="s">
-        <v>35</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D88" t="n">
         <v>0.06</v>
@@ -9242,16 +9931,25 @@
       <c r="AF88" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG88" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="89" spans="1:32">
-      <c r="A89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D89" t="n">
         <v>0.03</v>
@@ -9340,16 +10038,25 @@
       <c r="AF89" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG89" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="90" spans="1:32">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" t="s">
-        <v>37</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D90" t="n">
         <v>0.63</v>
@@ -9438,16 +10145,25 @@
       <c r="AF90" t="n">
         <v>0.6</v>
       </c>
+      <c r="AG90" t="n">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="91" spans="1:32">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" t="s">
-        <v>38</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>0.265</v>
@@ -9536,16 +10252,25 @@
       <c r="AF91" t="n">
         <v>0.315</v>
       </c>
+      <c r="AG91" t="n">
+        <v>0.305</v>
+      </c>
     </row>
-    <row r="92" spans="1:32">
-      <c r="A92" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" t="s">
-        <v>34</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D92" t="n">
         <v>0.02</v>
@@ -9634,16 +10359,25 @@
       <c r="AF92" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG92" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="93" spans="1:32">
-      <c r="A93" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" t="s">
-        <v>35</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D93" t="n">
         <v>0.03</v>
@@ -9732,16 +10466,25 @@
       <c r="AF93" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG93" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="94" spans="1:32">
-      <c r="A94" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C94" t="s">
-        <v>36</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D94" t="n">
         <v>0.02</v>
@@ -9830,16 +10573,25 @@
       <c r="AF94" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG94" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="95" spans="1:32">
-      <c r="A95" t="s">
-        <v>58</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>37</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D95" t="n">
         <v>0.74</v>
@@ -9928,16 +10680,25 @@
       <c r="AF95" t="n">
         <v>0.73</v>
       </c>
+      <c r="AG95" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="96" spans="1:32">
-      <c r="A96" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" t="s">
-        <v>38</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D96" t="n">
         <v>0.19</v>
@@ -10026,16 +10787,25 @@
       <c r="AF96" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG96" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="97" spans="1:32">
-      <c r="A97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" t="s">
-        <v>34</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D97" t="n">
         <v>0.01</v>
@@ -10124,16 +10894,25 @@
       <c r="AF97" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG97" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="98" spans="1:32">
-      <c r="A98" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" t="s">
-        <v>35</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>0.04</v>
@@ -10222,16 +11001,25 @@
       <c r="AF98" t="n">
         <v>0.02</v>
       </c>
+      <c r="AG98" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="99" spans="1:32">
-      <c r="A99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" t="s">
-        <v>36</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D99" t="n">
         <v>0.005</v>
@@ -10320,16 +11108,25 @@
       <c r="AF99" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG99" t="n">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="100" spans="1:32">
-      <c r="A100" t="s">
-        <v>58</v>
-      </c>
-      <c r="B100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" t="s">
-        <v>37</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D100" t="n">
         <v>0.86</v>
@@ -10418,16 +11215,25 @@
       <c r="AF100" t="n">
         <v>0.86</v>
       </c>
+      <c r="AG100" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="101" spans="1:32">
-      <c r="A101" t="s">
-        <v>58</v>
-      </c>
-      <c r="B101" t="s">
-        <v>62</v>
-      </c>
-      <c r="C101" t="s">
-        <v>38</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D101" t="n">
         <v>0.08500000000000001</v>
@@ -10516,16 +11322,25 @@
       <c r="AF101" t="n">
         <v>0.105</v>
       </c>
+      <c r="AG101" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="102" spans="1:32">
-      <c r="A102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" t="s">
-        <v>34</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D102" t="n">
         <v>0.02</v>
@@ -10614,16 +11429,25 @@
       <c r="AF102" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG102" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="103" spans="1:32">
-      <c r="A103" t="s">
-        <v>63</v>
-      </c>
-      <c r="B103" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" t="s">
-        <v>35</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D103" t="n">
         <v>0.06</v>
@@ -10712,16 +11536,25 @@
       <c r="AF103" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG103" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="104" spans="1:32">
-      <c r="A104" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" t="s">
-        <v>36</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>0.05</v>
@@ -10810,16 +11643,25 @@
       <c r="AF104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG104" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="105" spans="1:32">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" t="s">
-        <v>37</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D105" t="n">
         <v>0.87</v>
@@ -10908,16 +11750,25 @@
       <c r="AF105" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AG105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="106" spans="1:32">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>38</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -11006,16 +11857,25 @@
       <c r="AF106" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG106" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="107" spans="1:32">
-      <c r="A107" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" t="s">
-        <v>34</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>0.005</v>
@@ -11104,16 +11964,25 @@
       <c r="AF107" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG107" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="108" spans="1:32">
-      <c r="A108" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" t="s">
-        <v>35</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D108" t="n">
         <v>0.04</v>
@@ -11202,16 +12071,25 @@
       <c r="AF108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="109" spans="1:32">
-      <c r="A109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" t="s">
-        <v>36</v>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D109" t="n">
         <v>0.03</v>
@@ -11300,16 +12178,25 @@
       <c r="AF109" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG109" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="110" spans="1:32">
-      <c r="A110" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" t="s">
-        <v>37</v>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D110" t="n">
         <v>0.87</v>
@@ -11398,16 +12285,25 @@
       <c r="AF110" t="n">
         <v>0.9</v>
       </c>
+      <c r="AG110" t="n">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="111" spans="1:32">
-      <c r="A111" t="s">
-        <v>63</v>
-      </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" t="s">
-        <v>38</v>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D111" t="n">
         <v>0.055</v>
@@ -11496,16 +12392,25 @@
       <c r="AF111" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG111" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="112" spans="1:32">
-      <c r="A112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="s">
-        <v>34</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D112" t="n">
         <v>0.005</v>
@@ -11594,16 +12499,25 @@
       <c r="AF112" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="113" spans="1:32">
-      <c r="A113" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" t="s">
-        <v>35</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D113" t="n">
         <v>0.05</v>
@@ -11692,16 +12606,25 @@
       <c r="AF113" t="n">
         <v>0</v>
       </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:32">
-      <c r="A114" t="s">
-        <v>63</v>
-      </c>
-      <c r="B114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" t="s">
-        <v>36</v>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D114" t="n">
         <v>0.01</v>
@@ -11790,16 +12713,25 @@
       <c r="AF114" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG114" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="115" spans="1:32">
-      <c r="A115" t="s">
-        <v>63</v>
-      </c>
-      <c r="B115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" t="s">
-        <v>37</v>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D115" t="n">
         <v>0.91</v>
@@ -11888,16 +12820,25 @@
       <c r="AF115" t="n">
         <v>0.92</v>
       </c>
+      <c r="AG115" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
-    <row r="116" spans="1:32">
-      <c r="A116" t="s">
-        <v>63</v>
-      </c>
-      <c r="B116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" t="s">
-        <v>38</v>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D116" t="n">
         <v>0.025</v>
@@ -11986,16 +12927,25 @@
       <c r="AF116" t="n">
         <v>0.035</v>
       </c>
+      <c r="AG116" t="n">
+        <v>0.025</v>
+      </c>
     </row>
-    <row r="117" spans="1:32">
-      <c r="A117" t="s">
-        <v>63</v>
-      </c>
-      <c r="B117" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" t="s">
-        <v>34</v>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D117" t="n">
         <v>0.005</v>
@@ -12084,16 +13034,25 @@
       <c r="AF117" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG117" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:32">
-      <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" t="s">
-        <v>35</v>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D118" t="n">
         <v>0.04</v>
@@ -12182,16 +13141,25 @@
       <c r="AF118" t="n">
         <v>0.005</v>
       </c>
+      <c r="AG118" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="119" spans="1:32">
-      <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" t="s">
-        <v>36</v>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D119" t="n">
         <v>0.02</v>
@@ -12280,16 +13248,25 @@
       <c r="AF119" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG119" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="120" spans="1:32">
-      <c r="A120" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" t="s">
-        <v>37</v>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D120" t="n">
         <v>0.92</v>
@@ -12378,16 +13355,25 @@
       <c r="AF120" t="n">
         <v>0.89</v>
       </c>
+      <c r="AG120" t="n">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="121" spans="1:32">
-      <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" t="s">
-        <v>38</v>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D121" t="n">
         <v>0.015</v>
@@ -12476,16 +13462,25 @@
       <c r="AF121" t="n">
         <v>0.05</v>
       </c>
+      <c r="AG121" t="n">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="122" spans="1:32">
-      <c r="A122" t="s">
-        <v>63</v>
-      </c>
-      <c r="B122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" t="s">
-        <v>34</v>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D122" t="n">
         <v>0.005</v>
@@ -12574,16 +13569,25 @@
       <c r="AF122" t="n">
         <v>0</v>
       </c>
+      <c r="AG122" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:32">
-      <c r="A123" t="s">
-        <v>63</v>
-      </c>
-      <c r="B123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>35</v>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D123" t="n">
         <v>0.03</v>
@@ -12672,16 +13676,25 @@
       <c r="AF123" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG123" t="n">
+        <v>0.015</v>
+      </c>
     </row>
-    <row r="124" spans="1:32">
-      <c r="A124" t="s">
-        <v>63</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>36</v>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D124" t="n">
         <v>0.015</v>
@@ -12770,16 +13783,25 @@
       <c r="AF124" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG124" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="125" spans="1:32">
-      <c r="A125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" t="s">
-        <v>37</v>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D125" t="n">
         <v>0.93</v>
@@ -12868,16 +13890,25 @@
       <c r="AF125" t="n">
         <v>0.86</v>
       </c>
+      <c r="AG125" t="n">
+        <v>0.93</v>
+      </c>
     </row>
-    <row r="126" spans="1:32">
-      <c r="A126" t="s">
-        <v>63</v>
-      </c>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" t="s">
-        <v>38</v>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D126" t="n">
         <v>0.02</v>
@@ -12966,16 +13997,25 @@
       <c r="AF126" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AG126" t="n">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="127" spans="1:32">
-      <c r="A127" t="s">
-        <v>69</v>
-      </c>
-      <c r="B127" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" t="s">
-        <v>34</v>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D127" t="n">
         <v>0.02</v>
@@ -13064,16 +14104,25 @@
       <c r="AF127" t="n">
         <v>0.01</v>
       </c>
+      <c r="AG127" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="128" spans="1:32">
-      <c r="A128" t="s">
-        <v>69</v>
-      </c>
-      <c r="B128" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
-        <v>35</v>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D128" t="n">
         <v>0.04</v>
@@ -13162,16 +14211,25 @@
       <c r="AF128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG128" t="n">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="129" spans="1:32">
-      <c r="A129" t="s">
-        <v>69</v>
-      </c>
-      <c r="B129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" t="s">
-        <v>36</v>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D129" t="n">
         <v>0.015</v>
@@ -13260,16 +14318,25 @@
       <c r="AF129" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG129" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="130" spans="1:32">
-      <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" t="s">
-        <v>70</v>
-      </c>
-      <c r="C130" t="s">
-        <v>37</v>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D130" t="n">
         <v>0.8</v>
@@ -13358,16 +14425,25 @@
       <c r="AF130" t="n">
         <v>0.78</v>
       </c>
+      <c r="AG130" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
-    <row r="131" spans="1:32">
-      <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" t="s">
-        <v>38</v>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D131" t="n">
         <v>0.125</v>
@@ -13456,16 +14532,25 @@
       <c r="AF131" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG131" t="n">
+        <v>0.135</v>
+      </c>
     </row>
-    <row r="132" spans="1:32">
-      <c r="A132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" t="s">
-        <v>34</v>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Nezaměstnaní – vůbec nepracují</t>
+        </is>
       </c>
       <c r="D132" t="n">
         <v>0.04</v>
@@ -13554,16 +14639,25 @@
       <c r="AF132" t="n">
         <v>0.06</v>
       </c>
+      <c r="AG132" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="133" spans="1:32">
-      <c r="A133" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" t="s">
-        <v>35</v>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Nekompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D133" t="n">
         <v>0.05</v>
@@ -13652,16 +14746,25 @@
       <c r="AF133" t="n">
         <v>0.015</v>
       </c>
+      <c r="AG133" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="134" spans="1:32">
-      <c r="A134" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" t="s">
-        <v>71</v>
-      </c>
-      <c r="C134" t="s">
-        <v>36</v>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Kompenzované omezení práce</t>
+        </is>
       </c>
       <c r="D134" t="n">
         <v>0.03</v>
@@ -13750,16 +14853,25 @@
       <c r="AF134" t="n">
         <v>0.03</v>
       </c>
+      <c r="AG134" t="n">
+        <v>0.005</v>
+      </c>
     </row>
-    <row r="135" spans="1:32">
-      <c r="A135" t="s">
-        <v>69</v>
-      </c>
-      <c r="B135" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" t="s">
-        <v>37</v>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Pracující bez omezení</t>
+        </is>
       </c>
       <c r="D135" t="n">
         <v>0.58</v>
@@ -13848,16 +14960,25 @@
       <c r="AF135" t="n">
         <v>0.55</v>
       </c>
+      <c r="AG135" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="136" spans="1:32">
-      <c r="A136" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" t="s">
-        <v>38</v>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Neaktivní</t>
+        </is>
       </c>
       <c r="D136" t="n">
         <v>0.3</v>
@@ -13946,14 +15067,19 @@
       <c r="AF136" t="n">
         <v>0.345</v>
       </c>
+      <c r="AG136" t="n">
+        <v>0.355</v>
+      </c>
     </row>
-    <row r="137" spans="1:32">
-      <c r="A137" t="s">
-        <v>72</v>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13963,7 +15089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13971,107 +15097,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>před epidemií</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1465</v>
@@ -14160,13 +15357,20 @@
       <c r="AE2" t="n">
         <v>1426</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1335</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Zaměstnanec</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>922</v>
@@ -14255,13 +15459,20 @@
       <c r="AE3" t="n">
         <v>884</v>
       </c>
+      <c r="AF3" t="n">
+        <v>823</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OSVČ</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>163</v>
@@ -14350,13 +15561,20 @@
       <c r="AE4" t="n">
         <v>143</v>
       </c>
+      <c r="AF4" t="n">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Důchodce</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>188</v>
@@ -14445,13 +15663,20 @@
       <c r="AE5" t="n">
         <v>125</v>
       </c>
+      <c r="AF5" t="n">
+        <v>124</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pracovní status před krizí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>192</v>
@@ -14540,13 +15765,20 @@
       <c r="AE6" t="n">
         <v>274</v>
       </c>
+      <c r="AF6" t="n">
+        <v>255</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jen zaměstnanecká smlouva</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>881</v>
@@ -14635,13 +15867,20 @@
       <c r="AE7" t="n">
         <v>842</v>
       </c>
+      <c r="AF7" t="n">
+        <v>781</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fakturující – OSVČ</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>151</v>
@@ -14730,13 +15969,20 @@
       <c r="AE8" t="n">
         <v>132</v>
       </c>
+      <c r="AF8" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dohodáři a s příjmy na černo</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>91</v>
@@ -14825,13 +16071,20 @@
       <c r="AE9" t="n">
         <v>94</v>
       </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Forma práce před krizí</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nepracující</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>342</v>
@@ -14920,13 +16173,20 @@
       <c r="AE10" t="n">
         <v>358</v>
       </c>
+      <c r="AF10" t="n">
+        <v>334</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>538</v>
@@ -15015,13 +16275,20 @@
       <c r="AE11" t="n">
         <v>603</v>
       </c>
+      <c r="AF11" t="n">
+        <v>554</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>545</v>
@@ -15110,13 +16377,20 @@
       <c r="AE12" t="n">
         <v>527</v>
       </c>
+      <c r="AF12" t="n">
+        <v>498</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>382</v>
@@ -15205,13 +16479,20 @@
       <c r="AE13" t="n">
         <v>296</v>
       </c>
+      <c r="AF13" t="n">
+        <v>283</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem pod medián</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>372</v>
@@ -15300,13 +16581,20 @@
       <c r="AE14" t="n">
         <v>414</v>
       </c>
+      <c r="AF14" t="n">
+        <v>390</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S dětmi – příjem nad medián</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>183</v>
@@ -15395,13 +16683,20 @@
       <c r="AE15" t="n">
         <v>189</v>
       </c>
+      <c r="AF15" t="n">
+        <v>171</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem pod medián</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>277</v>
@@ -15490,13 +16785,20 @@
       <c r="AE16" t="n">
         <v>263</v>
       </c>
+      <c r="AF16" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Typ domácnosti – děti a příjem před krizí</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bez dětí – příjem nad medián</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>466</v>
@@ -15585,13 +16887,20 @@
       <c r="AE17" t="n">
         <v>407</v>
       </c>
+      <c r="AF17" t="n">
+        <v>391</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>182</v>
@@ -15680,13 +16989,20 @@
       <c r="AE18" t="n">
         <v>193</v>
       </c>
+      <c r="AF18" t="n">
+        <v>191</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>458</v>
@@ -15775,13 +17091,20 @@
       <c r="AE19" t="n">
         <v>464</v>
       </c>
+      <c r="AF19" t="n">
+        <v>435</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>462</v>
@@ -15870,13 +17193,20 @@
       <c r="AE20" t="n">
         <v>450</v>
       </c>
+      <c r="AF20" t="n">
+        <v>421</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti před krizí</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>209</v>
@@ -15965,13 +17295,20 @@
       <c r="AE21" t="n">
         <v>174</v>
       </c>
+      <c r="AF21" t="n">
+        <v>163</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Obchod a služby</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>333</v>
@@ -16060,13 +17397,20 @@
       <c r="AE22" t="n">
         <v>330</v>
       </c>
+      <c r="AF22" t="n">
+        <v>311</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IT a finance</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>94</v>
@@ -16155,13 +17499,20 @@
       <c r="AE23" t="n">
         <v>98</v>
       </c>
+      <c r="AF23" t="n">
+        <v>93</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Průmysl a zemědělství</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>306</v>
@@ -16250,13 +17601,20 @@
       <c r="AE24" t="n">
         <v>274</v>
       </c>
+      <c r="AF24" t="n">
+        <v>264</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Státní správa (soc. služby, zdravotnictví atd.)</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>184</v>
@@ -16345,13 +17703,20 @@
       <c r="AE25" t="n">
         <v>153</v>
       </c>
+      <c r="AF25" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Obor práce</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Školství a kultura</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>105</v>
@@ -16440,13 +17805,20 @@
       <c r="AE26" t="n">
         <v>93</v>
       </c>
+      <c r="AF26" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>698</v>
@@ -16535,13 +17907,20 @@
       <c r="AE27" t="n">
         <v>711</v>
       </c>
+      <c r="AF27" t="n">
+        <v>654</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>767</v>
@@ -16630,43 +18009,49 @@
       <c r="AE28" t="n">
         <v>715</v>
       </c>
+      <c r="AF28" t="n">
+        <v>681</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
-      <c r="D29" t="s"/>
-      <c r="E29" t="s"/>
-      <c r="F29" t="s"/>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s"/>
-      <c r="J29" t="s"/>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
-      <c r="Z29" t="s"/>
-      <c r="AA29" t="s"/>
-      <c r="AB29" t="s"/>
-      <c r="AC29" t="s"/>
-      <c r="AD29" t="s"/>
-      <c r="AE29" t="s"/>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG137"/>
+  <dimension ref="A1:AH137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.89</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.055</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.83</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.96</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.635</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.9</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.775</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.735</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.72</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.79</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.195</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,6 +7887,9 @@
       <c r="AG67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7794,6 +7997,9 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7901,6 +8107,9 @@
       <c r="AG69" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8008,6 +8217,9 @@
       <c r="AG70" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8115,6 +8327,9 @@
       <c r="AG71" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8222,6 +8437,9 @@
       <c r="AG72" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8329,6 +8547,9 @@
       <c r="AG73" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AG74" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8543,6 +8767,9 @@
       <c r="AG75" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8650,6 +8877,9 @@
       <c r="AG76" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8757,6 +8987,9 @@
       <c r="AG77" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8864,6 +9097,9 @@
       <c r="AG78" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8971,6 +9207,9 @@
       <c r="AG79" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9078,6 +9317,9 @@
       <c r="AG80" t="n">
         <v>0.77</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9185,6 +9427,9 @@
       <c r="AG81" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9292,6 +9537,9 @@
       <c r="AG82" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9399,6 +9647,9 @@
       <c r="AG83" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9506,6 +9757,9 @@
       <c r="AG84" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9613,6 +9867,9 @@
       <c r="AG85" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9720,6 +9977,9 @@
       <c r="AG86" t="n">
         <v>0.335</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9827,6 +10087,9 @@
       <c r="AG87" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9934,6 +10197,9 @@
       <c r="AG88" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10041,6 +10307,9 @@
       <c r="AG89" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10148,6 +10417,9 @@
       <c r="AG90" t="n">
         <v>0.62</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10255,6 +10527,9 @@
       <c r="AG91" t="n">
         <v>0.305</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0.305</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10362,6 +10637,9 @@
       <c r="AG92" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10469,6 +10747,9 @@
       <c r="AG93" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10576,6 +10857,9 @@
       <c r="AG94" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10683,6 +10967,9 @@
       <c r="AG95" t="n">
         <v>0.76</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10790,6 +11077,9 @@
       <c r="AG96" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0.235</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10897,6 +11187,9 @@
       <c r="AG97" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11004,6 +11297,9 @@
       <c r="AG98" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11111,6 +11407,9 @@
       <c r="AG99" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11218,6 +11517,9 @@
       <c r="AG100" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11325,6 +11627,9 @@
       <c r="AG101" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11432,6 +11737,9 @@
       <c r="AG102" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11539,6 +11847,9 @@
       <c r="AG103" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11646,6 +11957,9 @@
       <c r="AG104" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11753,6 +12067,9 @@
       <c r="AG105" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11860,6 +12177,9 @@
       <c r="AG106" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11967,6 +12287,9 @@
       <c r="AG107" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12074,6 +12397,9 @@
       <c r="AG108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12181,6 +12507,9 @@
       <c r="AG109" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12288,6 +12617,9 @@
       <c r="AG110" t="n">
         <v>0.9</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12395,6 +12727,9 @@
       <c r="AG111" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12502,6 +12837,9 @@
       <c r="AG112" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12609,6 +12947,9 @@
       <c r="AG113" t="n">
         <v>0</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12716,6 +13057,9 @@
       <c r="AG114" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12823,6 +13167,9 @@
       <c r="AG115" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12930,6 +13277,9 @@
       <c r="AG116" t="n">
         <v>0.025</v>
       </c>
+      <c r="AH116" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13037,6 +13387,9 @@
       <c r="AG117" t="n">
         <v>0</v>
       </c>
+      <c r="AH117" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13144,6 +13497,9 @@
       <c r="AG118" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH118" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13251,6 +13607,9 @@
       <c r="AG119" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13358,6 +13717,9 @@
       <c r="AG120" t="n">
         <v>0.89</v>
       </c>
+      <c r="AH120" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13465,6 +13827,9 @@
       <c r="AG121" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH121" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13572,6 +13937,9 @@
       <c r="AG122" t="n">
         <v>0</v>
       </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13679,6 +14047,9 @@
       <c r="AG123" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH123" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13786,6 +14157,9 @@
       <c r="AG124" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH124" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13893,6 +14267,9 @@
       <c r="AG125" t="n">
         <v>0.93</v>
       </c>
+      <c r="AH125" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14000,6 +14377,9 @@
       <c r="AG126" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH126" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14107,6 +14487,9 @@
       <c r="AG127" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH127" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14214,6 +14597,9 @@
       <c r="AG128" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14321,6 +14707,9 @@
       <c r="AG129" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH129" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14428,6 +14817,9 @@
       <c r="AG130" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AH130" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14535,6 +14927,9 @@
       <c r="AG131" t="n">
         <v>0.135</v>
       </c>
+      <c r="AH131" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14642,6 +15037,9 @@
       <c r="AG132" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14749,6 +15147,9 @@
       <c r="AG133" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH133" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14856,6 +15257,9 @@
       <c r="AG134" t="n">
         <v>0.005</v>
       </c>
+      <c r="AH134" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14963,6 +15367,9 @@
       <c r="AG135" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH135" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15070,11 +15477,14 @@
       <c r="AG136" t="n">
         <v>0.355</v>
       </c>
+      <c r="AH136" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15258,6 +15668,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15360,6 +15775,9 @@
       <c r="AF2" t="n">
         <v>1335</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15462,6 +15880,9 @@
       <c r="AF3" t="n">
         <v>823</v>
       </c>
+      <c r="AG3" t="n">
+        <v>889</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15564,6 +15985,9 @@
       <c r="AF4" t="n">
         <v>133</v>
       </c>
+      <c r="AG4" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15666,6 +16090,9 @@
       <c r="AF5" t="n">
         <v>124</v>
       </c>
+      <c r="AG5" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -15768,6 +16195,9 @@
       <c r="AF6" t="n">
         <v>255</v>
       </c>
+      <c r="AG6" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15870,6 +16300,9 @@
       <c r="AF7" t="n">
         <v>781</v>
       </c>
+      <c r="AG7" t="n">
+        <v>849</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -15972,6 +16405,9 @@
       <c r="AF8" t="n">
         <v>120</v>
       </c>
+      <c r="AG8" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16074,6 +16510,9 @@
       <c r="AF9" t="n">
         <v>100</v>
       </c>
+      <c r="AG9" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16176,6 +16615,9 @@
       <c r="AF10" t="n">
         <v>334</v>
       </c>
+      <c r="AG10" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16278,6 +16720,9 @@
       <c r="AF11" t="n">
         <v>554</v>
       </c>
+      <c r="AG11" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16380,6 +16825,9 @@
       <c r="AF12" t="n">
         <v>498</v>
       </c>
+      <c r="AG12" t="n">
+        <v>523</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16482,6 +16930,9 @@
       <c r="AF13" t="n">
         <v>283</v>
       </c>
+      <c r="AG13" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -16584,6 +17035,9 @@
       <c r="AF14" t="n">
         <v>390</v>
       </c>
+      <c r="AG14" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16686,6 +17140,9 @@
       <c r="AF15" t="n">
         <v>171</v>
       </c>
+      <c r="AG15" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -16788,6 +17245,9 @@
       <c r="AF16" t="n">
         <v>251</v>
       </c>
+      <c r="AG16" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16890,6 +17350,9 @@
       <c r="AF17" t="n">
         <v>391</v>
       </c>
+      <c r="AG17" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -16992,6 +17455,9 @@
       <c r="AF18" t="n">
         <v>191</v>
       </c>
+      <c r="AG18" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17094,6 +17560,9 @@
       <c r="AF19" t="n">
         <v>435</v>
       </c>
+      <c r="AG19" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17196,6 +17665,9 @@
       <c r="AF20" t="n">
         <v>421</v>
       </c>
+      <c r="AG20" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17298,6 +17770,9 @@
       <c r="AF21" t="n">
         <v>163</v>
       </c>
+      <c r="AG21" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17400,6 +17875,9 @@
       <c r="AF22" t="n">
         <v>311</v>
       </c>
+      <c r="AG22" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17502,6 +17980,9 @@
       <c r="AF23" t="n">
         <v>93</v>
       </c>
+      <c r="AG23" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17604,6 +18085,9 @@
       <c r="AF24" t="n">
         <v>264</v>
       </c>
+      <c r="AG24" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17706,6 +18190,9 @@
       <c r="AF25" t="n">
         <v>140</v>
       </c>
+      <c r="AG25" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17808,6 +18295,9 @@
       <c r="AF26" t="n">
         <v>89</v>
       </c>
+      <c r="AG26" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17910,6 +18400,9 @@
       <c r="AF27" t="n">
         <v>654</v>
       </c>
+      <c r="AG27" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18012,11 +18505,14 @@
       <c r="AF28" t="n">
         <v>681</v>
       </c>
+      <c r="AG28" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -18050,6 +18546,7 @@
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH137"/>
+  <dimension ref="A1:AI137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.88</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.96</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.88</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.055</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.83</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.095</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.735</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.74</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.005</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.78</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.195</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,6 +8090,9 @@
       <c r="AH67" t="n">
         <v>0.005</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8000,6 +8203,9 @@
       <c r="AH68" t="n">
         <v>0</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8110,6 +8316,9 @@
       <c r="AH69" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8220,6 +8429,9 @@
       <c r="AH70" t="n">
         <v>0.78</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8330,6 +8542,9 @@
       <c r="AH71" t="n">
         <v>0.175</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8440,6 +8655,9 @@
       <c r="AH72" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8550,6 +8768,9 @@
       <c r="AH73" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AH74" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8770,6 +8994,9 @@
       <c r="AH75" t="n">
         <v>0.51</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8880,6 +9107,9 @@
       <c r="AH76" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0.405</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8990,6 +9220,9 @@
       <c r="AH77" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI77" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9100,6 +9333,9 @@
       <c r="AH78" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9210,6 +9446,9 @@
       <c r="AH79" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI79" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9320,6 +9559,9 @@
       <c r="AH80" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9430,6 +9672,9 @@
       <c r="AH81" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI81" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9540,6 +9785,9 @@
       <c r="AH82" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9650,6 +9898,9 @@
       <c r="AH83" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9760,6 +10011,9 @@
       <c r="AH84" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI84" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9870,6 +10124,9 @@
       <c r="AH85" t="n">
         <v>0.52</v>
       </c>
+      <c r="AI85" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9980,6 +10237,9 @@
       <c r="AH86" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI86" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10090,6 +10350,9 @@
       <c r="AH87" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI87" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10200,6 +10463,9 @@
       <c r="AH88" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI88" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10310,6 +10576,9 @@
       <c r="AH89" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10420,6 +10689,9 @@
       <c r="AH90" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10530,6 +10802,9 @@
       <c r="AH91" t="n">
         <v>0.305</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0.295</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10640,6 +10915,9 @@
       <c r="AH92" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI92" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10750,6 +11028,9 @@
       <c r="AH93" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI93" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10860,6 +11141,9 @@
       <c r="AH94" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI94" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10970,6 +11254,9 @@
       <c r="AH95" t="n">
         <v>0.72</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11080,6 +11367,9 @@
       <c r="AH96" t="n">
         <v>0.235</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11190,6 +11480,9 @@
       <c r="AH97" t="n">
         <v>0.005</v>
       </c>
+      <c r="AI97" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11300,6 +11593,9 @@
       <c r="AH98" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11410,6 +11706,9 @@
       <c r="AH99" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11520,6 +11819,9 @@
       <c r="AH100" t="n">
         <v>0.85</v>
       </c>
+      <c r="AI100" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11630,6 +11932,9 @@
       <c r="AH101" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI101" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11740,6 +12045,9 @@
       <c r="AH102" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI102" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11850,6 +12158,9 @@
       <c r="AH103" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11960,6 +12271,9 @@
       <c r="AH104" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12070,6 +12384,9 @@
       <c r="AH105" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12180,6 +12497,9 @@
       <c r="AH106" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI106" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12290,6 +12610,9 @@
       <c r="AH107" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI107" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12400,6 +12723,9 @@
       <c r="AH108" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12510,6 +12836,9 @@
       <c r="AH109" t="n">
         <v>0</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12620,6 +12949,9 @@
       <c r="AH110" t="n">
         <v>0.89</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12730,6 +13062,9 @@
       <c r="AH111" t="n">
         <v>0.045</v>
       </c>
+      <c r="AI111" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12840,6 +13175,9 @@
       <c r="AH112" t="n">
         <v>0.005</v>
       </c>
+      <c r="AI112" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12950,6 +13288,9 @@
       <c r="AH113" t="n">
         <v>0</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13060,6 +13401,9 @@
       <c r="AH114" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13170,6 +13514,9 @@
       <c r="AH115" t="n">
         <v>0.92</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13280,6 +13627,9 @@
       <c r="AH116" t="n">
         <v>0.035</v>
       </c>
+      <c r="AI116" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13390,6 +13740,9 @@
       <c r="AH117" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI117" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13500,6 +13853,9 @@
       <c r="AH118" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI118" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13610,6 +13966,9 @@
       <c r="AH119" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13720,6 +14079,9 @@
       <c r="AH120" t="n">
         <v>0.88</v>
       </c>
+      <c r="AI120" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13830,6 +14192,9 @@
       <c r="AH121" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI121" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13940,6 +14305,9 @@
       <c r="AH122" t="n">
         <v>0</v>
       </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14050,6 +14418,9 @@
       <c r="AH123" t="n">
         <v>0.015</v>
       </c>
+      <c r="AI123" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14160,6 +14531,9 @@
       <c r="AH124" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14270,6 +14644,9 @@
       <c r="AH125" t="n">
         <v>0.87</v>
       </c>
+      <c r="AI125" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14380,6 +14757,9 @@
       <c r="AH126" t="n">
         <v>0.095</v>
       </c>
+      <c r="AI126" t="n">
+        <v>0.08500000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14490,6 +14870,9 @@
       <c r="AH127" t="n">
         <v>0.01</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14600,6 +14983,9 @@
       <c r="AH128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14710,6 +15096,9 @@
       <c r="AH129" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14820,6 +15209,9 @@
       <c r="AH130" t="n">
         <v>0.79</v>
       </c>
+      <c r="AI130" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14930,6 +15322,9 @@
       <c r="AH131" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15040,6 +15435,9 @@
       <c r="AH132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15150,6 +15548,9 @@
       <c r="AH133" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI133" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15260,6 +15661,9 @@
       <c r="AH134" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15370,6 +15774,9 @@
       <c r="AH135" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AI135" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15480,11 +15887,14 @@
       <c r="AH136" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI136" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -15499,7 +15909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15673,6 +16083,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15778,6 +16193,9 @@
       <c r="AG2" t="n">
         <v>1424</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1389</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -15883,6 +16301,9 @@
       <c r="AG3" t="n">
         <v>889</v>
       </c>
+      <c r="AH3" t="n">
+        <v>865</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -15988,6 +16409,9 @@
       <c r="AG4" t="n">
         <v>142</v>
       </c>
+      <c r="AH4" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16093,6 +16517,9 @@
       <c r="AG5" t="n">
         <v>126</v>
       </c>
+      <c r="AH5" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16198,6 +16625,9 @@
       <c r="AG6" t="n">
         <v>267</v>
       </c>
+      <c r="AH6" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16303,6 +16733,9 @@
       <c r="AG7" t="n">
         <v>849</v>
       </c>
+      <c r="AH7" t="n">
+        <v>832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16408,6 +16841,9 @@
       <c r="AG8" t="n">
         <v>132</v>
       </c>
+      <c r="AH8" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16513,6 +16949,9 @@
       <c r="AG9" t="n">
         <v>90</v>
       </c>
+      <c r="AH9" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16618,6 +17057,9 @@
       <c r="AG10" t="n">
         <v>353</v>
       </c>
+      <c r="AH10" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16723,6 +17165,9 @@
       <c r="AG11" t="n">
         <v>602</v>
       </c>
+      <c r="AH11" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16828,6 +17273,9 @@
       <c r="AG12" t="n">
         <v>523</v>
       </c>
+      <c r="AH12" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16933,6 +17381,9 @@
       <c r="AG13" t="n">
         <v>299</v>
       </c>
+      <c r="AH13" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17038,6 +17489,9 @@
       <c r="AG14" t="n">
         <v>419</v>
       </c>
+      <c r="AH14" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -17143,6 +17597,9 @@
       <c r="AG15" t="n">
         <v>179</v>
       </c>
+      <c r="AH15" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -17248,6 +17705,9 @@
       <c r="AG16" t="n">
         <v>260</v>
       </c>
+      <c r="AH16" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -17353,6 +17813,9 @@
       <c r="AG17" t="n">
         <v>413</v>
       </c>
+      <c r="AH17" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -17458,6 +17921,9 @@
       <c r="AG18" t="n">
         <v>203</v>
       </c>
+      <c r="AH18" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17563,6 +18029,9 @@
       <c r="AG19" t="n">
         <v>470</v>
       </c>
+      <c r="AH19" t="n">
+        <v>425</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17668,6 +18137,9 @@
       <c r="AG20" t="n">
         <v>422</v>
       </c>
+      <c r="AH20" t="n">
+        <v>446</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17773,6 +18245,9 @@
       <c r="AG21" t="n">
         <v>188</v>
       </c>
+      <c r="AH21" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17878,6 +18353,9 @@
       <c r="AG22" t="n">
         <v>322</v>
       </c>
+      <c r="AH22" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17983,6 +18461,9 @@
       <c r="AG23" t="n">
         <v>92</v>
       </c>
+      <c r="AH23" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18088,6 +18569,9 @@
       <c r="AG24" t="n">
         <v>298</v>
       </c>
+      <c r="AH24" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18193,6 +18677,9 @@
       <c r="AG25" t="n">
         <v>163</v>
       </c>
+      <c r="AH25" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18298,6 +18785,9 @@
       <c r="AG26" t="n">
         <v>87</v>
       </c>
+      <c r="AH26" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18403,6 +18893,9 @@
       <c r="AG27" t="n">
         <v>712</v>
       </c>
+      <c r="AH27" t="n">
+        <v>692</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18508,11 +19001,14 @@
       <c r="AG28" t="n">
         <v>712</v>
       </c>
+      <c r="AH28" t="n">
+        <v>697</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -18547,6 +19043,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI137"/>
+  <dimension ref="A1:AJ137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.225</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1539,6 +1565,9 @@
       <c r="AI9" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AI10" t="n">
         <v>0.87</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1765,6 +1797,9 @@
       <c r="AI11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1878,6 +1913,9 @@
       <c r="AI12" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1991,6 +2029,9 @@
       <c r="AI13" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2104,6 +2145,9 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,6 +2261,9 @@
       <c r="AI15" t="n">
         <v>0.87</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2330,6 +2377,9 @@
       <c r="AI16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2443,6 +2493,9 @@
       <c r="AI17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2556,6 +2609,9 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2669,6 +2725,9 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2782,6 +2841,9 @@
       <c r="AI20" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2895,6 +2957,9 @@
       <c r="AI21" t="n">
         <v>0.975</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3008,6 +3073,9 @@
       <c r="AI22" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3121,6 +3189,9 @@
       <c r="AI23" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3234,6 +3305,9 @@
       <c r="AI24" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3347,6 +3421,9 @@
       <c r="AI25" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3460,6 +3537,9 @@
       <c r="AI26" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3573,6 +3653,9 @@
       <c r="AI27" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3686,6 +3769,9 @@
       <c r="AI28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3799,6 +3885,9 @@
       <c r="AI29" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3912,6 +4001,9 @@
       <c r="AI30" t="n">
         <v>0.87</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4025,6 +4117,9 @@
       <c r="AI31" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4138,6 +4233,9 @@
       <c r="AI32" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4251,6 +4349,9 @@
       <c r="AI33" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4364,6 +4465,9 @@
       <c r="AI34" t="n">
         <v>0</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4477,6 +4581,9 @@
       <c r="AI35" t="n">
         <v>0.85</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4590,6 +4697,9 @@
       <c r="AI36" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4703,6 +4813,9 @@
       <c r="AI37" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4816,6 +4929,9 @@
       <c r="AI38" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4929,6 +5045,9 @@
       <c r="AI39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5042,6 +5161,9 @@
       <c r="AI40" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5155,6 +5277,9 @@
       <c r="AI41" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5268,6 +5393,9 @@
       <c r="AI42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5381,6 +5509,9 @@
       <c r="AI43" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5494,6 +5625,9 @@
       <c r="AI44" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,6 +5741,9 @@
       <c r="AI45" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5720,6 +5857,9 @@
       <c r="AI46" t="n">
         <v>0.75</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,6 +5973,9 @@
       <c r="AI47" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5946,6 +6089,9 @@
       <c r="AI48" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6059,6 +6205,9 @@
       <c r="AI49" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6172,6 +6321,9 @@
       <c r="AI50" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6285,6 +6437,9 @@
       <c r="AI51" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6398,6 +6553,9 @@
       <c r="AI52" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6511,6 +6669,9 @@
       <c r="AI53" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6624,6 +6785,9 @@
       <c r="AI54" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6737,6 +6901,9 @@
       <c r="AI55" t="n">
         <v>0.73</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6850,6 +7017,9 @@
       <c r="AI56" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.195</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6963,6 +7133,9 @@
       <c r="AI57" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7076,6 +7249,9 @@
       <c r="AI58" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7189,6 +7365,9 @@
       <c r="AI59" t="n">
         <v>0</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7302,6 +7481,9 @@
       <c r="AI60" t="n">
         <v>0.79</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7415,6 +7597,9 @@
       <c r="AI61" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7528,6 +7713,9 @@
       <c r="AI62" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7641,6 +7829,9 @@
       <c r="AI63" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7754,6 +7945,9 @@
       <c r="AI64" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7867,6 +8061,9 @@
       <c r="AI65" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7980,6 +8177,9 @@
       <c r="AI66" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8093,6 +8293,9 @@
       <c r="AI67" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8206,6 +8409,9 @@
       <c r="AI68" t="n">
         <v>0.005</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8319,6 +8525,9 @@
       <c r="AI69" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8432,6 +8641,9 @@
       <c r="AI70" t="n">
         <v>0.77</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8545,6 +8757,9 @@
       <c r="AI71" t="n">
         <v>0.145</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8658,6 +8873,9 @@
       <c r="AI72" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8771,6 +8989,9 @@
       <c r="AI73" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8884,6 +9105,9 @@
       <c r="AI74" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8997,6 +9221,9 @@
       <c r="AI75" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9110,6 +9337,9 @@
       <c r="AI76" t="n">
         <v>0.405</v>
       </c>
+      <c r="AJ76" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9223,6 +9453,9 @@
       <c r="AI77" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ77" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9336,6 +9569,9 @@
       <c r="AI78" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ78" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9449,6 +9685,9 @@
       <c r="AI79" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ79" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9562,6 +9801,9 @@
       <c r="AI80" t="n">
         <v>0.75</v>
       </c>
+      <c r="AJ80" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9675,6 +9917,9 @@
       <c r="AI81" t="n">
         <v>0.205</v>
       </c>
+      <c r="AJ81" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9788,6 +10033,9 @@
       <c r="AI82" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ82" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9901,6 +10149,9 @@
       <c r="AI83" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10014,6 +10265,9 @@
       <c r="AI84" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ84" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10127,6 +10381,9 @@
       <c r="AI85" t="n">
         <v>0.5</v>
       </c>
+      <c r="AJ85" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10240,6 +10497,9 @@
       <c r="AI86" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ86" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10353,6 +10613,9 @@
       <c r="AI87" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ87" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10466,6 +10729,9 @@
       <c r="AI88" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ88" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10579,6 +10845,9 @@
       <c r="AI89" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ89" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10692,6 +10961,9 @@
       <c r="AI90" t="n">
         <v>0.64</v>
       </c>
+      <c r="AJ90" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10805,6 +11077,9 @@
       <c r="AI91" t="n">
         <v>0.295</v>
       </c>
+      <c r="AJ91" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10918,6 +11193,9 @@
       <c r="AI92" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ92" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11031,6 +11309,9 @@
       <c r="AI93" t="n">
         <v>0.005</v>
       </c>
+      <c r="AJ93" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11144,6 +11425,9 @@
       <c r="AI94" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ94" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11257,6 +11541,9 @@
       <c r="AI95" t="n">
         <v>0.75</v>
       </c>
+      <c r="AJ95" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11370,6 +11657,9 @@
       <c r="AI96" t="n">
         <v>0.21</v>
       </c>
+      <c r="AJ96" t="n">
+        <v>0.215</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11483,6 +11773,9 @@
       <c r="AI97" t="n">
         <v>0.005</v>
       </c>
+      <c r="AJ97" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11596,6 +11889,9 @@
       <c r="AI98" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ98" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11709,6 +12005,9 @@
       <c r="AI99" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ99" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11822,6 +12121,9 @@
       <c r="AI100" t="n">
         <v>0.76</v>
       </c>
+      <c r="AJ100" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11935,6 +12237,9 @@
       <c r="AI101" t="n">
         <v>0.155</v>
       </c>
+      <c r="AJ101" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12048,6 +12353,9 @@
       <c r="AI102" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ102" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12161,6 +12469,9 @@
       <c r="AI103" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ103" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12274,6 +12585,9 @@
       <c r="AI104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ104" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12387,6 +12701,9 @@
       <c r="AI105" t="n">
         <v>0.82</v>
       </c>
+      <c r="AJ105" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12500,6 +12817,9 @@
       <c r="AI106" t="n">
         <v>0.095</v>
       </c>
+      <c r="AJ106" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12613,6 +12933,9 @@
       <c r="AI107" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ107" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12726,6 +13049,9 @@
       <c r="AI108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12839,6 +13165,9 @@
       <c r="AI109" t="n">
         <v>0</v>
       </c>
+      <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12952,6 +13281,9 @@
       <c r="AI110" t="n">
         <v>0.91</v>
       </c>
+      <c r="AJ110" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13065,6 +13397,9 @@
       <c r="AI111" t="n">
         <v>0.045</v>
       </c>
+      <c r="AJ111" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13178,6 +13513,9 @@
       <c r="AI112" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ112" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13291,6 +13629,9 @@
       <c r="AI113" t="n">
         <v>0</v>
       </c>
+      <c r="AJ113" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13404,6 +13745,9 @@
       <c r="AI114" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ114" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13517,6 +13861,9 @@
       <c r="AI115" t="n">
         <v>0.88</v>
       </c>
+      <c r="AJ115" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13630,6 +13977,9 @@
       <c r="AI116" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ116" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13743,6 +14093,9 @@
       <c r="AI117" t="n">
         <v>0.005</v>
       </c>
+      <c r="AJ117" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13856,6 +14209,9 @@
       <c r="AI118" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ118" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13969,6 +14325,9 @@
       <c r="AI119" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ119" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14082,6 +14441,9 @@
       <c r="AI120" t="n">
         <v>0.89</v>
       </c>
+      <c r="AJ120" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14195,6 +14557,9 @@
       <c r="AI121" t="n">
         <v>0.045</v>
       </c>
+      <c r="AJ121" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14308,6 +14673,9 @@
       <c r="AI122" t="n">
         <v>0</v>
       </c>
+      <c r="AJ122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14421,6 +14789,9 @@
       <c r="AI123" t="n">
         <v>0.015</v>
       </c>
+      <c r="AJ123" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14534,6 +14905,9 @@
       <c r="AI124" t="n">
         <v>0</v>
       </c>
+      <c r="AJ124" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14647,6 +15021,9 @@
       <c r="AI125" t="n">
         <v>0.9</v>
       </c>
+      <c r="AJ125" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14760,6 +15137,9 @@
       <c r="AI126" t="n">
         <v>0.08500000000000001</v>
       </c>
+      <c r="AJ126" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14873,6 +15253,9 @@
       <c r="AI127" t="n">
         <v>0.01</v>
       </c>
+      <c r="AJ127" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14986,6 +15369,9 @@
       <c r="AI128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15099,6 +15485,9 @@
       <c r="AI129" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ129" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15212,6 +15601,9 @@
       <c r="AI130" t="n">
         <v>0.8</v>
       </c>
+      <c r="AJ130" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15325,6 +15717,9 @@
       <c r="AI131" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ131" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15438,6 +15833,9 @@
       <c r="AI132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15551,6 +15949,9 @@
       <c r="AI133" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ133" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15664,6 +16065,9 @@
       <c r="AI134" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ134" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15777,6 +16181,9 @@
       <c r="AI135" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ135" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15890,11 +16297,14 @@
       <c r="AI136" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ136" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -15909,7 +16319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16088,6 +16498,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16196,6 +16611,9 @@
       <c r="AH2" t="n">
         <v>1389</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16304,6 +16722,9 @@
       <c r="AH3" t="n">
         <v>865</v>
       </c>
+      <c r="AI3" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16412,6 +16833,9 @@
       <c r="AH4" t="n">
         <v>140</v>
       </c>
+      <c r="AI4" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16520,6 +16944,9 @@
       <c r="AH5" t="n">
         <v>117</v>
       </c>
+      <c r="AI5" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16628,6 +17055,9 @@
       <c r="AH6" t="n">
         <v>267</v>
       </c>
+      <c r="AI6" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16736,6 +17166,9 @@
       <c r="AH7" t="n">
         <v>832</v>
       </c>
+      <c r="AI7" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16844,6 +17277,9 @@
       <c r="AH8" t="n">
         <v>129</v>
       </c>
+      <c r="AI8" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16952,6 +17388,9 @@
       <c r="AH9" t="n">
         <v>82</v>
       </c>
+      <c r="AI9" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17060,6 +17499,9 @@
       <c r="AH10" t="n">
         <v>346</v>
       </c>
+      <c r="AI10" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17168,6 +17610,9 @@
       <c r="AH11" t="n">
         <v>598</v>
       </c>
+      <c r="AI11" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17276,6 +17721,9 @@
       <c r="AH12" t="n">
         <v>500</v>
       </c>
+      <c r="AI12" t="n">
+        <v>502</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17384,6 +17832,9 @@
       <c r="AH13" t="n">
         <v>291</v>
       </c>
+      <c r="AI13" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17492,6 +17943,9 @@
       <c r="AH14" t="n">
         <v>391</v>
       </c>
+      <c r="AI14" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -17600,6 +18054,9 @@
       <c r="AH15" t="n">
         <v>174</v>
       </c>
+      <c r="AI15" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -17708,6 +18165,9 @@
       <c r="AH16" t="n">
         <v>246</v>
       </c>
+      <c r="AI16" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -17816,6 +18276,9 @@
       <c r="AH17" t="n">
         <v>428</v>
       </c>
+      <c r="AI17" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -17924,6 +18387,9 @@
       <c r="AH18" t="n">
         <v>198</v>
       </c>
+      <c r="AI18" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18032,6 +18498,9 @@
       <c r="AH19" t="n">
         <v>425</v>
       </c>
+      <c r="AI19" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18140,6 +18609,9 @@
       <c r="AH20" t="n">
         <v>446</v>
       </c>
+      <c r="AI20" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18248,6 +18720,9 @@
       <c r="AH21" t="n">
         <v>179</v>
       </c>
+      <c r="AI21" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18356,6 +18831,9 @@
       <c r="AH22" t="n">
         <v>313</v>
       </c>
+      <c r="AI22" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18464,6 +18942,9 @@
       <c r="AH23" t="n">
         <v>101</v>
       </c>
+      <c r="AI23" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18572,6 +19053,9 @@
       <c r="AH24" t="n">
         <v>277</v>
       </c>
+      <c r="AI24" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18680,6 +19164,9 @@
       <c r="AH25" t="n">
         <v>146</v>
       </c>
+      <c r="AI25" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18788,6 +19275,9 @@
       <c r="AH26" t="n">
         <v>94</v>
       </c>
+      <c r="AI26" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18896,6 +19386,9 @@
       <c r="AH27" t="n">
         <v>692</v>
       </c>
+      <c r="AI27" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19004,11 +19497,14 @@
       <c r="AH28" t="n">
         <v>697</v>
       </c>
+      <c r="AI28" t="n">
+        <v>689</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -19044,6 +19540,7 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ137"/>
+  <dimension ref="A1:AK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -756,6 +761,9 @@
       <c r="AJ2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -872,6 +880,9 @@
       <c r="AJ3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -988,6 +999,9 @@
       <c r="AJ4" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1118,9 @@
       <c r="AJ5" t="n">
         <v>0.7</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1237,9 @@
       <c r="AJ6" t="n">
         <v>0.225</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1336,6 +1356,9 @@
       <c r="AJ7" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1452,6 +1475,9 @@
       <c r="AJ8" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK8" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1568,6 +1594,9 @@
       <c r="AJ9" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1684,6 +1713,9 @@
       <c r="AJ10" t="n">
         <v>0.9</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1800,6 +1832,9 @@
       <c r="AJ11" t="n">
         <v>0.045</v>
       </c>
+      <c r="AK11" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1916,6 +1951,9 @@
       <c r="AJ12" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2032,6 +2070,9 @@
       <c r="AJ13" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2148,6 +2189,9 @@
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2264,6 +2308,9 @@
       <c r="AJ15" t="n">
         <v>0.89</v>
       </c>
+      <c r="AK15" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2380,6 +2427,9 @@
       <c r="AJ16" t="n">
         <v>0.055</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2496,6 +2546,9 @@
       <c r="AJ17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2612,6 +2665,9 @@
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2728,6 +2784,9 @@
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2844,6 +2903,9 @@
       <c r="AJ20" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2960,6 +3022,9 @@
       <c r="AJ21" t="n">
         <v>0.99</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3076,6 +3141,9 @@
       <c r="AJ22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3192,6 +3260,9 @@
       <c r="AJ23" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK23" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3308,6 +3379,9 @@
       <c r="AJ24" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3424,6 +3498,9 @@
       <c r="AJ25" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3540,6 +3617,9 @@
       <c r="AJ26" t="n">
         <v>0.6</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3656,6 +3736,9 @@
       <c r="AJ27" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3772,6 +3855,9 @@
       <c r="AJ28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3888,6 +3974,9 @@
       <c r="AJ29" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK29" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4004,6 +4093,9 @@
       <c r="AJ30" t="n">
         <v>0.9</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4120,6 +4212,9 @@
       <c r="AJ31" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK31" t="n">
+        <v>0.055</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4236,6 +4331,9 @@
       <c r="AJ32" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4352,6 +4450,9 @@
       <c r="AJ33" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4468,6 +4569,9 @@
       <c r="AJ34" t="n">
         <v>0</v>
       </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4584,6 +4688,9 @@
       <c r="AJ35" t="n">
         <v>0.88</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4700,6 +4807,9 @@
       <c r="AJ36" t="n">
         <v>0.065</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4816,6 +4926,9 @@
       <c r="AJ37" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4932,6 +5045,9 @@
       <c r="AJ38" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5048,6 +5164,9 @@
       <c r="AJ39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5164,6 +5283,9 @@
       <c r="AJ40" t="n">
         <v>0.67</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5280,6 +5402,9 @@
       <c r="AJ41" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5396,6 +5521,9 @@
       <c r="AJ42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5512,6 +5640,9 @@
       <c r="AJ43" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5628,6 +5759,9 @@
       <c r="AJ44" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5744,6 +5878,9 @@
       <c r="AJ45" t="n">
         <v>0.13</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5860,6 +5997,9 @@
       <c r="AJ46" t="n">
         <v>0.745</v>
       </c>
+      <c r="AK46" t="n">
+        <v>0.775</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5976,6 +6116,9 @@
       <c r="AJ47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6092,6 +6235,9 @@
       <c r="AJ48" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK48" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6208,6 +6354,9 @@
       <c r="AJ49" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6324,6 +6473,9 @@
       <c r="AJ50" t="n">
         <v>0.61</v>
       </c>
+      <c r="AK50" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6440,6 +6592,9 @@
       <c r="AJ51" t="n">
         <v>0.28</v>
       </c>
+      <c r="AK51" t="n">
+        <v>0.315</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6556,6 +6711,9 @@
       <c r="AJ52" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK52" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6672,6 +6830,9 @@
       <c r="AJ53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6788,6 +6949,9 @@
       <c r="AJ54" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK54" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6904,6 +7068,9 @@
       <c r="AJ55" t="n">
         <v>0.75</v>
       </c>
+      <c r="AK55" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7020,6 +7187,9 @@
       <c r="AJ56" t="n">
         <v>0.195</v>
       </c>
+      <c r="AK56" t="n">
+        <v>0.225</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7136,6 +7306,9 @@
       <c r="AJ57" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7252,6 +7425,9 @@
       <c r="AJ58" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK58" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7368,6 +7544,9 @@
       <c r="AJ59" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7484,6 +7663,9 @@
       <c r="AJ60" t="n">
         <v>0.79</v>
       </c>
+      <c r="AK60" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7600,6 +7782,9 @@
       <c r="AJ61" t="n">
         <v>0.19</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7716,6 +7901,9 @@
       <c r="AJ62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK62" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7832,6 +8020,9 @@
       <c r="AJ63" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK63" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7948,6 +8139,9 @@
       <c r="AJ64" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8064,6 +8258,9 @@
       <c r="AJ65" t="n">
         <v>0.7</v>
       </c>
+      <c r="AK65" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8180,6 +8377,9 @@
       <c r="AJ66" t="n">
         <v>0.21</v>
       </c>
+      <c r="AK66" t="n">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8296,6 +8496,9 @@
       <c r="AJ67" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK67" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8412,6 +8615,9 @@
       <c r="AJ68" t="n">
         <v>0</v>
       </c>
+      <c r="AK68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8528,6 +8734,9 @@
       <c r="AJ69" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK69" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8644,6 +8853,9 @@
       <c r="AJ70" t="n">
         <v>0.79</v>
       </c>
+      <c r="AK70" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8760,6 +8972,9 @@
       <c r="AJ71" t="n">
         <v>0.175</v>
       </c>
+      <c r="AK71" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8876,6 +9091,9 @@
       <c r="AJ72" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK72" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8992,6 +9210,9 @@
       <c r="AJ73" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK73" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9108,6 +9329,9 @@
       <c r="AJ74" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9224,6 +9448,9 @@
       <c r="AJ75" t="n">
         <v>0.55</v>
       </c>
+      <c r="AK75" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9340,6 +9567,9 @@
       <c r="AJ76" t="n">
         <v>0.35</v>
       </c>
+      <c r="AK76" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9456,6 +9686,9 @@
       <c r="AJ77" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK77" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9572,6 +9805,9 @@
       <c r="AJ78" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK78" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9688,6 +9924,9 @@
       <c r="AJ79" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK79" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9804,6 +10043,9 @@
       <c r="AJ80" t="n">
         <v>0.77</v>
       </c>
+      <c r="AK80" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9920,6 +10162,9 @@
       <c r="AJ81" t="n">
         <v>0.2</v>
       </c>
+      <c r="AK81" t="n">
+        <v>0.185</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10036,6 +10281,9 @@
       <c r="AJ82" t="n">
         <v>0.08</v>
       </c>
+      <c r="AK82" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10152,6 +10400,9 @@
       <c r="AJ83" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AK83" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10268,6 +10519,9 @@
       <c r="AJ84" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK84" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10384,6 +10638,9 @@
       <c r="AJ85" t="n">
         <v>0.58</v>
       </c>
+      <c r="AK85" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10500,6 +10757,9 @@
       <c r="AJ86" t="n">
         <v>0.24</v>
       </c>
+      <c r="AK86" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10616,6 +10876,9 @@
       <c r="AJ87" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK87" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10732,6 +10995,9 @@
       <c r="AJ88" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK88" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10848,6 +11114,9 @@
       <c r="AJ89" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK89" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10964,6 +11233,9 @@
       <c r="AJ90" t="n">
         <v>0.67</v>
       </c>
+      <c r="AK90" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11080,6 +11352,9 @@
       <c r="AJ91" t="n">
         <v>0.28</v>
       </c>
+      <c r="AK91" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11196,6 +11471,9 @@
       <c r="AJ92" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK92" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11312,6 +11590,9 @@
       <c r="AJ93" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11428,6 +11709,9 @@
       <c r="AJ94" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK94" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11544,6 +11828,9 @@
       <c r="AJ95" t="n">
         <v>0.76</v>
       </c>
+      <c r="AK95" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11660,6 +11947,9 @@
       <c r="AJ96" t="n">
         <v>0.215</v>
       </c>
+      <c r="AK96" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11776,6 +12066,9 @@
       <c r="AJ97" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK97" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11892,6 +12185,9 @@
       <c r="AJ98" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK98" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12008,6 +12304,9 @@
       <c r="AJ99" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK99" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12124,6 +12423,9 @@
       <c r="AJ100" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AK100" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12240,6 +12542,9 @@
       <c r="AJ101" t="n">
         <v>0.14</v>
       </c>
+      <c r="AK101" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12356,6 +12661,9 @@
       <c r="AJ102" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK102" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12472,6 +12780,9 @@
       <c r="AJ103" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK103" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12588,6 +12899,9 @@
       <c r="AJ104" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK104" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12704,6 +13018,9 @@
       <c r="AJ105" t="n">
         <v>0.87</v>
       </c>
+      <c r="AK105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12820,6 +13137,9 @@
       <c r="AJ106" t="n">
         <v>0.08</v>
       </c>
+      <c r="AK106" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12936,6 +13256,9 @@
       <c r="AJ107" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK107" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13052,6 +13375,9 @@
       <c r="AJ108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK108" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13168,6 +13494,9 @@
       <c r="AJ109" t="n">
         <v>0</v>
       </c>
+      <c r="AK109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13284,6 +13613,9 @@
       <c r="AJ110" t="n">
         <v>0.92</v>
       </c>
+      <c r="AK110" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13400,6 +13732,9 @@
       <c r="AJ111" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK111" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13516,6 +13851,9 @@
       <c r="AJ112" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK112" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13632,6 +13970,9 @@
       <c r="AJ113" t="n">
         <v>0.015</v>
       </c>
+      <c r="AK113" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13748,6 +14089,9 @@
       <c r="AJ114" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13864,6 +14208,9 @@
       <c r="AJ115" t="n">
         <v>0.92</v>
       </c>
+      <c r="AK115" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13980,6 +14327,9 @@
       <c r="AJ116" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK116" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14096,6 +14446,9 @@
       <c r="AJ117" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK117" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14212,6 +14565,9 @@
       <c r="AJ118" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK118" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14328,6 +14684,9 @@
       <c r="AJ119" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK119" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14444,6 +14803,9 @@
       <c r="AJ120" t="n">
         <v>0.91</v>
       </c>
+      <c r="AK120" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14560,6 +14922,9 @@
       <c r="AJ121" t="n">
         <v>0.045</v>
       </c>
+      <c r="AK121" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14676,6 +15041,9 @@
       <c r="AJ122" t="n">
         <v>0</v>
       </c>
+      <c r="AK122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14792,6 +15160,9 @@
       <c r="AJ123" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK123" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14908,6 +15279,9 @@
       <c r="AJ124" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK124" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15024,6 +15398,9 @@
       <c r="AJ125" t="n">
         <v>0.91</v>
       </c>
+      <c r="AK125" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15140,6 +15517,9 @@
       <c r="AJ126" t="n">
         <v>0.065</v>
       </c>
+      <c r="AK126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15256,6 +15636,9 @@
       <c r="AJ127" t="n">
         <v>0.005</v>
       </c>
+      <c r="AK127" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15372,6 +15755,9 @@
       <c r="AJ128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK128" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15488,6 +15874,9 @@
       <c r="AJ129" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK129" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15604,6 +15993,9 @@
       <c r="AJ130" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AK130" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15720,6 +16112,9 @@
       <c r="AJ131" t="n">
         <v>0.145</v>
       </c>
+      <c r="AK131" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15836,6 +16231,9 @@
       <c r="AJ132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15952,6 +16350,9 @@
       <c r="AJ133" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK133" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16068,6 +16469,9 @@
       <c r="AJ134" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK134" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16184,6 +16588,9 @@
       <c r="AJ135" t="n">
         <v>0.59</v>
       </c>
+      <c r="AK135" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16300,11 +16707,14 @@
       <c r="AJ136" t="n">
         <v>0.32</v>
       </c>
+      <c r="AK136" t="n">
+        <v>0.355</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
     </row>
@@ -16319,7 +16729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16503,6 +16913,11 @@
           <t>12. 10. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>11. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16614,6 +17029,9 @@
       <c r="AI2" t="n">
         <v>1375</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>1280</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16725,6 +17143,9 @@
       <c r="AI3" t="n">
         <v>862</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16836,6 +17257,9 @@
       <c r="AI4" t="n">
         <v>140</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16947,6 +17371,9 @@
       <c r="AI5" t="n">
         <v>117</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17058,6 +17485,9 @@
       <c r="AI6" t="n">
         <v>256</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17169,6 +17599,9 @@
       <c r="AI7" t="n">
         <v>827</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>763</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17280,6 +17713,9 @@
       <c r="AI8" t="n">
         <v>131</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17391,6 +17827,9 @@
       <c r="AI9" t="n">
         <v>88</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17502,6 +17941,9 @@
       <c r="AI10" t="n">
         <v>329</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17613,6 +18055,9 @@
       <c r="AI11" t="n">
         <v>587</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>549</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -17724,6 +18169,9 @@
       <c r="AI12" t="n">
         <v>502</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -17835,6 +18283,9 @@
       <c r="AI13" t="n">
         <v>286</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17946,6 +18397,9 @@
       <c r="AI14" t="n">
         <v>378</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18057,6 +18511,9 @@
       <c r="AI15" t="n">
         <v>178</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18168,6 +18625,9 @@
       <c r="AI16" t="n">
         <v>257</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18279,6 +18739,9 @@
       <c r="AI17" t="n">
         <v>399</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18390,6 +18853,9 @@
       <c r="AI18" t="n">
         <v>205</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18501,6 +18967,9 @@
       <c r="AI19" t="n">
         <v>416</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18612,6 +19081,9 @@
       <c r="AI20" t="n">
         <v>416</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18723,6 +19195,9 @@
       <c r="AI21" t="n">
         <v>185</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18834,6 +19309,9 @@
       <c r="AI22" t="n">
         <v>322</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18945,6 +19423,9 @@
       <c r="AI23" t="n">
         <v>101</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19056,6 +19537,9 @@
       <c r="AI24" t="n">
         <v>266</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19167,6 +19651,9 @@
       <c r="AI25" t="n">
         <v>155</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19278,6 +19765,9 @@
       <c r="AI26" t="n">
         <v>86</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19389,6 +19879,9 @@
       <c r="AI27" t="n">
         <v>686</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>635</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19500,11 +19993,14 @@
       <c r="AI28" t="n">
         <v>689</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -19541,6 +20037,7 @@
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK137"/>
+  <dimension ref="A1:AL137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -764,6 +769,9 @@
       <c r="AK2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -883,6 +891,9 @@
       <c r="AK3" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1002,6 +1013,9 @@
       <c r="AK4" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1121,6 +1135,9 @@
       <c r="AK5" t="n">
         <v>0.66</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1240,6 +1257,9 @@
       <c r="AK6" t="n">
         <v>0.25</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1359,6 +1379,9 @@
       <c r="AK7" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL7" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1478,6 +1501,9 @@
       <c r="AK8" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1597,6 +1623,9 @@
       <c r="AK9" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1716,6 +1745,9 @@
       <c r="AK10" t="n">
         <v>0.84</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1835,6 +1867,9 @@
       <c r="AK11" t="n">
         <v>0.055</v>
       </c>
+      <c r="AL11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1954,6 +1989,9 @@
       <c r="AK12" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL12" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2073,6 +2111,9 @@
       <c r="AK13" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL13" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2192,6 +2233,9 @@
       <c r="AK14" t="n">
         <v>0</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2311,6 +2355,9 @@
       <c r="AK15" t="n">
         <v>0.92</v>
       </c>
+      <c r="AL15" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2430,6 +2477,9 @@
       <c r="AK16" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2549,6 +2599,9 @@
       <c r="AK17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2668,6 +2721,9 @@
       <c r="AK18" t="n">
         <v>0</v>
       </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2787,6 +2843,9 @@
       <c r="AK19" t="n">
         <v>0</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2906,6 +2965,9 @@
       <c r="AK20" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3025,6 +3087,9 @@
       <c r="AK21" t="n">
         <v>0.98</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3144,6 +3209,9 @@
       <c r="AK22" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3263,6 +3331,9 @@
       <c r="AK23" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL23" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3382,6 +3453,9 @@
       <c r="AK24" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL24" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3501,6 +3575,9 @@
       <c r="AK25" t="n">
         <v>0.22</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3620,6 +3697,9 @@
       <c r="AK26" t="n">
         <v>0.66</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3739,6 +3819,9 @@
       <c r="AK27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3858,6 +3941,9 @@
       <c r="AK28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3977,6 +4063,9 @@
       <c r="AK29" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL29" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4096,6 +4185,9 @@
       <c r="AK30" t="n">
         <v>0.84</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4215,6 +4307,9 @@
       <c r="AK31" t="n">
         <v>0.055</v>
       </c>
+      <c r="AL31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4334,6 +4429,9 @@
       <c r="AK32" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4453,6 +4551,9 @@
       <c r="AK33" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4572,6 +4673,9 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
+      <c r="AL34" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4691,6 +4795,9 @@
       <c r="AK35" t="n">
         <v>0.92</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4810,6 +4917,9 @@
       <c r="AK36" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4929,6 +5039,9 @@
       <c r="AK37" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5048,6 +5161,9 @@
       <c r="AK38" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5167,6 +5283,9 @@
       <c r="AK39" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5286,6 +5405,9 @@
       <c r="AK40" t="n">
         <v>0.64</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5405,6 +5527,9 @@
       <c r="AK41" t="n">
         <v>0.265</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5524,6 +5649,9 @@
       <c r="AK42" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5643,6 +5771,9 @@
       <c r="AK43" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5762,6 +5893,9 @@
       <c r="AK44" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5881,6 +6015,9 @@
       <c r="AK45" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6000,6 +6137,9 @@
       <c r="AK46" t="n">
         <v>0.775</v>
       </c>
+      <c r="AL46" t="n">
+        <v>0.755</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6119,6 +6259,9 @@
       <c r="AK47" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6238,6 +6381,9 @@
       <c r="AK48" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL48" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6357,6 +6503,9 @@
       <c r="AK49" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL49" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6476,6 +6625,9 @@
       <c r="AK50" t="n">
         <v>0.54</v>
       </c>
+      <c r="AL50" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6595,6 +6747,9 @@
       <c r="AK51" t="n">
         <v>0.315</v>
       </c>
+      <c r="AL51" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6714,6 +6869,9 @@
       <c r="AK52" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL52" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6833,6 +6991,9 @@
       <c r="AK53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6952,6 +7113,9 @@
       <c r="AK54" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL54" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7071,6 +7235,9 @@
       <c r="AK55" t="n">
         <v>0.71</v>
       </c>
+      <c r="AL55" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7190,6 +7357,9 @@
       <c r="AK56" t="n">
         <v>0.225</v>
       </c>
+      <c r="AL56" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7309,6 +7479,9 @@
       <c r="AK57" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7428,6 +7601,9 @@
       <c r="AK58" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL58" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7547,6 +7723,9 @@
       <c r="AK59" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL59" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7666,6 +7845,9 @@
       <c r="AK60" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AL60" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7785,6 +7967,9 @@
       <c r="AK61" t="n">
         <v>0.155</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7904,6 +8089,9 @@
       <c r="AK62" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL62" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8023,6 +8211,9 @@
       <c r="AK63" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL63" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8142,6 +8333,9 @@
       <c r="AK64" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL64" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8261,6 +8455,9 @@
       <c r="AK65" t="n">
         <v>0.6</v>
       </c>
+      <c r="AL65" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8380,6 +8577,9 @@
       <c r="AK66" t="n">
         <v>0.265</v>
       </c>
+      <c r="AL66" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8499,6 +8699,9 @@
       <c r="AK67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL67" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8618,6 +8821,9 @@
       <c r="AK68" t="n">
         <v>0</v>
       </c>
+      <c r="AL68" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8737,6 +8943,9 @@
       <c r="AK69" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8856,6 +9065,9 @@
       <c r="AK70" t="n">
         <v>0.82</v>
       </c>
+      <c r="AL70" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8975,6 +9187,9 @@
       <c r="AK71" t="n">
         <v>0.155</v>
       </c>
+      <c r="AL71" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9094,6 +9309,9 @@
       <c r="AK72" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL72" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9213,6 +9431,9 @@
       <c r="AK73" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL73" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9332,6 +9553,9 @@
       <c r="AK74" t="n">
         <v>0</v>
       </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9451,6 +9675,9 @@
       <c r="AK75" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AL75" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9570,6 +9797,9 @@
       <c r="AK76" t="n">
         <v>0.37</v>
       </c>
+      <c r="AL76" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9689,6 +9919,9 @@
       <c r="AK77" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL77" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9808,6 +10041,9 @@
       <c r="AK78" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL78" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9927,6 +10163,9 @@
       <c r="AK79" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL79" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10046,6 +10285,9 @@
       <c r="AK80" t="n">
         <v>0.75</v>
       </c>
+      <c r="AL80" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10165,6 +10407,9 @@
       <c r="AK81" t="n">
         <v>0.185</v>
       </c>
+      <c r="AL81" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10284,6 +10529,9 @@
       <c r="AK82" t="n">
         <v>0.13</v>
       </c>
+      <c r="AL82" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10403,6 +10651,9 @@
       <c r="AK83" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL83" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10522,6 +10773,9 @@
       <c r="AK84" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL84" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10641,6 +10895,9 @@
       <c r="AK85" t="n">
         <v>0.53</v>
       </c>
+      <c r="AL85" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10760,6 +11017,9 @@
       <c r="AK86" t="n">
         <v>0.28</v>
       </c>
+      <c r="AL86" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10879,6 +11139,9 @@
       <c r="AK87" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL87" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10998,6 +11261,9 @@
       <c r="AK88" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11117,6 +11383,9 @@
       <c r="AK89" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL89" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11236,6 +11505,9 @@
       <c r="AK90" t="n">
         <v>0.61</v>
       </c>
+      <c r="AL90" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11355,6 +11627,9 @@
       <c r="AK91" t="n">
         <v>0.31</v>
       </c>
+      <c r="AL91" t="n">
+        <v>0.295</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11474,6 +11749,9 @@
       <c r="AK92" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL92" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11593,6 +11871,9 @@
       <c r="AK93" t="n">
         <v>0</v>
       </c>
+      <c r="AL93" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11712,6 +11993,9 @@
       <c r="AK94" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL94" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11831,6 +12115,9 @@
       <c r="AK95" t="n">
         <v>0.73</v>
       </c>
+      <c r="AL95" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11950,6 +12237,9 @@
       <c r="AK96" t="n">
         <v>0.21</v>
       </c>
+      <c r="AL96" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12069,6 +12359,9 @@
       <c r="AK97" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL97" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12188,6 +12481,9 @@
       <c r="AK98" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL98" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12307,6 +12603,9 @@
       <c r="AK99" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL99" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12426,6 +12725,9 @@
       <c r="AK100" t="n">
         <v>0.82</v>
       </c>
+      <c r="AL100" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12545,6 +12847,9 @@
       <c r="AK101" t="n">
         <v>0.14</v>
       </c>
+      <c r="AL101" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12664,6 +12969,9 @@
       <c r="AK102" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL102" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12783,6 +13091,9 @@
       <c r="AK103" t="n">
         <v>0.005</v>
       </c>
+      <c r="AL103" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12902,6 +13213,9 @@
       <c r="AK104" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13021,6 +13335,9 @@
       <c r="AK105" t="n">
         <v>0.82</v>
       </c>
+      <c r="AL105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13140,6 +13457,9 @@
       <c r="AK106" t="n">
         <v>0.095</v>
       </c>
+      <c r="AL106" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13259,6 +13579,9 @@
       <c r="AK107" t="n">
         <v>0.01</v>
       </c>
+      <c r="AL107" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13378,6 +13701,9 @@
       <c r="AK108" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL108" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13497,6 +13823,9 @@
       <c r="AK109" t="n">
         <v>0</v>
       </c>
+      <c r="AL109" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13616,6 +13945,9 @@
       <c r="AK110" t="n">
         <v>0.89</v>
       </c>
+      <c r="AL110" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13735,6 +14067,9 @@
       <c r="AK111" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL111" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13854,6 +14189,9 @@
       <c r="AK112" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL112" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13973,6 +14311,9 @@
       <c r="AK113" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14092,6 +14433,9 @@
       <c r="AK114" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL114" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14211,6 +14555,9 @@
       <c r="AK115" t="n">
         <v>0.87</v>
       </c>
+      <c r="AL115" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14330,6 +14677,9 @@
       <c r="AK116" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL116" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14449,6 +14799,9 @@
       <c r="AK117" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL117" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14568,6 +14921,9 @@
       <c r="AK118" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL118" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14687,6 +15043,9 @@
       <c r="AK119" t="n">
         <v>0.03</v>
       </c>
+      <c r="AL119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14806,6 +15165,9 @@
       <c r="AK120" t="n">
         <v>0.87</v>
       </c>
+      <c r="AL120" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14925,6 +15287,9 @@
       <c r="AK121" t="n">
         <v>0.06</v>
       </c>
+      <c r="AL121" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15044,6 +15409,9 @@
       <c r="AK122" t="n">
         <v>0</v>
       </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15163,6 +15531,9 @@
       <c r="AK123" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL123" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15282,6 +15653,9 @@
       <c r="AK124" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL124" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15401,6 +15775,9 @@
       <c r="AK125" t="n">
         <v>0.86</v>
       </c>
+      <c r="AL125" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15520,6 +15897,9 @@
       <c r="AK126" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AL126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15639,6 +16019,9 @@
       <c r="AK127" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL127" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15758,6 +16141,9 @@
       <c r="AK128" t="n">
         <v>0.02</v>
       </c>
+      <c r="AL128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15877,6 +16263,9 @@
       <c r="AK129" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL129" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15996,6 +16385,9 @@
       <c r="AK130" t="n">
         <v>0.78</v>
       </c>
+      <c r="AL130" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16115,6 +16507,9 @@
       <c r="AK131" t="n">
         <v>0.145</v>
       </c>
+      <c r="AL131" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16234,6 +16629,9 @@
       <c r="AK132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AL132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16353,6 +16751,9 @@
       <c r="AK133" t="n">
         <v>0.015</v>
       </c>
+      <c r="AL133" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16472,6 +16873,9 @@
       <c r="AK134" t="n">
         <v>0.04</v>
       </c>
+      <c r="AL134" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16591,6 +16995,9 @@
       <c r="AK135" t="n">
         <v>0.54</v>
       </c>
+      <c r="AL135" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16710,11 +17117,14 @@
       <c r="AK136" t="n">
         <v>0.355</v>
       </c>
+      <c r="AL136" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -16729,7 +17139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16918,6 +17328,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17032,6 +17447,9 @@
       <c r="AJ2" t="n">
         <v>1280</v>
       </c>
+      <c r="AK2" t="n">
+        <v>1341</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17146,6 +17564,9 @@
       <c r="AJ3" t="n">
         <v>798</v>
       </c>
+      <c r="AK3" t="n">
+        <v>844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17260,6 +17681,9 @@
       <c r="AJ4" t="n">
         <v>129</v>
       </c>
+      <c r="AK4" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17374,6 +17798,9 @@
       <c r="AJ5" t="n">
         <v>110</v>
       </c>
+      <c r="AK5" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17488,6 +17915,9 @@
       <c r="AJ6" t="n">
         <v>243</v>
       </c>
+      <c r="AK6" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17602,6 +18032,9 @@
       <c r="AJ7" t="n">
         <v>763</v>
       </c>
+      <c r="AK7" t="n">
+        <v>810</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17716,6 +18149,9 @@
       <c r="AJ8" t="n">
         <v>117</v>
       </c>
+      <c r="AK8" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17830,6 +18266,9 @@
       <c r="AJ9" t="n">
         <v>81</v>
       </c>
+      <c r="AK9" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17944,6 +18383,9 @@
       <c r="AJ10" t="n">
         <v>319</v>
       </c>
+      <c r="AK10" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18058,6 +18500,9 @@
       <c r="AJ11" t="n">
         <v>549</v>
       </c>
+      <c r="AK11" t="n">
+        <v>573</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18172,6 +18617,9 @@
       <c r="AJ12" t="n">
         <v>470</v>
       </c>
+      <c r="AK12" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18286,6 +18734,9 @@
       <c r="AJ13" t="n">
         <v>261</v>
       </c>
+      <c r="AK13" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18400,6 +18851,9 @@
       <c r="AJ14" t="n">
         <v>366</v>
       </c>
+      <c r="AK14" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18514,6 +18968,9 @@
       <c r="AJ15" t="n">
         <v>140</v>
       </c>
+      <c r="AK15" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18628,6 +19085,9 @@
       <c r="AJ16" t="n">
         <v>247</v>
       </c>
+      <c r="AK16" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18742,6 +19202,9 @@
       <c r="AJ17" t="n">
         <v>375</v>
       </c>
+      <c r="AK17" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18856,6 +19319,9 @@
       <c r="AJ18" t="n">
         <v>189</v>
       </c>
+      <c r="AK18" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18970,6 +19436,9 @@
       <c r="AJ19" t="n">
         <v>416</v>
       </c>
+      <c r="AK19" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19084,6 +19553,9 @@
       <c r="AJ20" t="n">
         <v>368</v>
       </c>
+      <c r="AK20" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19198,6 +19670,9 @@
       <c r="AJ21" t="n">
         <v>165</v>
       </c>
+      <c r="AK21" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19312,6 +19787,9 @@
       <c r="AJ22" t="n">
         <v>280</v>
       </c>
+      <c r="AK22" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19426,6 +19904,9 @@
       <c r="AJ23" t="n">
         <v>90</v>
       </c>
+      <c r="AK23" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19540,6 +20021,9 @@
       <c r="AJ24" t="n">
         <v>263</v>
       </c>
+      <c r="AK24" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19654,6 +20138,9 @@
       <c r="AJ25" t="n">
         <v>140</v>
       </c>
+      <c r="AK25" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19768,6 +20255,9 @@
       <c r="AJ26" t="n">
         <v>83</v>
       </c>
+      <c r="AK26" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19882,6 +20372,9 @@
       <c r="AJ27" t="n">
         <v>635</v>
       </c>
+      <c r="AK27" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19996,11 +20489,14 @@
       <c r="AJ28" t="n">
         <v>645</v>
       </c>
+      <c r="AK28" t="n">
+        <v>675</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -20038,6 +20534,7 @@
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL137"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +650,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -772,6 +777,9 @@
       <c r="AL2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -894,6 +902,9 @@
       <c r="AL3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1016,6 +1027,9 @@
       <c r="AL4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1138,6 +1152,9 @@
       <c r="AL5" t="n">
         <v>0.67</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,6 +1277,9 @@
       <c r="AL6" t="n">
         <v>0.24</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1382,6 +1402,9 @@
       <c r="AL7" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM7" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1504,6 +1527,9 @@
       <c r="AL8" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1626,6 +1652,9 @@
       <c r="AL9" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1748,6 +1777,9 @@
       <c r="AL10" t="n">
         <v>0.86</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1870,6 +1902,9 @@
       <c r="AL11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1992,6 +2027,9 @@
       <c r="AL12" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2114,6 +2152,9 @@
       <c r="AL13" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2236,6 +2277,9 @@
       <c r="AL14" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2358,6 +2402,9 @@
       <c r="AL15" t="n">
         <v>0.78</v>
       </c>
+      <c r="AM15" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2480,6 +2527,9 @@
       <c r="AL16" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2602,6 +2652,9 @@
       <c r="AL17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2724,6 +2777,9 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2846,6 +2902,9 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2968,6 +3027,9 @@
       <c r="AL20" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3090,6 +3152,9 @@
       <c r="AL21" t="n">
         <v>0.98</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3212,6 +3277,9 @@
       <c r="AL22" t="n">
         <v>0.08</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3334,6 +3402,9 @@
       <c r="AL23" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM23" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3456,6 +3527,9 @@
       <c r="AL24" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM24" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3578,6 +3652,9 @@
       <c r="AL25" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3700,6 +3777,9 @@
       <c r="AL26" t="n">
         <v>0.62</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.645</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3822,6 +3902,9 @@
       <c r="AL27" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3944,6 +4027,9 @@
       <c r="AL28" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4066,6 +4152,9 @@
       <c r="AL29" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM29" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4188,6 +4277,9 @@
       <c r="AL30" t="n">
         <v>0.86</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4310,6 +4402,9 @@
       <c r="AL31" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM31" t="n">
+        <v>0.065</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4432,6 +4527,9 @@
       <c r="AL32" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4554,6 +4652,9 @@
       <c r="AL33" t="n">
         <v>0.13</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4676,6 +4777,9 @@
       <c r="AL34" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4798,6 +4902,9 @@
       <c r="AL35" t="n">
         <v>0.78</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4920,6 +5027,9 @@
       <c r="AL36" t="n">
         <v>0.045</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5042,6 +5152,9 @@
       <c r="AL37" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5164,6 +5277,9 @@
       <c r="AL38" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5286,6 +5402,9 @@
       <c r="AL39" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5408,6 +5527,9 @@
       <c r="AL40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5530,6 +5652,9 @@
       <c r="AL41" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5652,6 +5777,9 @@
       <c r="AL42" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5774,6 +5902,9 @@
       <c r="AL43" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5896,6 +6027,9 @@
       <c r="AL44" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6018,6 +6152,9 @@
       <c r="AL45" t="n">
         <v>0.16</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6140,6 +6277,9 @@
       <c r="AL46" t="n">
         <v>0.755</v>
       </c>
+      <c r="AM46" t="n">
+        <v>0.775</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6262,6 +6402,9 @@
       <c r="AL47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM47" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6384,6 +6527,9 @@
       <c r="AL48" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM48" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6506,6 +6652,9 @@
       <c r="AL49" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6628,6 +6777,9 @@
       <c r="AL50" t="n">
         <v>0.58</v>
       </c>
+      <c r="AM50" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6750,6 +6902,9 @@
       <c r="AL51" t="n">
         <v>0.31</v>
       </c>
+      <c r="AM51" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6872,6 +7027,9 @@
       <c r="AL52" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM52" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6994,6 +7152,9 @@
       <c r="AL53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7116,6 +7277,9 @@
       <c r="AL54" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM54" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7238,6 +7402,9 @@
       <c r="AL55" t="n">
         <v>0.7</v>
       </c>
+      <c r="AM55" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7360,6 +7527,9 @@
       <c r="AL56" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM56" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7482,6 +7652,9 @@
       <c r="AL57" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM57" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7604,6 +7777,9 @@
       <c r="AL58" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM58" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7726,6 +7902,9 @@
       <c r="AL59" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7848,6 +8027,9 @@
       <c r="AL60" t="n">
         <v>0.79</v>
       </c>
+      <c r="AM60" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7970,6 +8152,9 @@
       <c r="AL61" t="n">
         <v>0.17</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8092,6 +8277,9 @@
       <c r="AL62" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM62" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8214,6 +8402,9 @@
       <c r="AL63" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM63" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8336,6 +8527,9 @@
       <c r="AL64" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM64" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8458,6 +8652,9 @@
       <c r="AL65" t="n">
         <v>0.62</v>
       </c>
+      <c r="AM65" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8580,6 +8777,9 @@
       <c r="AL66" t="n">
         <v>0.26</v>
       </c>
+      <c r="AM66" t="n">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8702,6 +8902,9 @@
       <c r="AL67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM67" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8824,6 +9027,9 @@
       <c r="AL68" t="n">
         <v>0.005</v>
       </c>
+      <c r="AM68" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8946,6 +9152,9 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
+      <c r="AM69" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9068,6 +9277,9 @@
       <c r="AL70" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AM70" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9190,6 +9402,9 @@
       <c r="AL71" t="n">
         <v>0.175</v>
       </c>
+      <c r="AM71" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9312,6 +9527,9 @@
       <c r="AL72" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM72" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9434,6 +9652,9 @@
       <c r="AL73" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM73" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9556,6 +9777,9 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9678,6 +9902,9 @@
       <c r="AL75" t="n">
         <v>0.59</v>
       </c>
+      <c r="AM75" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9800,6 +10027,9 @@
       <c r="AL76" t="n">
         <v>0.36</v>
       </c>
+      <c r="AM76" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9922,6 +10152,9 @@
       <c r="AL77" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM77" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10044,6 +10277,9 @@
       <c r="AL78" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM78" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10166,6 +10402,9 @@
       <c r="AL79" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM79" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10288,6 +10527,9 @@
       <c r="AL80" t="n">
         <v>0.73</v>
       </c>
+      <c r="AM80" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10410,6 +10652,9 @@
       <c r="AL81" t="n">
         <v>0.19</v>
       </c>
+      <c r="AM81" t="n">
+        <v>0.215</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10532,6 +10777,9 @@
       <c r="AL82" t="n">
         <v>0.09</v>
       </c>
+      <c r="AM82" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10654,6 +10902,9 @@
       <c r="AL83" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM83" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10776,6 +11027,9 @@
       <c r="AL84" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM84" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10898,6 +11152,9 @@
       <c r="AL85" t="n">
         <v>0.51</v>
       </c>
+      <c r="AM85" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11020,6 +11277,9 @@
       <c r="AL86" t="n">
         <v>0.3</v>
       </c>
+      <c r="AM86" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11142,6 +11402,9 @@
       <c r="AL87" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM87" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11264,6 +11527,9 @@
       <c r="AL88" t="n">
         <v>0.005</v>
       </c>
+      <c r="AM88" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11386,6 +11652,9 @@
       <c r="AL89" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM89" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11508,6 +11777,9 @@
       <c r="AL90" t="n">
         <v>0.64</v>
       </c>
+      <c r="AM90" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11630,6 +11902,9 @@
       <c r="AL91" t="n">
         <v>0.295</v>
       </c>
+      <c r="AM91" t="n">
+        <v>0.285</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11752,6 +12027,9 @@
       <c r="AL92" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM92" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11874,6 +12152,9 @@
       <c r="AL93" t="n">
         <v>0.015</v>
       </c>
+      <c r="AM93" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11996,6 +12277,9 @@
       <c r="AL94" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM94" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12118,6 +12402,9 @@
       <c r="AL95" t="n">
         <v>0.73</v>
       </c>
+      <c r="AM95" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12240,6 +12527,9 @@
       <c r="AL96" t="n">
         <v>0.22</v>
       </c>
+      <c r="AM96" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12362,6 +12652,9 @@
       <c r="AL97" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12484,6 +12777,9 @@
       <c r="AL98" t="n">
         <v>0.06</v>
       </c>
+      <c r="AM98" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12606,6 +12902,9 @@
       <c r="AL99" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM99" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12728,6 +13027,9 @@
       <c r="AL100" t="n">
         <v>0.79</v>
       </c>
+      <c r="AM100" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12850,6 +13152,9 @@
       <c r="AL101" t="n">
         <v>0.12</v>
       </c>
+      <c r="AM101" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12972,6 +13277,9 @@
       <c r="AL102" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM102" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13094,6 +13402,9 @@
       <c r="AL103" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM103" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13216,6 +13527,9 @@
       <c r="AL104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM104" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13338,6 +13652,9 @@
       <c r="AL105" t="n">
         <v>0.82</v>
       </c>
+      <c r="AM105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13460,6 +13777,9 @@
       <c r="AL106" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM106" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13582,6 +13902,9 @@
       <c r="AL107" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM107" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13704,6 +14027,9 @@
       <c r="AL108" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM108" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13826,6 +14152,9 @@
       <c r="AL109" t="n">
         <v>0.005</v>
       </c>
+      <c r="AM109" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13948,6 +14277,9 @@
       <c r="AL110" t="n">
         <v>0.9</v>
       </c>
+      <c r="AM110" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14070,6 +14402,9 @@
       <c r="AL111" t="n">
         <v>0.045</v>
       </c>
+      <c r="AM111" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14192,6 +14527,9 @@
       <c r="AL112" t="n">
         <v>0.01</v>
       </c>
+      <c r="AM112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14314,6 +14652,9 @@
       <c r="AL113" t="n">
         <v>0</v>
       </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14436,6 +14777,9 @@
       <c r="AL114" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM114" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14558,6 +14902,9 @@
       <c r="AL115" t="n">
         <v>0.91</v>
       </c>
+      <c r="AM115" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14680,6 +15027,9 @@
       <c r="AL116" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM116" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14802,6 +15152,9 @@
       <c r="AL117" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM117" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14924,6 +15277,9 @@
       <c r="AL118" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM118" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15046,6 +15402,9 @@
       <c r="AL119" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15168,6 +15527,9 @@
       <c r="AL120" t="n">
         <v>0.86</v>
       </c>
+      <c r="AM120" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15290,6 +15652,9 @@
       <c r="AL121" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM121" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15412,6 +15777,9 @@
       <c r="AL122" t="n">
         <v>0</v>
       </c>
+      <c r="AM122" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15534,6 +15902,9 @@
       <c r="AL123" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM123" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15656,6 +16027,9 @@
       <c r="AL124" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM124" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15778,6 +16152,9 @@
       <c r="AL125" t="n">
         <v>0.83</v>
       </c>
+      <c r="AM125" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15900,6 +16277,9 @@
       <c r="AL126" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AM126" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16022,6 +16402,9 @@
       <c r="AL127" t="n">
         <v>0.005</v>
       </c>
+      <c r="AM127" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16144,6 +16527,9 @@
       <c r="AL128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AM128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16266,6 +16652,9 @@
       <c r="AL129" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM129" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16388,6 +16777,9 @@
       <c r="AL130" t="n">
         <v>0.8</v>
       </c>
+      <c r="AM130" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16510,6 +16902,9 @@
       <c r="AL131" t="n">
         <v>0.145</v>
       </c>
+      <c r="AM131" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16632,6 +17027,9 @@
       <c r="AL132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16754,6 +17152,9 @@
       <c r="AL133" t="n">
         <v>0.02</v>
       </c>
+      <c r="AM133" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16876,6 +17277,9 @@
       <c r="AL134" t="n">
         <v>0.04</v>
       </c>
+      <c r="AM134" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16998,6 +17402,9 @@
       <c r="AL135" t="n">
         <v>0.55</v>
       </c>
+      <c r="AM135" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17120,11 +17527,14 @@
       <c r="AL136" t="n">
         <v>0.34</v>
       </c>
+      <c r="AM136" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
     </row>
@@ -17139,7 +17549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17333,6 +17743,11 @@
           <t>30. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>28. 12. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17450,6 +17865,9 @@
       <c r="AK2" t="n">
         <v>1341</v>
       </c>
+      <c r="AL2" t="n">
+        <v>1323</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17567,6 +17985,9 @@
       <c r="AK3" t="n">
         <v>844</v>
       </c>
+      <c r="AL3" t="n">
+        <v>830</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -17684,6 +18105,9 @@
       <c r="AK4" t="n">
         <v>134</v>
       </c>
+      <c r="AL4" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17801,6 +18225,9 @@
       <c r="AK5" t="n">
         <v>113</v>
       </c>
+      <c r="AL5" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17918,6 +18345,9 @@
       <c r="AK6" t="n">
         <v>250</v>
       </c>
+      <c r="AL6" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18035,6 +18465,9 @@
       <c r="AK7" t="n">
         <v>810</v>
       </c>
+      <c r="AL7" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18152,6 +18585,9 @@
       <c r="AK8" t="n">
         <v>118</v>
       </c>
+      <c r="AL8" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18269,6 +18705,9 @@
       <c r="AK9" t="n">
         <v>92</v>
       </c>
+      <c r="AL9" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18386,6 +18825,9 @@
       <c r="AK10" t="n">
         <v>321</v>
       </c>
+      <c r="AL10" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18503,6 +18945,9 @@
       <c r="AK11" t="n">
         <v>573</v>
       </c>
+      <c r="AL11" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -18620,6 +19065,9 @@
       <c r="AK12" t="n">
         <v>486</v>
       </c>
+      <c r="AL12" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -18737,6 +19185,9 @@
       <c r="AK13" t="n">
         <v>282</v>
       </c>
+      <c r="AL13" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -18854,6 +19305,9 @@
       <c r="AK14" t="n">
         <v>372</v>
       </c>
+      <c r="AL14" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -18971,6 +19425,9 @@
       <c r="AK15" t="n">
         <v>166</v>
       </c>
+      <c r="AL15" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19088,6 +19545,9 @@
       <c r="AK16" t="n">
         <v>246</v>
       </c>
+      <c r="AL16" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19205,6 +19665,9 @@
       <c r="AK17" t="n">
         <v>388</v>
       </c>
+      <c r="AL17" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19322,6 +19785,9 @@
       <c r="AK18" t="n">
         <v>196</v>
       </c>
+      <c r="AL18" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19439,6 +19905,9 @@
       <c r="AK19" t="n">
         <v>413</v>
       </c>
+      <c r="AL19" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19556,6 +20025,9 @@
       <c r="AK20" t="n">
         <v>409</v>
       </c>
+      <c r="AL20" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19673,6 +20145,9 @@
       <c r="AK21" t="n">
         <v>167</v>
       </c>
+      <c r="AL21" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -19790,6 +20265,9 @@
       <c r="AK22" t="n">
         <v>307</v>
       </c>
+      <c r="AL22" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19907,6 +20385,9 @@
       <c r="AK23" t="n">
         <v>104</v>
       </c>
+      <c r="AL23" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20024,6 +20505,9 @@
       <c r="AK24" t="n">
         <v>255</v>
       </c>
+      <c r="AL24" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20141,6 +20625,9 @@
       <c r="AK25" t="n">
         <v>152</v>
       </c>
+      <c r="AL25" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20258,6 +20745,9 @@
       <c r="AK26" t="n">
         <v>89</v>
       </c>
+      <c r="AL26" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20375,6 +20865,9 @@
       <c r="AK27" t="n">
         <v>666</v>
       </c>
+      <c r="AL27" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20492,11 +20985,14 @@
       <c r="AK28" t="n">
         <v>675</v>
       </c>
+      <c r="AL28" t="n">
+        <v>665</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -20535,6 +21031,7 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM137"/>
+  <dimension ref="A1:AN137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,6 +1681,9 @@
       <c r="AM9" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1780,6 +1809,9 @@
       <c r="AM10" t="n">
         <v>0.87</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1905,6 +1937,9 @@
       <c r="AM11" t="n">
         <v>0.065</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2030,6 +2065,9 @@
       <c r="AM12" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2155,6 +2193,9 @@
       <c r="AM13" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2280,6 +2321,9 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2405,6 +2449,9 @@
       <c r="AM15" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2530,6 +2577,9 @@
       <c r="AM16" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2655,6 +2705,9 @@
       <c r="AM17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2780,6 +2833,9 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2905,6 +2961,9 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3030,6 +3089,9 @@
       <c r="AM20" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3155,6 +3217,9 @@
       <c r="AM21" t="n">
         <v>0.985</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3280,6 +3345,9 @@
       <c r="AM22" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3405,6 +3473,9 @@
       <c r="AM23" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3530,6 +3601,9 @@
       <c r="AM24" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3655,6 +3729,9 @@
       <c r="AM25" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3780,6 +3857,9 @@
       <c r="AM26" t="n">
         <v>0.645</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3905,6 +3985,9 @@
       <c r="AM27" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4030,6 +4113,9 @@
       <c r="AM28" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4155,6 +4241,9 @@
       <c r="AM29" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4280,6 +4369,9 @@
       <c r="AM30" t="n">
         <v>0.87</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4405,6 +4497,9 @@
       <c r="AM31" t="n">
         <v>0.065</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4530,6 +4625,9 @@
       <c r="AM32" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4655,6 +4753,9 @@
       <c r="AM33" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4780,6 +4881,9 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4905,6 +5009,9 @@
       <c r="AM35" t="n">
         <v>0.83</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5030,6 +5137,9 @@
       <c r="AM36" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5155,6 +5265,9 @@
       <c r="AM37" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5280,6 +5393,9 @@
       <c r="AM38" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5405,6 +5521,9 @@
       <c r="AM39" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5530,6 +5649,9 @@
       <c r="AM40" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5655,6 +5777,9 @@
       <c r="AM41" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5780,6 +5905,9 @@
       <c r="AM42" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5905,6 +6033,9 @@
       <c r="AM43" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6030,6 +6161,9 @@
       <c r="AM44" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6155,6 +6289,9 @@
       <c r="AM45" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6280,6 +6417,9 @@
       <c r="AM46" t="n">
         <v>0.775</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6405,6 +6545,9 @@
       <c r="AM47" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6530,6 +6673,9 @@
       <c r="AM48" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6655,6 +6801,9 @@
       <c r="AM49" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6780,6 +6929,9 @@
       <c r="AM50" t="n">
         <v>0.61</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6905,6 +7057,9 @@
       <c r="AM51" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7030,6 +7185,9 @@
       <c r="AM52" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7155,6 +7313,9 @@
       <c r="AM53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7280,6 +7441,9 @@
       <c r="AM54" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7405,6 +7569,9 @@
       <c r="AM55" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7530,6 +7697,9 @@
       <c r="AM56" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.225</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7655,6 +7825,9 @@
       <c r="AM57" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7780,6 +7953,9 @@
       <c r="AM58" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7905,6 +8081,9 @@
       <c r="AM59" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8030,6 +8209,9 @@
       <c r="AM60" t="n">
         <v>0.8</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8155,6 +8337,9 @@
       <c r="AM61" t="n">
         <v>0.165</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8280,6 +8465,9 @@
       <c r="AM62" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8405,6 +8593,9 @@
       <c r="AM63" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8530,6 +8721,9 @@
       <c r="AM64" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8655,6 +8849,9 @@
       <c r="AM65" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8780,6 +8977,9 @@
       <c r="AM66" t="n">
         <v>0.265</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8905,6 +9105,9 @@
       <c r="AM67" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9030,6 +9233,9 @@
       <c r="AM68" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9155,6 +9361,9 @@
       <c r="AM69" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9280,6 +9489,9 @@
       <c r="AM70" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9405,6 +9617,9 @@
       <c r="AM71" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9530,6 +9745,9 @@
       <c r="AM72" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9655,6 +9873,9 @@
       <c r="AM73" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9780,6 +10001,9 @@
       <c r="AM74" t="n">
         <v>0</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9905,6 +10129,9 @@
       <c r="AM75" t="n">
         <v>0.61</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10030,6 +10257,9 @@
       <c r="AM76" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.355</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10155,6 +10385,9 @@
       <c r="AM77" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10280,6 +10513,9 @@
       <c r="AM78" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10405,6 +10641,9 @@
       <c r="AM79" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN79" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10530,6 +10769,9 @@
       <c r="AM80" t="n">
         <v>0.72</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10655,6 +10897,9 @@
       <c r="AM81" t="n">
         <v>0.215</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0.175</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10780,6 +11025,9 @@
       <c r="AM82" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10905,6 +11153,9 @@
       <c r="AM83" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11030,6 +11281,9 @@
       <c r="AM84" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11155,6 +11409,9 @@
       <c r="AM85" t="n">
         <v>0.59</v>
       </c>
+      <c r="AN85" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11280,6 +11537,9 @@
       <c r="AM86" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN86" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11405,6 +11665,9 @@
       <c r="AM87" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN87" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11530,6 +11793,9 @@
       <c r="AM88" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN88" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11655,6 +11921,9 @@
       <c r="AM89" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN89" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11780,6 +12049,9 @@
       <c r="AM90" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11905,6 +12177,9 @@
       <c r="AM91" t="n">
         <v>0.285</v>
       </c>
+      <c r="AN91" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12030,6 +12305,9 @@
       <c r="AM92" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12155,6 +12433,9 @@
       <c r="AM93" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12280,6 +12561,9 @@
       <c r="AM94" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN94" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12405,6 +12689,9 @@
       <c r="AM95" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN95" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12530,6 +12817,9 @@
       <c r="AM96" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN96" t="n">
+        <v>0.205</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12655,6 +12945,9 @@
       <c r="AM97" t="n">
         <v>0</v>
       </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12780,6 +13073,9 @@
       <c r="AM98" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN98" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12905,6 +13201,9 @@
       <c r="AM99" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN99" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13030,6 +13329,9 @@
       <c r="AM100" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13155,6 +13457,9 @@
       <c r="AM101" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13280,6 +13585,9 @@
       <c r="AM102" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN102" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13405,6 +13713,9 @@
       <c r="AM103" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN103" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13530,6 +13841,9 @@
       <c r="AM104" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13655,6 +13969,9 @@
       <c r="AM105" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN105" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13780,6 +14097,9 @@
       <c r="AM106" t="n">
         <v>0.115</v>
       </c>
+      <c r="AN106" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13905,6 +14225,9 @@
       <c r="AM107" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN107" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14030,6 +14353,9 @@
       <c r="AM108" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN108" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14155,6 +14481,9 @@
       <c r="AM109" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN109" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14280,6 +14609,9 @@
       <c r="AM110" t="n">
         <v>0.9</v>
       </c>
+      <c r="AN110" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14405,6 +14737,9 @@
       <c r="AM111" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN111" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14530,6 +14865,9 @@
       <c r="AM112" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN112" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14655,6 +14993,9 @@
       <c r="AM113" t="n">
         <v>0</v>
       </c>
+      <c r="AN113" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14780,6 +15121,9 @@
       <c r="AM114" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN114" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14905,6 +15249,9 @@
       <c r="AM115" t="n">
         <v>0.9</v>
       </c>
+      <c r="AN115" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15030,6 +15377,9 @@
       <c r="AM116" t="n">
         <v>0.025</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15155,6 +15505,9 @@
       <c r="AM117" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15280,6 +15633,9 @@
       <c r="AM118" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN118" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15405,6 +15761,9 @@
       <c r="AM119" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN119" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15530,6 +15889,9 @@
       <c r="AM120" t="n">
         <v>0.91</v>
       </c>
+      <c r="AN120" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15655,6 +16017,9 @@
       <c r="AM121" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN121" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15780,6 +16145,9 @@
       <c r="AM122" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15905,6 +16273,9 @@
       <c r="AM123" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16030,6 +16401,9 @@
       <c r="AM124" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16155,6 +16529,9 @@
       <c r="AM125" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN125" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16280,6 +16657,9 @@
       <c r="AM126" t="n">
         <v>0.105</v>
       </c>
+      <c r="AN126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16405,6 +16785,9 @@
       <c r="AM127" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN127" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16530,6 +16913,9 @@
       <c r="AM128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN128" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16655,6 +17041,9 @@
       <c r="AM129" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16780,6 +17169,9 @@
       <c r="AM130" t="n">
         <v>0.8</v>
       </c>
+      <c r="AN130" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16905,6 +17297,9 @@
       <c r="AM131" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN131" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17030,6 +17425,9 @@
       <c r="AM132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17155,6 +17553,9 @@
       <c r="AM133" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17280,6 +17681,9 @@
       <c r="AM134" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN134" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17405,6 +17809,9 @@
       <c r="AM135" t="n">
         <v>0.57</v>
       </c>
+      <c r="AN135" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17530,11 +17937,14 @@
       <c r="AM136" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN136" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -17549,7 +17959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17748,6 +18158,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17868,6 +18283,9 @@
       <c r="AL2" t="n">
         <v>1323</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1359</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17988,6 +18406,9 @@
       <c r="AL3" t="n">
         <v>830</v>
       </c>
+      <c r="AM3" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18108,6 +18529,9 @@
       <c r="AL4" t="n">
         <v>135</v>
       </c>
+      <c r="AM4" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18228,6 +18652,9 @@
       <c r="AL5" t="n">
         <v>109</v>
       </c>
+      <c r="AM5" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18348,6 +18775,9 @@
       <c r="AL6" t="n">
         <v>249</v>
       </c>
+      <c r="AM6" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18468,6 +18898,9 @@
       <c r="AL7" t="n">
         <v>798</v>
       </c>
+      <c r="AM7" t="n">
+        <v>813</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18588,6 +19021,9 @@
       <c r="AL8" t="n">
         <v>120</v>
       </c>
+      <c r="AM8" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18708,6 +19144,9 @@
       <c r="AL9" t="n">
         <v>93</v>
       </c>
+      <c r="AM9" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18828,6 +19267,9 @@
       <c r="AL10" t="n">
         <v>312</v>
       </c>
+      <c r="AM10" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18948,6 +19390,9 @@
       <c r="AL11" t="n">
         <v>574</v>
       </c>
+      <c r="AM11" t="n">
+        <v>586</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19068,6 +19513,9 @@
       <c r="AL12" t="n">
         <v>479</v>
       </c>
+      <c r="AM12" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19188,6 +19636,9 @@
       <c r="AL13" t="n">
         <v>270</v>
       </c>
+      <c r="AM13" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19308,6 +19759,9 @@
       <c r="AL14" t="n">
         <v>384</v>
       </c>
+      <c r="AM14" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19428,6 +19882,9 @@
       <c r="AL15" t="n">
         <v>165</v>
       </c>
+      <c r="AM15" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19548,6 +20005,9 @@
       <c r="AL16" t="n">
         <v>254</v>
       </c>
+      <c r="AM16" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19668,6 +20128,9 @@
       <c r="AL17" t="n">
         <v>380</v>
       </c>
+      <c r="AM17" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19788,6 +20251,9 @@
       <c r="AL18" t="n">
         <v>204</v>
       </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19908,6 +20374,9 @@
       <c r="AL19" t="n">
         <v>422</v>
       </c>
+      <c r="AM19" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -20028,6 +20497,9 @@
       <c r="AL20" t="n">
         <v>403</v>
       </c>
+      <c r="AM20" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20148,6 +20620,9 @@
       <c r="AL21" t="n">
         <v>166</v>
       </c>
+      <c r="AM21" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -20268,6 +20743,9 @@
       <c r="AL22" t="n">
         <v>307</v>
       </c>
+      <c r="AM22" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20388,6 +20866,9 @@
       <c r="AL23" t="n">
         <v>86</v>
       </c>
+      <c r="AM23" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20508,6 +20989,9 @@
       <c r="AL24" t="n">
         <v>277</v>
       </c>
+      <c r="AM24" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20628,6 +21112,9 @@
       <c r="AL25" t="n">
         <v>153</v>
       </c>
+      <c r="AM25" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20748,6 +21235,9 @@
       <c r="AL26" t="n">
         <v>80</v>
       </c>
+      <c r="AM26" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20868,6 +21358,9 @@
       <c r="AL27" t="n">
         <v>658</v>
       </c>
+      <c r="AM27" t="n">
+        <v>669</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20988,11 +21481,14 @@
       <c r="AL28" t="n">
         <v>665</v>
       </c>
+      <c r="AM28" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -21032,6 +21528,7 @@
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_01_destabilizace_prace.xlsx
+++ b/ZBP_01_destabilizace_prace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN137"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,12 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -788,6 +793,9 @@
       <c r="AN2" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1044,6 +1055,9 @@
       <c r="AN4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1170,7 +1184,10 @@
         <v>0.68</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -1298,7 +1315,10 @@
         <v>0.24</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -1428,6 +1448,9 @@
       <c r="AN7" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1556,6 +1579,9 @@
       <c r="AN8" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1684,6 +1710,9 @@
       <c r="AN9" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1812,6 +1841,9 @@
       <c r="AN10" t="n">
         <v>0.86</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1940,6 +1972,9 @@
       <c r="AN11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2068,6 +2103,9 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2196,6 +2234,9 @@
       <c r="AN13" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2324,6 +2365,9 @@
       <c r="AN14" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2452,6 +2496,9 @@
       <c r="AN15" t="n">
         <v>0.84</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2580,6 +2627,9 @@
       <c r="AN16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2708,6 +2758,9 @@
       <c r="AN17" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2836,6 +2889,9 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2964,6 +3020,9 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3092,6 +3151,9 @@
       <c r="AN20" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3220,6 +3282,9 @@
       <c r="AN21" t="n">
         <v>0.985</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.955</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3348,6 +3413,9 @@
       <c r="AN22" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3474,7 +3542,10 @@
         <v>0.03</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
@@ -3602,7 +3673,10 @@
         <v>0.005</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
@@ -3730,7 +3804,10 @@
         <v>0.25</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
@@ -3860,6 +3937,9 @@
       <c r="AN26" t="n">
         <v>0.59</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3988,6 +4068,9 @@
       <c r="AN27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4116,6 +4199,9 @@
       <c r="AN28" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4244,6 +4330,9 @@
       <c r="AN29" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4372,6 +4461,9 @@
       <c r="AN30" t="n">
         <v>0.86</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4500,6 +4592,9 @@
       <c r="AN31" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4628,6 +4723,9 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4756,6 +4854,9 @@
       <c r="AN33" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4884,6 +4985,9 @@
       <c r="AN34" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5012,6 +5116,9 @@
       <c r="AN35" t="n">
         <v>0.86</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5140,6 +5247,9 @@
       <c r="AN36" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5268,6 +5378,9 @@
       <c r="AN37" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5396,6 +5509,9 @@
       <c r="AN38" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5522,7 +5638,10 @@
         <v>0.02</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
@@ -5650,7 +5769,10 @@
         <v>0.65</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="41">
@@ -5778,7 +5900,10 @@
         <v>0.26</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="42">
@@ -5908,6 +6033,9 @@
       <c r="AN42" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6036,6 +6164,9 @@
       <c r="AN43" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6164,6 +6295,9 @@
       <c r="AN44" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6290,7 +6424,10 @@
         <v>0.15</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="46">
@@ -6418,7 +6555,10 @@
         <v>0.775</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.725</v>
       </c>
     </row>
     <row r="47">
@@ -6548,6 +6688,9 @@
       <c r="AN47" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO47" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6676,6 +6819,9 @@
       <c r="AN48" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO48" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6804,6 +6950,9 @@
       <c r="AN49" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO49" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6930,7 +7079,10 @@
         <v>0.61</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -7058,7 +7210,10 @@
         <v>0.29</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="52">
@@ -7186,7 +7341,10 @@
         <v>0.01</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="53">
@@ -7316,6 +7474,9 @@
       <c r="AN53" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7444,6 +7605,9 @@
       <c r="AN54" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7570,7 +7734,10 @@
         <v>0.7</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="56">
@@ -7698,7 +7865,10 @@
         <v>0.24</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="57">
@@ -7828,6 +7998,9 @@
       <c r="AN57" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO57" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7956,6 +8129,9 @@
       <c r="AN58" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO58" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8084,6 +8260,9 @@
       <c r="AN59" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO59" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8210,7 +8389,10 @@
         <v>0.8</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -8338,7 +8520,10 @@
         <v>0.165</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.165</v>
       </c>
     </row>
     <row r="62">
@@ -8468,6 +8653,9 @@
       <c r="AN62" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8596,6 +8784,9 @@
       <c r="AN63" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO63" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8724,6 +8915,9 @@
       <c r="AN64" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO64" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8850,7 +9044,10 @@
         <v>0.68</v>
       </c>
       <c r="AN65" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="66">
@@ -8978,7 +9175,10 @@
         <v>0.265</v>
       </c>
       <c r="AN66" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="67">
@@ -9106,7 +9306,10 @@
         <v>0.01</v>
       </c>
       <c r="AN67" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -9236,6 +9439,9 @@
       <c r="AN68" t="n">
         <v>0</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9364,6 +9570,9 @@
       <c r="AN69" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO69" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9492,6 +9701,9 @@
       <c r="AN70" t="n">
         <v>0.77</v>
       </c>
+      <c r="AO70" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9618,7 +9830,10 @@
         <v>0.17</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.175</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="72">
@@ -9748,6 +9963,9 @@
       <c r="AN72" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO72" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9876,6 +10094,9 @@
       <c r="AN73" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO73" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10004,6 +10225,9 @@
       <c r="AN74" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10132,6 +10356,9 @@
       <c r="AN75" t="n">
         <v>0.57</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10260,6 +10487,9 @@
       <c r="AN76" t="n">
         <v>0.355</v>
       </c>
+      <c r="AO76" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10388,6 +10618,9 @@
       <c r="AN77" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO77" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10516,6 +10749,9 @@
       <c r="AN78" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO78" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10642,7 +10878,10 @@
         <v>0.03</v>
       </c>
       <c r="AN79" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="80">
@@ -10772,6 +11011,9 @@
       <c r="AN80" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO80" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10898,7 +11140,10 @@
         <v>0.215</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.205</v>
       </c>
     </row>
     <row r="82">
@@ -11028,6 +11273,9 @@
       <c r="AN82" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO82" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11156,6 +11404,9 @@
       <c r="AN83" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO83" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11284,6 +11535,9 @@
       <c r="AN84" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO84" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11412,6 +11666,9 @@
       <c r="AN85" t="n">
         <v>0.51</v>
       </c>
+      <c r="AO85" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11540,6 +11797,9 @@
       <c r="AN86" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO86" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11668,6 +11928,9 @@
       <c r="AN87" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO87" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11796,6 +12059,9 @@
       <c r="AN88" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO88" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11924,6 +12190,9 @@
       <c r="AN89" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO89" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12050,7 +12319,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="91">
@@ -12178,7 +12450,10 @@
         <v>0.285</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="92">
@@ -12308,6 +12583,9 @@
       <c r="AN92" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12436,6 +12714,9 @@
       <c r="AN93" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO93" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12562,7 +12843,10 @@
         <v>0.04</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="95">
@@ -12692,6 +12976,9 @@
       <c r="AN95" t="n">
         <v>0.74</v>
       </c>
+      <c r="AO95" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12818,7 +13105,10 @@
         <v>0.23</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="97">
@@ -12946,6 +13236,9 @@
         <v>0</v>
       </c>
       <c r="AN97" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AO97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13076,6 +13369,9 @@
       <c r="AN98" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO98" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13204,6 +13500,9 @@
       <c r="AN99" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO99" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13330,7 +13629,10 @@
         <v>0.78</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="101">
@@ -13458,7 +13760,10 @@
         <v>0.14</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="102">
@@ -13588,6 +13893,9 @@
       <c r="AN102" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO102" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13716,6 +14024,9 @@
       <c r="AN103" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO103" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13844,6 +14155,9 @@
       <c r="AN104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO104" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13972,6 +14286,9 @@
       <c r="AN105" t="n">
         <v>0.8</v>
       </c>
+      <c r="AO105" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14100,6 +14417,9 @@
       <c r="AN106" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO106" t="n">
+        <v>0.105</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14226,6 +14546,9 @@
         <v>0.005</v>
       </c>
       <c r="AN107" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AO107" t="n">
         <v>0.005</v>
       </c>
     </row>
@@ -14356,6 +14679,9 @@
       <c r="AN108" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO108" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14484,6 +14810,9 @@
       <c r="AN109" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO109" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14610,7 +14939,10 @@
         <v>0.9</v>
       </c>
       <c r="AN110" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="111">
@@ -14738,7 +15070,10 @@
         <v>0.03</v>
       </c>
       <c r="AN111" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.045</v>
       </c>
     </row>
     <row r="112">
@@ -14868,6 +15203,9 @@
       <c r="AN112" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO112" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14996,6 +15334,9 @@
       <c r="AN113" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15124,6 +15465,9 @@
       <c r="AN114" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO114" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15252,6 +15596,9 @@
       <c r="AN115" t="n">
         <v>0.91</v>
       </c>
+      <c r="AO115" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15380,6 +15727,9 @@
       <c r="AN116" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO116" t="n">
+        <v>0.045</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15508,6 +15858,9 @@
       <c r="AN117" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO117" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15636,6 +15989,9 @@
       <c r="AN118" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO118" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15764,6 +16120,9 @@
       <c r="AN119" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO119" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15890,7 +16249,10 @@
         <v>0.91</v>
       </c>
       <c r="AN120" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="121">
@@ -16018,6 +16380,9 @@
         <v>0.03</v>
       </c>
       <c r="AN121" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AO121" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -16148,6 +16513,9 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
+      <c r="AO122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16276,6 +16644,9 @@
       <c r="AN123" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO123" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16404,6 +16775,9 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
+      <c r="AO124" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16532,6 +16906,9 @@
       <c r="AN125" t="n">
         <v>0.89</v>
       </c>
+      <c r="AO125" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16660,6 +17037,9 @@
       <c r="AN126" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO126" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16788,6 +17168,9 @@
       <c r="AN127" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO127" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16916,6 +17299,9 @@
       <c r="AN128" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO128" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17044,6 +17430,9 @@
       <c r="AN129" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO129" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17172,6 +17561,9 @@
       <c r="AN130" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO130" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17300,6 +17692,9 @@
       <c r="AN131" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO131" t="n">
+        <v>0.155</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17428,6 +17823,9 @@
       <c r="AN132" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO132" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17556,6 +17954,9 @@
       <c r="AN133" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO133" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17682,7 +18083,10 @@
         <v>0.02</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="135">
@@ -17810,7 +18214,10 @@
         <v>0.57</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="136">
@@ -17940,11 +18347,14 @@
       <c r="AN136" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO136" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Destabilizace práce, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -17959,7 +18369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18160,7 +18570,12 @@
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t>25. 1. 2021</t>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18699,10 @@
         <v>1323</v>
       </c>
       <c r="AM2" t="n">
-        <v>1359</v>
+        <v>1384</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1338</v>
       </c>
     </row>
     <row r="3">
@@ -18407,7 +18825,10 @@
         <v>830</v>
       </c>
       <c r="AM3" t="n">
-        <v>847</v>
+        <v>861</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>839</v>
       </c>
     </row>
     <row r="4">
@@ -18530,7 +18951,10 @@
         <v>135</v>
       </c>
       <c r="AM4" t="n">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -18653,7 +19077,10 @@
         <v>109</v>
       </c>
       <c r="AM5" t="n">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -18776,7 +19203,10 @@
         <v>249</v>
       </c>
       <c r="AM6" t="n">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="7">
@@ -18899,7 +19329,10 @@
         <v>798</v>
       </c>
       <c r="AM7" t="n">
-        <v>813</v>
+        <v>825</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>801</v>
       </c>
     </row>
     <row r="8">
@@ -19022,7 +19455,10 @@
         <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -19145,7 +19581,10 @@
         <v>93</v>
       </c>
       <c r="AM9" t="n">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -19268,7 +19707,10 @@
         <v>312</v>
       </c>
       <c r="AM10" t="n">
-        <v>334</v>
+        <v>340</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="11">
@@ -19391,7 +19833,10 @@
         <v>574</v>
       </c>
       <c r="AM11" t="n">
-        <v>586</v>
+        <v>590</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -19514,7 +19959,10 @@
         <v>479</v>
       </c>
       <c r="AM12" t="n">
-        <v>491</v>
+        <v>505</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="13">
@@ -19637,7 +20085,10 @@
         <v>270</v>
       </c>
       <c r="AM13" t="n">
-        <v>282</v>
+        <v>289</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="14">
@@ -19760,7 +20211,10 @@
         <v>384</v>
       </c>
       <c r="AM14" t="n">
-        <v>399</v>
+        <v>415</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="15">
@@ -19883,7 +20337,10 @@
         <v>165</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -20006,7 +20463,10 @@
         <v>254</v>
       </c>
       <c r="AM16" t="n">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="17">
@@ -20129,7 +20589,10 @@
         <v>380</v>
       </c>
       <c r="AM17" t="n">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="18">
@@ -20252,7 +20715,10 @@
         <v>204</v>
       </c>
       <c r="AM18" t="n">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="19">
@@ -20375,7 +20841,10 @@
         <v>422</v>
       </c>
       <c r="AM19" t="n">
-        <v>440</v>
+        <v>451</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>426</v>
       </c>
     </row>
     <row r="20">
@@ -20498,7 +20967,10 @@
         <v>403</v>
       </c>
       <c r="AM20" t="n">
-        <v>422</v>
+        <v>429</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>418</v>
       </c>
     </row>
     <row r="21">
@@ -20621,7 +21093,10 @@
         <v>166</v>
       </c>
       <c r="AM21" t="n">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -20744,7 +21219,10 @@
         <v>307</v>
       </c>
       <c r="AM22" t="n">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="23">
@@ -20867,7 +21345,10 @@
         <v>86</v>
       </c>
       <c r="AM23" t="n">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -20990,7 +21471,10 @@
         <v>277</v>
       </c>
       <c r="AM24" t="n">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="25">
@@ -21113,7 +21597,10 @@
         <v>153</v>
       </c>
       <c r="AM25" t="n">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="26">
@@ -21236,7 +21723,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -21359,7 +21849,10 @@
         <v>658</v>
       </c>
       <c r="AM27" t="n">
-        <v>669</v>
+        <v>677</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>646</v>
       </c>
     </row>
     <row r="28">
@@ -21482,13 +21975,16 @@
         <v>665</v>
       </c>
       <c r="AM28" t="n">
-        <v>690</v>
+        <v>707</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Destabilizace práce, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -21529,6 +22025,7 @@
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
